--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erfrr\Desktop\Senior_Project\Avoid-The-Boss\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\OneDrive\Desktop\CG_Project\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1264D6CB-C18D-49D0-8BEB-4190ECD75A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8437BB5-EC3A-4BB1-A9A7-352CD9A95A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31755" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1501,6 +1501,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1753,7 +1766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2105,6 +2118,72 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2114,6 +2193,9 @@
     <xf numFmtId="0" fontId="18" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2129,74 +2211,29 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -2900,162 +2937,162 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.58203125" style="2" customWidth="1"/>
-    <col min="9" max="48" width="2.75" style="1" customWidth="1"/>
-    <col min="49" max="49" width="2.75" style="40" customWidth="1"/>
-    <col min="50" max="53" width="2.75" style="1" customWidth="1"/>
-    <col min="54" max="55" width="2.58203125" style="1" customWidth="1"/>
-    <col min="56" max="100" width="2.75" style="1" customWidth="1"/>
-    <col min="101" max="256" width="8.9140625" style="1"/>
+    <col min="5" max="5" width="2.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
+    <col min="9" max="48" width="2.77734375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="2.77734375" style="40" customWidth="1"/>
+    <col min="50" max="53" width="2.77734375" style="1" customWidth="1"/>
+    <col min="54" max="55" width="2.5546875" style="1" customWidth="1"/>
+    <col min="56" max="100" width="2.77734375" style="1" customWidth="1"/>
+    <col min="101" max="256" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AW1" s="1"/>
     </row>
-    <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="134" t="s">
+    <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="134"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="134"/>
-      <c r="AZ2" s="134"/>
-    </row>
-    <row r="3" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="134"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="134"/>
-      <c r="AJ3" s="134"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="134"/>
-      <c r="AU3" s="134"/>
-      <c r="AV3" s="134"/>
-      <c r="AW3" s="134"/>
-      <c r="AX3" s="134"/>
-      <c r="AY3" s="134"/>
-      <c r="AZ3" s="134"/>
-    </row>
-    <row r="4" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="133" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="129"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="129"/>
+      <c r="AS2" s="129"/>
+      <c r="AT2" s="129"/>
+      <c r="AU2" s="129"/>
+      <c r="AV2" s="129"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="129"/>
+      <c r="AZ2" s="129"/>
+    </row>
+    <row r="3" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129"/>
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="129"/>
+      <c r="AV3" s="129"/>
+      <c r="AW3" s="129"/>
+      <c r="AX3" s="129"/>
+      <c r="AY3" s="129"/>
+      <c r="AZ3" s="129"/>
+    </row>
+    <row r="4" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="109"/>
       <c r="AW4" s="1"/>
       <c r="AZ4" s="96"/>
     </row>
-    <row r="5" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+    <row r="5" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="48"/>
       <c r="H5" s="45"/>
       <c r="I5" s="94"/>
@@ -3099,12 +3136,12 @@
       <c r="AU5" s="93"/>
       <c r="AV5" s="95"/>
     </row>
-    <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="128"/>
+    <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="49" t="s">
         <v>86</v>
       </c>
@@ -3169,12 +3206,12 @@
       <c r="AV6" s="72"/>
       <c r="AW6" s="91"/>
     </row>
-    <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
+    <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="49"/>
       <c r="H7" s="46"/>
       <c r="I7" s="106">
@@ -3307,12 +3344,12 @@
       </c>
       <c r="AW7" s="91"/>
     </row>
-    <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="130"/>
+    <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="135"/>
       <c r="G8" s="50"/>
       <c r="H8" s="47"/>
       <c r="I8" s="106"/>
@@ -3360,7 +3397,7 @@
       <c r="AY8"/>
       <c r="AZ8"/>
     </row>
-    <row r="9" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="27" t="s">
         <v>0</v>
       </c>
@@ -3375,21 +3412,21 @@
       <c r="G9" s="37"/>
       <c r="H9" s="63"/>
       <c r="I9" s="62"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -3418,7 +3455,7 @@
       <c r="BC9" s="89"/>
       <c r="BD9" s="89"/>
     </row>
-    <row r="10" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="33" t="s">
@@ -3436,8 +3473,8 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -3477,7 +3514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="33" t="s">
@@ -3494,7 +3531,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="154"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -3530,7 +3567,7 @@
       <c r="BC11" s="89"/>
       <c r="BD11" s="89"/>
     </row>
-    <row r="12" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
       <c r="D12" s="34" t="s">
@@ -3548,8 +3585,8 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -3589,7 +3626,7 @@
       <c r="BW12" s="90"/>
       <c r="BX12" s="90"/>
     </row>
-    <row r="13" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="28"/>
       <c r="C13" s="27" t="s">
         <v>12</v>
@@ -3599,16 +3636,16 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="37">
-        <v>90</v>
+      <c r="G13" s="148">
+        <v>0.8</v>
       </c>
       <c r="H13" s="63">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I13" s="110"/>
       <c r="J13" s="111"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3650,29 +3687,29 @@
       <c r="BD13" s="89"/>
       <c r="BH13" s="92"/>
     </row>
-    <row r="14" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="135" t="s">
+      <c r="E14" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="135"/>
-      <c r="G14" s="37">
-        <v>20</v>
+      <c r="F14" s="136"/>
+      <c r="G14" s="148">
+        <v>0.7</v>
       </c>
       <c r="H14" s="63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14" s="110"/>
       <c r="J14" s="111"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -3710,7 +3747,7 @@
       <c r="BC14" s="89"/>
       <c r="BD14" s="89"/>
     </row>
-    <row r="15" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="33" t="s">
@@ -3718,15 +3755,19 @@
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="41"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="63"/>
+      <c r="G15" s="148">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="63">
+        <v>8</v>
+      </c>
       <c r="I15" s="110"/>
       <c r="J15" s="111"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -3764,7 +3805,7 @@
       <c r="BC15" s="89"/>
       <c r="BD15" s="89"/>
     </row>
-    <row r="16" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="34" t="s">
@@ -3784,11 +3825,11 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="S16" s="155"/>
+      <c r="T16" s="155"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="8"/>
@@ -3823,30 +3864,30 @@
       <c r="BW16" s="90"/>
       <c r="BX16" s="90"/>
     </row>
-    <row r="17" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="131" t="s">
+    <row r="17" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="132"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="109"/>
     </row>
-    <row r="21" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="117" t="s">
+    <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="125" t="s">
+      <c r="E21" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="126"/>
+      <c r="F21" s="131"/>
       <c r="G21" s="48"/>
       <c r="H21" s="45"/>
       <c r="I21" s="94"/>
@@ -3890,12 +3931,12 @@
       <c r="AU21" s="93"/>
       <c r="AV21" s="95"/>
     </row>
-    <row r="22" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="128"/>
+    <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="49" t="s">
         <v>86</v>
       </c>
@@ -3959,13 +4000,13 @@
       <c r="AU22" s="73"/>
       <c r="AV22" s="72"/>
     </row>
-    <row r="23" spans="1:249" s="76" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:249" s="76" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="130"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="135"/>
       <c r="G23" s="50"/>
       <c r="H23" s="47"/>
       <c r="I23" s="106">
@@ -4298,7 +4339,7 @@
       <c r="IN23" s="1"/>
       <c r="IO23" s="1"/>
     </row>
-    <row r="24" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19" t="s">
         <v>80</v>
       </c>
@@ -4308,10 +4349,10 @@
       <c r="D24" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="121" t="s">
+      <c r="E24" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="121"/>
+      <c r="F24" s="144"/>
       <c r="G24" s="75">
         <v>100</v>
       </c>
@@ -4360,7 +4401,7 @@
       <c r="AV24" s="102"/>
       <c r="AW24" s="91"/>
     </row>
-    <row r="25" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
       <c r="C25" s="21" t="s">
         <v>84</v>
@@ -4368,8 +4409,8 @@
       <c r="D25" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
       <c r="G25" s="44">
         <v>100</v>
       </c>
@@ -4416,14 +4457,14 @@
       <c r="AV25" s="82"/>
       <c r="AW25" s="91"/>
     </row>
-    <row r="26" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19"/>
       <c r="C26" s="21"/>
       <c r="D26" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
       <c r="G26" s="44">
         <v>100</v>
       </c>
@@ -4472,14 +4513,14 @@
       <c r="AV26" s="82"/>
       <c r="AW26" s="91"/>
     </row>
-    <row r="27" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="19"/>
       <c r="C27" s="21"/>
       <c r="D27" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
       <c r="G27" s="44">
         <v>100</v>
       </c>
@@ -4526,7 +4567,7 @@
       <c r="AV27" s="82"/>
       <c r="AW27" s="91"/>
     </row>
-    <row r="28" spans="1:249" s="2" customFormat="1" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:249" s="2" customFormat="1" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
       <c r="C28" s="22"/>
       <c r="D28" s="55"/>
@@ -4576,7 +4617,7 @@
       <c r="AV28" s="82"/>
       <c r="AW28" s="91"/>
     </row>
-    <row r="29" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="19"/>
       <c r="C29" s="18" t="s">
         <v>85</v>
@@ -4584,10 +4625,10 @@
       <c r="D29" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="123" t="s">
+      <c r="E29" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="123"/>
+      <c r="F29" s="146"/>
       <c r="G29" s="44"/>
       <c r="H29" s="51"/>
       <c r="I29" s="56"/>
@@ -4632,14 +4673,14 @@
       <c r="AV29" s="82"/>
       <c r="AW29" s="91"/>
     </row>
-    <row r="30" spans="1:249" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
       <c r="G30" s="44"/>
       <c r="H30" s="51"/>
       <c r="I30" s="56"/>
@@ -4735,14 +4776,14 @@
       <c r="CU30" s="2"/>
       <c r="CV30" s="2"/>
     </row>
-    <row r="31" spans="1:249" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
       <c r="G31" s="44"/>
       <c r="H31" s="51"/>
       <c r="I31" s="56"/>
@@ -4838,14 +4879,14 @@
       <c r="CU31" s="2"/>
       <c r="CV31" s="2"/>
     </row>
-    <row r="32" spans="1:249" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
       <c r="G32" s="44"/>
       <c r="H32" s="51"/>
       <c r="I32" s="56"/>
@@ -4941,14 +4982,14 @@
       <c r="CU32" s="2"/>
       <c r="CV32" s="2"/>
     </row>
-    <row r="33" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
       <c r="G33" s="44"/>
       <c r="H33" s="51"/>
       <c r="I33" s="56"/>
@@ -5044,7 +5085,7 @@
       <c r="CU33" s="2"/>
       <c r="CV33" s="2"/>
     </row>
-    <row r="34" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="19"/>
       <c r="C34" s="18" t="s">
         <v>2</v>
@@ -5052,10 +5093,10 @@
       <c r="D34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="122" t="s">
+      <c r="E34" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="122"/>
+      <c r="F34" s="145"/>
       <c r="G34" s="44"/>
       <c r="H34" s="51"/>
       <c r="I34" s="56"/>
@@ -5151,14 +5192,14 @@
       <c r="CU34" s="2"/>
       <c r="CV34" s="2"/>
     </row>
-    <row r="35" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="44"/>
       <c r="H35" s="51"/>
       <c r="I35" s="56"/>
@@ -5254,14 +5295,14 @@
       <c r="CU35" s="2"/>
       <c r="CV35" s="2"/>
     </row>
-    <row r="36" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
       <c r="G36" s="44"/>
       <c r="H36" s="51"/>
       <c r="I36" s="56"/>
@@ -5357,14 +5398,14 @@
       <c r="CU36" s="2"/>
       <c r="CV36" s="2"/>
     </row>
-    <row r="37" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
       <c r="G37" s="44"/>
       <c r="H37" s="51"/>
       <c r="I37" s="56"/>
@@ -5460,14 +5501,14 @@
       <c r="CU37" s="2"/>
       <c r="CV37" s="2"/>
     </row>
-    <row r="38" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
       <c r="G38" s="44"/>
       <c r="H38" s="51"/>
       <c r="I38" s="56"/>
@@ -5563,14 +5604,14 @@
       <c r="CU38" s="2"/>
       <c r="CV38" s="2"/>
     </row>
-    <row r="39" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:100" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
       <c r="G39" s="44"/>
       <c r="H39" s="51"/>
       <c r="I39" s="56"/>
@@ -5666,7 +5707,7 @@
       <c r="CU39" s="2"/>
       <c r="CV39" s="2"/>
     </row>
-    <row r="40" spans="2:100" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:100" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="11"/>
@@ -5767,7 +5808,7 @@
       <c r="CU40" s="2"/>
       <c r="CV40" s="2"/>
     </row>
-    <row r="41" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:100" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="19"/>
       <c r="C41" s="30" t="s">
         <v>79</v>
@@ -5775,10 +5816,10 @@
       <c r="D41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="123" t="s">
+      <c r="E41" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="123"/>
+      <c r="F41" s="146"/>
       <c r="G41" s="44"/>
       <c r="H41" s="51"/>
       <c r="I41" s="58"/>
@@ -5822,14 +5863,14 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="84"/>
     </row>
-    <row r="42" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="19"/>
       <c r="C42" s="31"/>
       <c r="D42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
       <c r="G42" s="44"/>
       <c r="H42" s="51"/>
       <c r="I42" s="58"/>
@@ -5873,14 +5914,14 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="84"/>
     </row>
-    <row r="43" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19"/>
       <c r="C43" s="31"/>
       <c r="D43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
       <c r="G43" s="44"/>
       <c r="H43" s="51"/>
       <c r="I43" s="58"/>
@@ -5924,14 +5965,14 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="84"/>
     </row>
-    <row r="44" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19"/>
       <c r="C44" s="31"/>
       <c r="D44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
       <c r="G44" s="44"/>
       <c r="H44" s="51"/>
       <c r="I44" s="58"/>
@@ -5975,7 +6016,7 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="84"/>
     </row>
-    <row r="45" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19"/>
       <c r="C45" s="30" t="s">
         <v>78</v>
@@ -5983,10 +6024,10 @@
       <c r="D45" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="124" t="s">
+      <c r="E45" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="124"/>
+      <c r="F45" s="147"/>
       <c r="G45" s="44"/>
       <c r="H45" s="51"/>
       <c r="I45" s="58"/>
@@ -6030,14 +6071,14 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="84"/>
     </row>
-    <row r="46" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19"/>
       <c r="C46" s="31"/>
       <c r="D46" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
       <c r="G46" s="44"/>
       <c r="H46" s="51"/>
       <c r="I46" s="58"/>
@@ -6081,14 +6122,14 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="84"/>
     </row>
-    <row r="47" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19"/>
       <c r="C47" s="31"/>
       <c r="D47" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
       <c r="G47" s="44"/>
       <c r="H47" s="51"/>
       <c r="I47" s="66"/>
@@ -6132,14 +6173,14 @@
       <c r="AU47" s="67"/>
       <c r="AV47" s="85"/>
     </row>
-    <row r="48" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="19"/>
       <c r="C48" s="31"/>
       <c r="D48" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
       <c r="G48" s="44"/>
       <c r="H48" s="51"/>
       <c r="I48" s="66"/>
@@ -6183,14 +6224,14 @@
       <c r="AU48" s="67"/>
       <c r="AV48" s="85"/>
     </row>
-    <row r="49" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="19"/>
       <c r="C49" s="31"/>
       <c r="D49" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
       <c r="G49" s="44"/>
       <c r="H49" s="51"/>
       <c r="I49" s="66"/>
@@ -6234,7 +6275,7 @@
       <c r="AU49" s="67"/>
       <c r="AV49" s="85"/>
     </row>
-    <row r="50" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="20"/>
       <c r="C50" s="68" t="s">
         <v>5</v>
@@ -6242,10 +6283,10 @@
       <c r="D50" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="120" t="s">
+      <c r="E50" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="120"/>
+      <c r="F50" s="143"/>
       <c r="G50" s="44"/>
       <c r="H50" s="51"/>
       <c r="I50" s="59"/>
@@ -6289,37 +6330,37 @@
       <c r="AU50" s="6"/>
       <c r="AV50" s="86"/>
     </row>
-    <row r="51" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AW51" s="1"/>
     </row>
-    <row r="52" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AW52" s="1"/>
     </row>
-    <row r="53" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AW53" s="1"/>
     </row>
-    <row r="54" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="131" t="s">
+    <row r="54" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="132"/>
+      <c r="C54" s="138"/>
       <c r="D54" s="109"/>
       <c r="AW54" s="1"/>
     </row>
-    <row r="55" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="117" t="s">
+    <row r="55" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="117" t="s">
+      <c r="C55" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="117" t="s">
+      <c r="D55" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="125" t="s">
+      <c r="E55" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="126"/>
+      <c r="F55" s="131"/>
       <c r="G55" s="48"/>
       <c r="H55" s="45"/>
       <c r="I55" s="94"/>
@@ -6364,12 +6405,12 @@
       <c r="AV55" s="95"/>
       <c r="AW55" s="1"/>
     </row>
-    <row r="56" spans="2:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="128"/>
+    <row r="56" spans="2:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="140"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="133"/>
       <c r="G56" s="49" t="s">
         <v>86</v>
       </c>
@@ -6434,12 +6475,12 @@
       <c r="AV56" s="72"/>
       <c r="AW56" s="1"/>
     </row>
-    <row r="57" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="130"/>
+    <row r="57" spans="2:49" x14ac:dyDescent="0.15">
+      <c r="B57" s="141"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="135"/>
       <c r="G57" s="50"/>
       <c r="H57" s="47"/>
       <c r="I57" s="106">
@@ -6572,7 +6613,7 @@
       </c>
       <c r="AW57" s="1"/>
     </row>
-    <row r="58" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B58" s="23" t="s">
         <v>13</v>
       </c>
@@ -6594,7 +6635,7 @@
       </c>
       <c r="I58" s="114"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="136"/>
+      <c r="K58" s="117"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -6633,7 +6674,7 @@
       <c r="AU58" s="9"/>
       <c r="AV58" s="87"/>
     </row>
-    <row r="59" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="17" t="s">
@@ -6648,13 +6689,13 @@
       <c r="I59" s="58"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="138"/>
+      <c r="L59" s="119"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="141"/>
-      <c r="O59" s="140"/>
-      <c r="P59" s="140"/>
-      <c r="Q59" s="141"/>
-      <c r="R59" s="141"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="121"/>
+      <c r="P59" s="121"/>
+      <c r="Q59" s="122"/>
+      <c r="R59" s="122"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -6686,7 +6727,7 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="84"/>
     </row>
-    <row r="60" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="16" t="s">
@@ -6704,12 +6745,12 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="138"/>
-      <c r="N60" s="141"/>
-      <c r="O60" s="141"/>
-      <c r="P60" s="141"/>
-      <c r="Q60" s="140"/>
-      <c r="R60" s="140"/>
+      <c r="M60" s="119"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="122"/>
+      <c r="P60" s="122"/>
+      <c r="Q60" s="121"/>
+      <c r="R60" s="121"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -6741,7 +6782,7 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="84"/>
     </row>
-    <row r="61" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="36" t="s">
@@ -6757,14 +6798,14 @@
       </c>
       <c r="I61" s="59"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="137"/>
-      <c r="L61" s="137"/>
-      <c r="M61" s="137"/>
-      <c r="N61" s="139"/>
-      <c r="O61" s="139"/>
-      <c r="P61" s="139"/>
-      <c r="Q61" s="139"/>
-      <c r="R61" s="142"/>
+      <c r="K61" s="118"/>
+      <c r="L61" s="118"/>
+      <c r="M61" s="118"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="120"/>
+      <c r="P61" s="120"/>
+      <c r="Q61" s="120"/>
+      <c r="R61" s="123"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
@@ -6796,7 +6837,7 @@
       <c r="AU61" s="6"/>
       <c r="AV61" s="86"/>
     </row>
-    <row r="62" spans="2:49" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="24"/>
       <c r="C62" s="23" t="s">
         <v>17</v>
@@ -6820,10 +6861,10 @@
       <c r="P62" s="61"/>
       <c r="Q62" s="61"/>
       <c r="R62" s="61"/>
-      <c r="S62" s="143"/>
-      <c r="T62" s="143"/>
-      <c r="U62" s="144"/>
-      <c r="V62" s="144"/>
+      <c r="S62" s="124"/>
+      <c r="T62" s="124"/>
+      <c r="U62" s="125"/>
+      <c r="V62" s="125"/>
       <c r="W62" s="61"/>
       <c r="X62" s="61"/>
       <c r="Y62" s="61"/>
@@ -6851,7 +6892,7 @@
       <c r="AU62" s="61"/>
       <c r="AV62" s="88"/>
     </row>
-    <row r="63" spans="2:49" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="14" t="s">
@@ -6873,12 +6914,12 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="140"/>
-      <c r="V63" s="140"/>
-      <c r="W63" s="140"/>
-      <c r="X63" s="145"/>
-      <c r="Y63" s="145"/>
-      <c r="Z63" s="141"/>
+      <c r="U63" s="121"/>
+      <c r="V63" s="121"/>
+      <c r="W63" s="121"/>
+      <c r="X63" s="126"/>
+      <c r="Y63" s="126"/>
+      <c r="Z63" s="122"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
@@ -6902,7 +6943,7 @@
       <c r="AU63" s="3"/>
       <c r="AV63" s="84"/>
     </row>
-    <row r="64" spans="2:49" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
       <c r="D64" s="14" t="s">
@@ -6921,20 +6962,20 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
-      <c r="S64" s="141"/>
-      <c r="T64" s="141"/>
-      <c r="U64" s="141"/>
-      <c r="V64" s="141"/>
-      <c r="W64" s="141"/>
+      <c r="S64" s="122"/>
+      <c r="T64" s="122"/>
+      <c r="U64" s="122"/>
+      <c r="V64" s="122"/>
+      <c r="W64" s="122"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
-      <c r="AA64" s="140"/>
-      <c r="AB64" s="140"/>
-      <c r="AC64" s="140"/>
-      <c r="AD64" s="145"/>
-      <c r="AE64" s="145"/>
-      <c r="AF64" s="145"/>
+      <c r="AA64" s="121"/>
+      <c r="AB64" s="121"/>
+      <c r="AC64" s="121"/>
+      <c r="AD64" s="126"/>
+      <c r="AE64" s="126"/>
+      <c r="AF64" s="126"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
@@ -6952,7 +6993,7 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="84"/>
     </row>
-    <row r="65" spans="2:49" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
       <c r="D65" s="15" t="s">
@@ -6983,18 +7024,18 @@
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
-      <c r="AD65" s="142"/>
-      <c r="AE65" s="142"/>
-      <c r="AF65" s="147"/>
-      <c r="AG65" s="147"/>
-      <c r="AH65" s="147"/>
-      <c r="AI65" s="147"/>
-      <c r="AJ65" s="147"/>
-      <c r="AK65" s="147"/>
-      <c r="AL65" s="147"/>
-      <c r="AM65" s="147"/>
-      <c r="AN65" s="147"/>
-      <c r="AO65" s="147"/>
+      <c r="AD65" s="123"/>
+      <c r="AE65" s="123"/>
+      <c r="AF65" s="128"/>
+      <c r="AG65" s="128"/>
+      <c r="AH65" s="128"/>
+      <c r="AI65" s="128"/>
+      <c r="AJ65" s="128"/>
+      <c r="AK65" s="128"/>
+      <c r="AL65" s="128"/>
+      <c r="AM65" s="128"/>
+      <c r="AN65" s="128"/>
+      <c r="AO65" s="128"/>
       <c r="AP65" s="6"/>
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6"/>
@@ -7003,7 +7044,7 @@
       <c r="AU65" s="6"/>
       <c r="AV65" s="86"/>
     </row>
-    <row r="66" spans="2:49" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B66" s="24"/>
       <c r="C66" s="23" t="s">
         <v>28</v>
@@ -7031,9 +7072,9 @@
       <c r="T66" s="61"/>
       <c r="U66" s="61"/>
       <c r="V66" s="61"/>
-      <c r="W66" s="143"/>
-      <c r="X66" s="143"/>
-      <c r="Y66" s="146"/>
+      <c r="W66" s="124"/>
+      <c r="X66" s="124"/>
+      <c r="Y66" s="127"/>
       <c r="Z66" s="61"/>
       <c r="AA66" s="61"/>
       <c r="AB66" s="61"/>
@@ -7058,7 +7099,7 @@
       <c r="AU66" s="61"/>
       <c r="AV66" s="88"/>
     </row>
-    <row r="67" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
       <c r="D67" s="17" t="s">
@@ -7084,8 +7125,8 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="145"/>
-      <c r="Z67" s="145"/>
+      <c r="Y67" s="126"/>
+      <c r="Z67" s="126"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
@@ -7109,7 +7150,7 @@
       <c r="AU67" s="3"/>
       <c r="AV67" s="84"/>
     </row>
-    <row r="68" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
       <c r="D68" s="16"/>
@@ -7158,7 +7199,7 @@
       <c r="AU68" s="3"/>
       <c r="AV68" s="84"/>
     </row>
-    <row r="69" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
       <c r="D69" s="36"/>
@@ -7207,7 +7248,7 @@
       <c r="AU69" s="6"/>
       <c r="AV69" s="86"/>
     </row>
-    <row r="70" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B70" s="24"/>
       <c r="C70" s="23" t="s">
         <v>77</v>
@@ -7226,11 +7267,11 @@
       <c r="K70" s="61"/>
       <c r="L70" s="61"/>
       <c r="M70" s="61"/>
-      <c r="N70" s="146"/>
-      <c r="O70" s="146"/>
+      <c r="N70" s="127"/>
+      <c r="O70" s="127"/>
       <c r="P70" s="61"/>
       <c r="Q70" s="61"/>
-      <c r="R70" s="144"/>
+      <c r="R70" s="125"/>
       <c r="S70" s="61"/>
       <c r="T70" s="61"/>
       <c r="U70" s="61"/>
@@ -7262,7 +7303,7 @@
       <c r="AU70" s="61"/>
       <c r="AV70" s="88"/>
     </row>
-    <row r="71" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
       <c r="D71" s="14" t="s">
@@ -7281,11 +7322,11 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="138"/>
+      <c r="N71" s="119"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="141"/>
+      <c r="R71" s="122"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
@@ -7317,7 +7358,7 @@
       <c r="AU71" s="3"/>
       <c r="AV71" s="84"/>
     </row>
-    <row r="72" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B72" s="24"/>
       <c r="C72" s="23" t="s">
         <v>55</v>
@@ -7356,10 +7397,10 @@
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
-      <c r="AH72" s="145"/>
-      <c r="AI72" s="140"/>
-      <c r="AJ72" s="140"/>
-      <c r="AK72" s="140"/>
+      <c r="AH72" s="126"/>
+      <c r="AI72" s="121"/>
+      <c r="AJ72" s="121"/>
+      <c r="AK72" s="121"/>
       <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
@@ -7372,7 +7413,7 @@
       <c r="AU72" s="3"/>
       <c r="AV72" s="84"/>
     </row>
-    <row r="73" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="15" t="s">
@@ -7407,13 +7448,13 @@
       <c r="AE73" s="6"/>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
-      <c r="AH73" s="142"/>
-      <c r="AI73" s="142"/>
-      <c r="AJ73" s="142"/>
-      <c r="AK73" s="142"/>
-      <c r="AL73" s="147"/>
-      <c r="AM73" s="147"/>
-      <c r="AN73" s="147"/>
+      <c r="AH73" s="123"/>
+      <c r="AI73" s="123"/>
+      <c r="AJ73" s="123"/>
+      <c r="AK73" s="123"/>
+      <c r="AL73" s="128"/>
+      <c r="AM73" s="128"/>
+      <c r="AN73" s="128"/>
       <c r="AO73" s="6"/>
       <c r="AP73" s="6"/>
       <c r="AQ73" s="6"/>
@@ -7423,146 +7464,146 @@
       <c r="AU73" s="6"/>
       <c r="AV73" s="86"/>
     </row>
-    <row r="74" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:49" x14ac:dyDescent="0.15">
       <c r="AW74" s="1"/>
     </row>
-    <row r="75" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:49" x14ac:dyDescent="0.15">
       <c r="AW75" s="1"/>
     </row>
-    <row r="76" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:49" x14ac:dyDescent="0.15">
       <c r="AW76" s="1"/>
     </row>
-    <row r="77" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:49" x14ac:dyDescent="0.15">
       <c r="AW77" s="1"/>
     </row>
-    <row r="78" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:49" x14ac:dyDescent="0.15">
       <c r="AW78" s="1"/>
     </row>
-    <row r="79" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:49" x14ac:dyDescent="0.15">
       <c r="AW79" s="1"/>
     </row>
-    <row r="80" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:49" x14ac:dyDescent="0.15">
       <c r="AW80" s="1"/>
     </row>
-    <row r="81" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="81" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW81" s="1"/>
     </row>
-    <row r="82" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="82" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW82" s="1"/>
     </row>
-    <row r="83" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="83" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW83" s="1"/>
     </row>
-    <row r="84" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="84" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW84" s="1"/>
     </row>
-    <row r="85" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="85" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW85" s="1"/>
     </row>
-    <row r="86" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="86" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW86" s="1"/>
     </row>
-    <row r="87" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="87" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW87" s="1"/>
     </row>
-    <row r="88" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="88" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW88" s="1"/>
     </row>
-    <row r="89" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="89" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW89" s="1"/>
     </row>
-    <row r="90" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="90" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW90" s="1"/>
     </row>
-    <row r="91" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="91" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW91" s="1"/>
     </row>
-    <row r="92" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="92" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW92" s="1"/>
     </row>
-    <row r="93" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="93" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW93" s="1"/>
     </row>
-    <row r="94" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="94" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW94" s="1"/>
     </row>
-    <row r="95" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="95" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW95" s="1"/>
     </row>
-    <row r="96" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="96" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW96" s="1"/>
     </row>
-    <row r="97" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="97" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW97" s="1"/>
     </row>
-    <row r="98" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="98" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW98" s="1"/>
     </row>
-    <row r="99" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="99" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW99" s="1"/>
     </row>
-    <row r="100" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="100" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW100" s="1"/>
     </row>
-    <row r="101" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="101" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW101" s="1"/>
     </row>
-    <row r="102" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="102" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW102" s="1"/>
     </row>
-    <row r="103" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="103" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW103" s="1"/>
     </row>
-    <row r="104" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="104" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW104" s="1"/>
     </row>
-    <row r="105" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="105" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW105" s="1"/>
     </row>
-    <row r="106" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="106" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW106" s="1"/>
     </row>
-    <row r="107" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="107" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW107" s="1"/>
     </row>
-    <row r="108" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="108" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW108" s="1"/>
     </row>
-    <row r="109" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="109" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW109" s="1"/>
     </row>
-    <row r="110" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="110" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW110" s="1"/>
     </row>
-    <row r="111" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="111" spans="49:49" x14ac:dyDescent="0.15">
       <c r="AW111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B3:AZ3"/>
-    <mergeCell ref="B2:AZ2"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E24:F27"/>
     <mergeCell ref="E29:F33"/>
     <mergeCell ref="E34:F39"/>
     <mergeCell ref="E41:F44"/>
     <mergeCell ref="E45:F49"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B3:AZ3"/>
+    <mergeCell ref="B2:AZ2"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH.S.D\Desktop\Senior_Project\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F357417-A5D3-4B2B-9219-C21416D339A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBEC107-4539-479A-AF95-8DE88794B4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
   <si>
     <t>서버 되감기 동기화 공부 및 분석(30)</t>
   </si>
@@ -338,6 +338,10 @@
   </si>
   <si>
     <t>39시간</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>8시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2178,62 +2182,62 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -2938,7 +2942,7 @@
   <dimension ref="A1:IV111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2963,136 +2967,136 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="143"/>
-      <c r="AQ2" s="143"/>
-      <c r="AR2" s="143"/>
-      <c r="AS2" s="143"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="143"/>
-      <c r="AZ2" s="143"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="159"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="159"/>
+      <c r="AJ2" s="159"/>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="159"/>
+      <c r="AM2" s="159"/>
+      <c r="AN2" s="159"/>
+      <c r="AO2" s="159"/>
+      <c r="AP2" s="159"/>
+      <c r="AQ2" s="159"/>
+      <c r="AR2" s="159"/>
+      <c r="AS2" s="159"/>
+      <c r="AT2" s="159"/>
+      <c r="AU2" s="159"/>
+      <c r="AV2" s="159"/>
+      <c r="AW2" s="159"/>
+      <c r="AX2" s="159"/>
+      <c r="AY2" s="159"/>
+      <c r="AZ2" s="159"/>
     </row>
     <row r="3" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143"/>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143"/>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="159"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="159"/>
+      <c r="AJ3" s="159"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="159"/>
+      <c r="AM3" s="159"/>
+      <c r="AN3" s="159"/>
+      <c r="AO3" s="159"/>
+      <c r="AP3" s="159"/>
+      <c r="AQ3" s="159"/>
+      <c r="AR3" s="159"/>
+      <c r="AS3" s="159"/>
+      <c r="AT3" s="159"/>
+      <c r="AU3" s="159"/>
+      <c r="AV3" s="159"/>
+      <c r="AW3" s="159"/>
+      <c r="AX3" s="159"/>
+      <c r="AY3" s="159"/>
+      <c r="AZ3" s="159"/>
     </row>
     <row r="4" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="152"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="108"/>
       <c r="AW4" s="1"/>
       <c r="AZ4" s="95"/>
     </row>
     <row r="5" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="145"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="48"/>
       <c r="H5" s="45"/>
       <c r="I5" s="93"/>
@@ -3137,11 +3141,11 @@
       <c r="AV5" s="94"/>
     </row>
     <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="147"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="146"/>
       <c r="G6" s="49" t="s">
         <v>96</v>
       </c>
@@ -3207,11 +3211,11 @@
       <c r="AW6" s="90"/>
     </row>
     <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
       <c r="G7" s="49"/>
       <c r="H7" s="46"/>
       <c r="I7" s="105">
@@ -3345,11 +3349,11 @@
       <c r="AW7" s="90"/>
     </row>
     <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
       <c r="G8" s="50"/>
       <c r="H8" s="47"/>
       <c r="I8" s="105"/>
@@ -3693,10 +3697,10 @@
       <c r="D14" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="150" t="s">
+      <c r="E14" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="150"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="128">
         <v>0.7</v>
       </c>
@@ -3870,26 +3874,26 @@
     </row>
     <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="152"/>
+      <c r="C20" s="153"/>
       <c r="D20" s="108"/>
     </row>
     <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="153" t="s">
+      <c r="D21" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="144" t="s">
+      <c r="E21" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="145"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="48"/>
       <c r="H21" s="45"/>
       <c r="I21" s="93"/>
@@ -3934,11 +3938,11 @@
       <c r="AV21" s="94"/>
     </row>
     <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="49" t="s">
         <v>96</v>
       </c>
@@ -4004,11 +4008,11 @@
     </row>
     <row r="23" spans="1:249" s="75" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="149"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
       <c r="G23" s="50"/>
       <c r="H23" s="47"/>
       <c r="I23" s="105">
@@ -4351,10 +4355,10 @@
       <c r="D24" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="158" t="s">
+      <c r="E24" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="158"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="139">
         <v>1</v>
       </c>
@@ -4411,8 +4415,8 @@
       <c r="D25" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
       <c r="G25" s="140">
         <v>1</v>
       </c>
@@ -4465,8 +4469,8 @@
       <c r="D26" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
       <c r="G26" s="140">
         <v>1</v>
       </c>
@@ -4521,8 +4525,8 @@
       <c r="D27" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
       <c r="G27" s="140">
         <v>1</v>
       </c>
@@ -4627,10 +4631,10 @@
       <c r="D29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="160" t="s">
+      <c r="E29" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="160"/>
+      <c r="F29" s="157"/>
       <c r="G29" s="52">
         <v>1</v>
       </c>
@@ -4685,8 +4689,8 @@
       <c r="D30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
       <c r="G30" s="52">
         <v>1</v>
       </c>
@@ -4790,8 +4794,8 @@
       <c r="D31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
       <c r="G31" s="44"/>
       <c r="H31" s="103"/>
       <c r="I31" s="56"/>
@@ -4893,8 +4897,8 @@
       <c r="D32" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
       <c r="G32" s="44"/>
       <c r="H32" s="51"/>
       <c r="I32" s="56"/>
@@ -4996,8 +5000,8 @@
       <c r="D33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
       <c r="G33" s="44"/>
       <c r="H33" s="51"/>
       <c r="I33" s="56"/>
@@ -5101,10 +5105,10 @@
       <c r="D34" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="159" t="s">
+      <c r="E34" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="159"/>
+      <c r="F34" s="156"/>
       <c r="G34" s="44"/>
       <c r="H34" s="51"/>
       <c r="I34" s="56"/>
@@ -5206,8 +5210,8 @@
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
       <c r="G35" s="44"/>
       <c r="H35" s="51"/>
       <c r="I35" s="56"/>
@@ -5309,8 +5313,8 @@
       <c r="D36" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
       <c r="G36" s="44"/>
       <c r="H36" s="51"/>
       <c r="I36" s="56"/>
@@ -5412,8 +5416,8 @@
       <c r="D37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
       <c r="G37" s="44"/>
       <c r="H37" s="51"/>
       <c r="I37" s="56"/>
@@ -5515,8 +5519,8 @@
       <c r="D38" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
       <c r="G38" s="44"/>
       <c r="H38" s="51"/>
       <c r="I38" s="56"/>
@@ -5618,8 +5622,8 @@
       <c r="D39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
       <c r="G39" s="44"/>
       <c r="H39" s="51"/>
       <c r="I39" s="56"/>
@@ -5824,10 +5828,10 @@
       <c r="D41" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="160" t="s">
+      <c r="E41" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="160"/>
+      <c r="F41" s="157"/>
       <c r="G41" s="44"/>
       <c r="H41" s="51"/>
       <c r="I41" s="58"/>
@@ -5877,8 +5881,8 @@
       <c r="D42" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
       <c r="G42" s="44"/>
       <c r="H42" s="51"/>
       <c r="I42" s="58"/>
@@ -5928,8 +5932,8 @@
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
       <c r="G43" s="44"/>
       <c r="H43" s="51"/>
       <c r="I43" s="58"/>
@@ -5979,8 +5983,8 @@
       <c r="D44" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="160"/>
-      <c r="F44" s="160"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
       <c r="G44" s="44"/>
       <c r="H44" s="51"/>
       <c r="I44" s="58"/>
@@ -6032,10 +6036,10 @@
       <c r="D45" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="161" t="s">
+      <c r="E45" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="161"/>
+      <c r="F45" s="158"/>
       <c r="G45" s="44"/>
       <c r="H45" s="51"/>
       <c r="I45" s="58"/>
@@ -6085,8 +6089,8 @@
       <c r="D46" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
       <c r="G46" s="44"/>
       <c r="H46" s="51"/>
       <c r="I46" s="58"/>
@@ -6136,8 +6140,8 @@
       <c r="D47" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
       <c r="G47" s="44"/>
       <c r="H47" s="51"/>
       <c r="I47" s="66"/>
@@ -6187,8 +6191,8 @@
       <c r="D48" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
       <c r="G48" s="44"/>
       <c r="H48" s="51"/>
       <c r="I48" s="66"/>
@@ -6238,8 +6242,8 @@
       <c r="D49" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
       <c r="G49" s="44"/>
       <c r="H49" s="51"/>
       <c r="I49" s="66"/>
@@ -6291,10 +6295,10 @@
       <c r="D50" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="157" t="s">
+      <c r="E50" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="157"/>
+      <c r="F50" s="154"/>
       <c r="G50" s="44"/>
       <c r="H50" s="51"/>
       <c r="I50" s="59"/>
@@ -6348,27 +6352,27 @@
       <c r="AW53" s="1"/>
     </row>
     <row r="54" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="156" t="s">
+      <c r="B54" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="152"/>
+      <c r="C54" s="153"/>
       <c r="D54" s="108"/>
       <c r="AW54" s="1"/>
     </row>
     <row r="55" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="153" t="s">
+      <c r="B55" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="153" t="s">
+      <c r="C55" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="153" t="s">
+      <c r="D55" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="144" t="s">
+      <c r="E55" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="145"/>
+      <c r="F55" s="144"/>
       <c r="G55" s="48"/>
       <c r="H55" s="45"/>
       <c r="I55" s="93"/>
@@ -6414,11 +6418,11 @@
       <c r="AW55" s="1"/>
     </row>
     <row r="56" spans="2:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="154"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="147"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="146"/>
       <c r="G56" s="49" t="s">
         <v>96</v>
       </c>
@@ -6484,11 +6488,11 @@
       <c r="AW56" s="1"/>
     </row>
     <row r="57" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B57" s="155"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="148"/>
-      <c r="F57" s="149"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="151"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="148"/>
       <c r="G57" s="50"/>
       <c r="H57" s="47"/>
       <c r="I57" s="105">
@@ -6691,10 +6695,10 @@
       <c r="E59" s="40"/>
       <c r="F59" s="41"/>
       <c r="G59" s="52">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H59" s="57" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I59" s="58"/>
       <c r="J59" s="3"/>
@@ -7590,22 +7594,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E24:F27"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="E34:F39"/>
-    <mergeCell ref="E41:F44"/>
-    <mergeCell ref="E45:F49"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B3:AZ3"/>
     <mergeCell ref="B2:AZ2"/>
     <mergeCell ref="E5:F8"/>
@@ -7614,6 +7602,22 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E24:F27"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="E34:F39"/>
+    <mergeCell ref="E41:F44"/>
+    <mergeCell ref="E45:F49"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH.S.D\Desktop\Senior_Project\Avoid-The-Boss\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\OneDrive\Desktop\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBEC107-4539-479A-AF95-8DE88794B4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D0919-DD9B-437F-A8DB-70B75036B667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>1~2월 28일</t>
   </si>
   <si>
-    <t>주간 작업 시간</t>
-  </si>
-  <si>
     <t>동기화 기법(165)</t>
   </si>
   <si>
@@ -342,6 +339,10 @@
   </si>
   <si>
     <t>8시간</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 작업 시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1752,7 +1753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2152,9 +2153,6 @@
     <xf numFmtId="0" fontId="21" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2182,6 +2180,9 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2200,6 +2201,15 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2212,9 +2222,6 @@
     <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2230,14 +2237,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -2941,8 +2945,8 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2967,131 +2971,131 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="159"/>
-      <c r="AM2" s="159"/>
-      <c r="AN2" s="159"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="159"/>
-      <c r="AQ2" s="159"/>
-      <c r="AR2" s="159"/>
-      <c r="AS2" s="159"/>
-      <c r="AT2" s="159"/>
-      <c r="AU2" s="159"/>
-      <c r="AV2" s="159"/>
-      <c r="AW2" s="159"/>
-      <c r="AX2" s="159"/>
-      <c r="AY2" s="159"/>
-      <c r="AZ2" s="159"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="142"/>
+      <c r="AO2" s="142"/>
+      <c r="AP2" s="142"/>
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
     </row>
     <row r="3" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
-      <c r="AK3" s="159"/>
-      <c r="AL3" s="159"/>
-      <c r="AM3" s="159"/>
-      <c r="AN3" s="159"/>
-      <c r="AO3" s="159"/>
-      <c r="AP3" s="159"/>
-      <c r="AQ3" s="159"/>
-      <c r="AR3" s="159"/>
-      <c r="AS3" s="159"/>
-      <c r="AT3" s="159"/>
-      <c r="AU3" s="159"/>
-      <c r="AV3" s="159"/>
-      <c r="AW3" s="159"/>
-      <c r="AX3" s="159"/>
-      <c r="AY3" s="159"/>
-      <c r="AZ3" s="159"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="142"/>
+      <c r="AT3" s="142"/>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="142"/>
+      <c r="AW3" s="142"/>
+      <c r="AX3" s="142"/>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
     </row>
     <row r="4" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="161" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="153"/>
+      <c r="B4" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="151"/>
       <c r="D4" s="108"/>
       <c r="AW4" s="1"/>
       <c r="AZ4" s="95"/>
     </row>
     <row r="5" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="149" t="s">
-        <v>92</v>
+      <c r="C5" s="152" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="152" t="s">
+        <v>91</v>
       </c>
       <c r="E5" s="143" t="s">
         <v>36</v>
@@ -3141,16 +3145,16 @@
       <c r="AV5" s="94"/>
     </row>
     <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="145"/>
       <c r="F6" s="146"/>
       <c r="G6" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="H6" s="162" t="s">
+        <v>101</v>
       </c>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
@@ -3211,9 +3215,9 @@
       <c r="AW6" s="90"/>
     </row>
     <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="143"/>
       <c r="F7" s="143"/>
       <c r="G7" s="49"/>
@@ -3349,9 +3353,9 @@
       <c r="AW7" s="90"/>
     </row>
     <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
       <c r="E8" s="147"/>
       <c r="F8" s="148"/>
       <c r="G8" s="50"/>
@@ -3409,19 +3413,23 @@
         <v>19</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="39"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="63"/>
+      <c r="G9" s="128">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="63">
+        <v>2</v>
+      </c>
       <c r="I9" s="62"/>
       <c r="J9" s="130"/>
       <c r="K9" s="26"/>
       <c r="L9" s="130"/>
       <c r="M9" s="26"/>
       <c r="N9" s="132"/>
-      <c r="O9" s="133"/>
+      <c r="O9" s="161"/>
       <c r="P9" s="131"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="131"/>
@@ -3463,11 +3471,11 @@
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="63"/>
@@ -3477,8 +3485,8 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="134"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -3522,7 +3530,7 @@
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="40"/>
       <c r="G11" s="37"/>
@@ -3535,7 +3543,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="134"/>
+      <c r="Q11" s="133"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -3575,7 +3583,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
       <c r="D12" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="43"/>
@@ -3589,8 +3597,8 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -3636,15 +3644,15 @@
         <v>10</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="39"/>
       <c r="G13" s="128">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H13" s="63">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I13" s="109"/>
       <c r="J13" s="110"/>
@@ -3695,25 +3703,25 @@
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="160" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="160"/>
+        <v>71</v>
+      </c>
+      <c r="E14" s="149" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="149"/>
       <c r="G14" s="128">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H14" s="63">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I14" s="109"/>
       <c r="J14" s="110"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -3755,23 +3763,23 @@
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="41"/>
       <c r="G15" s="128">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="63">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I15" s="109"/>
       <c r="J15" s="110"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="70"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -3829,11 +3837,11 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="8"/>
@@ -3870,25 +3878,25 @@
     </row>
     <row r="17" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="142"/>
+      <c r="H18" s="141"/>
     </row>
     <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="153"/>
+      <c r="C20" s="151"/>
       <c r="D20" s="108"/>
     </row>
     <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="149" t="s">
-        <v>92</v>
+      <c r="C21" s="152" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="152" t="s">
+        <v>91</v>
       </c>
       <c r="E21" s="143" t="s">
         <v>36</v>
@@ -3938,16 +3946,16 @@
       <c r="AV21" s="94"/>
     </row>
     <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
       <c r="E22" s="145"/>
       <c r="F22" s="146"/>
       <c r="G22" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="H22" s="162" t="s">
+        <v>101</v>
       </c>
       <c r="I22" s="73"/>
       <c r="J22" s="73"/>
@@ -4008,9 +4016,9 @@
     </row>
     <row r="23" spans="1:249" s="75" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
       <c r="E23" s="147"/>
       <c r="F23" s="148"/>
       <c r="G23" s="50"/>
@@ -4347,23 +4355,23 @@
     </row>
     <row r="24" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="155" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="155"/>
-      <c r="G24" s="139">
+        <v>55</v>
+      </c>
+      <c r="E24" s="157" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="157"/>
+      <c r="G24" s="138">
         <v>1</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="97"/>
       <c r="J24" s="98"/>
@@ -4410,14 +4418,14 @@
     <row r="25" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
       <c r="C25" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="140">
+        <v>48</v>
+      </c>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="139">
         <v>1</v>
       </c>
       <c r="H25" s="103"/>
@@ -4467,15 +4475,15 @@
       <c r="B26" s="19"/>
       <c r="C26" s="21"/>
       <c r="D26" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="140">
+        <v>74</v>
+      </c>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="139">
         <v>1</v>
       </c>
       <c r="H26" s="104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="76"/>
       <c r="J26" s="77"/>
@@ -4525,9 +4533,9 @@
       <c r="D27" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="140">
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="139">
         <v>1</v>
       </c>
       <c r="H27" s="103"/>
@@ -4626,20 +4634,20 @@
     <row r="29" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19"/>
       <c r="C29" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="157" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="157"/>
+        <v>66</v>
+      </c>
+      <c r="E29" s="159" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="159"/>
       <c r="G29" s="52">
         <v>1</v>
       </c>
       <c r="H29" s="102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="56"/>
       <c r="J29" s="4"/>
@@ -4689,8 +4697,8 @@
       <c r="D30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
       <c r="G30" s="52">
         <v>1</v>
       </c>
@@ -4701,7 +4709,7 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="70"/>
-      <c r="O30" s="71"/>
+      <c r="O30" s="70"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -4792,10 +4800,10 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
+        <v>56</v>
+      </c>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
       <c r="G31" s="44"/>
       <c r="H31" s="103"/>
       <c r="I31" s="56"/>
@@ -4895,10 +4903,10 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
+        <v>58</v>
+      </c>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
       <c r="G32" s="44"/>
       <c r="H32" s="51"/>
       <c r="I32" s="56"/>
@@ -5000,8 +5008,8 @@
       <c r="D33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
       <c r="G33" s="44"/>
       <c r="H33" s="51"/>
       <c r="I33" s="56"/>
@@ -5103,12 +5111,12 @@
         <v>19</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="156" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="156"/>
+        <v>76</v>
+      </c>
+      <c r="E34" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="158"/>
       <c r="G34" s="44"/>
       <c r="H34" s="51"/>
       <c r="I34" s="56"/>
@@ -5210,8 +5218,8 @@
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
       <c r="G35" s="44"/>
       <c r="H35" s="51"/>
       <c r="I35" s="56"/>
@@ -5311,10 +5319,10 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
+        <v>82</v>
+      </c>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="44"/>
       <c r="H36" s="51"/>
       <c r="I36" s="56"/>
@@ -5414,10 +5422,10 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
+        <v>62</v>
+      </c>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
       <c r="G37" s="44"/>
       <c r="H37" s="51"/>
       <c r="I37" s="56"/>
@@ -5517,10 +5525,10 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
+        <v>64</v>
+      </c>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
       <c r="G38" s="44"/>
       <c r="H38" s="51"/>
       <c r="I38" s="56"/>
@@ -5622,8 +5630,8 @@
       <c r="D39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
       <c r="G39" s="44"/>
       <c r="H39" s="51"/>
       <c r="I39" s="56"/>
@@ -5823,15 +5831,15 @@
     <row r="41" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="19"/>
       <c r="C41" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="157" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="157"/>
+        <v>68</v>
+      </c>
+      <c r="E41" s="159" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="159"/>
       <c r="G41" s="44"/>
       <c r="H41" s="51"/>
       <c r="I41" s="58"/>
@@ -5849,7 +5857,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="136"/>
+      <c r="X41" s="135"/>
       <c r="Y41" s="120"/>
       <c r="Z41" s="120"/>
       <c r="AA41" s="120"/>
@@ -5879,10 +5887,10 @@
       <c r="B42" s="19"/>
       <c r="C42" s="31"/>
       <c r="D42" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
+        <v>77</v>
+      </c>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
       <c r="G42" s="44"/>
       <c r="H42" s="51"/>
       <c r="I42" s="58"/>
@@ -5932,8 +5940,8 @@
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="159"/>
       <c r="G43" s="44"/>
       <c r="H43" s="51"/>
       <c r="I43" s="58"/>
@@ -5981,10 +5989,10 @@
       <c r="B44" s="19"/>
       <c r="C44" s="31"/>
       <c r="D44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
+        <v>57</v>
+      </c>
+      <c r="E44" s="159"/>
+      <c r="F44" s="159"/>
       <c r="G44" s="44"/>
       <c r="H44" s="51"/>
       <c r="I44" s="58"/>
@@ -6031,15 +6039,15 @@
     <row r="45" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19"/>
       <c r="C45" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="158" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="158"/>
+        <v>53</v>
+      </c>
+      <c r="E45" s="160" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="160"/>
       <c r="G45" s="44"/>
       <c r="H45" s="51"/>
       <c r="I45" s="58"/>
@@ -6087,10 +6095,10 @@
       <c r="B46" s="19"/>
       <c r="C46" s="31"/>
       <c r="D46" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
+        <v>79</v>
+      </c>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
       <c r="G46" s="44"/>
       <c r="H46" s="51"/>
       <c r="I46" s="58"/>
@@ -6140,8 +6148,8 @@
       <c r="D47" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="158"/>
-      <c r="F47" s="158"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
       <c r="G47" s="44"/>
       <c r="H47" s="51"/>
       <c r="I47" s="66"/>
@@ -6167,12 +6175,12 @@
       <c r="AC47" s="67"/>
       <c r="AD47" s="67"/>
       <c r="AE47" s="67"/>
-      <c r="AF47" s="137"/>
-      <c r="AG47" s="137"/>
-      <c r="AH47" s="137"/>
-      <c r="AI47" s="137"/>
-      <c r="AJ47" s="137"/>
-      <c r="AK47" s="137"/>
+      <c r="AF47" s="136"/>
+      <c r="AG47" s="136"/>
+      <c r="AH47" s="136"/>
+      <c r="AI47" s="136"/>
+      <c r="AJ47" s="136"/>
+      <c r="AK47" s="136"/>
       <c r="AL47" s="67"/>
       <c r="AM47" s="67"/>
       <c r="AN47" s="67"/>
@@ -6191,8 +6199,8 @@
       <c r="D48" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="158"/>
-      <c r="F48" s="158"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
       <c r="G48" s="44"/>
       <c r="H48" s="51"/>
       <c r="I48" s="66"/>
@@ -6224,12 +6232,12 @@
       <c r="AI48" s="67"/>
       <c r="AJ48" s="67"/>
       <c r="AK48" s="67"/>
-      <c r="AL48" s="137"/>
-      <c r="AM48" s="137"/>
-      <c r="AN48" s="137"/>
-      <c r="AO48" s="137"/>
-      <c r="AP48" s="137"/>
-      <c r="AQ48" s="137"/>
+      <c r="AL48" s="136"/>
+      <c r="AM48" s="136"/>
+      <c r="AN48" s="136"/>
+      <c r="AO48" s="136"/>
+      <c r="AP48" s="136"/>
+      <c r="AQ48" s="136"/>
       <c r="AR48" s="67"/>
       <c r="AS48" s="67"/>
       <c r="AT48" s="67"/>
@@ -6240,10 +6248,10 @@
       <c r="B49" s="19"/>
       <c r="C49" s="31"/>
       <c r="D49" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
+        <v>83</v>
+      </c>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
       <c r="G49" s="44"/>
       <c r="H49" s="51"/>
       <c r="I49" s="66"/>
@@ -6280,12 +6288,12 @@
       <c r="AN49" s="67"/>
       <c r="AO49" s="67"/>
       <c r="AP49" s="67"/>
-      <c r="AQ49" s="137"/>
-      <c r="AR49" s="137"/>
-      <c r="AS49" s="137"/>
-      <c r="AT49" s="137"/>
-      <c r="AU49" s="137"/>
-      <c r="AV49" s="138"/>
+      <c r="AQ49" s="136"/>
+      <c r="AR49" s="136"/>
+      <c r="AS49" s="136"/>
+      <c r="AT49" s="136"/>
+      <c r="AU49" s="136"/>
+      <c r="AV49" s="137"/>
     </row>
     <row r="50" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="20"/>
@@ -6293,12 +6301,12 @@
         <v>13</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="154" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="154"/>
+        <v>70</v>
+      </c>
+      <c r="E50" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="156"/>
       <c r="G50" s="44"/>
       <c r="H50" s="51"/>
       <c r="I50" s="59"/>
@@ -6352,22 +6360,22 @@
       <c r="AW53" s="1"/>
     </row>
     <row r="54" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="152" t="s">
+      <c r="B54" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="153"/>
+      <c r="C54" s="151"/>
       <c r="D54" s="108"/>
       <c r="AW54" s="1"/>
     </row>
     <row r="55" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="149" t="s">
+      <c r="B55" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="149" t="s">
-        <v>92</v>
+      <c r="C55" s="152" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="152" t="s">
+        <v>91</v>
       </c>
       <c r="E55" s="143" t="s">
         <v>36</v>
@@ -6418,16 +6426,16 @@
       <c r="AW55" s="1"/>
     </row>
     <row r="56" spans="2:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="150"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
+      <c r="B56" s="153"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="153"/>
       <c r="E56" s="145"/>
       <c r="F56" s="146"/>
       <c r="G56" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="H56" s="46" t="s">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="H56" s="162" t="s">
+        <v>101</v>
       </c>
       <c r="I56" s="73"/>
       <c r="J56" s="73"/>
@@ -6488,9 +6496,9 @@
       <c r="AW56" s="1"/>
     </row>
     <row r="57" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B57" s="151"/>
-      <c r="C57" s="151"/>
-      <c r="D57" s="151"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
       <c r="E57" s="147"/>
       <c r="F57" s="148"/>
       <c r="G57" s="50"/>
@@ -6630,10 +6638,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58" s="38" t="s">
         <v>39</v>
@@ -6690,7 +6698,7 @@
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="41"/>
@@ -6698,7 +6706,7 @@
         <v>0.5</v>
       </c>
       <c r="H59" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I59" s="58"/>
       <c r="J59" s="3"/>
@@ -6745,7 +6753,7 @@
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="41"/>
@@ -6800,7 +6808,7 @@
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
       <c r="D61" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="43"/>
@@ -6808,7 +6816,7 @@
         <v>0.6</v>
       </c>
       <c r="H61" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I61" s="59"/>
       <c r="J61" s="6"/>
@@ -6854,13 +6862,13 @@
     <row r="62" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B62" s="24"/>
       <c r="C62" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F62" s="39"/>
       <c r="G62" s="51"/>
@@ -7061,13 +7069,13 @@
     <row r="66" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B66" s="24"/>
       <c r="C66" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="51"/>
@@ -7265,13 +7273,13 @@
     <row r="70" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B70" s="24"/>
       <c r="C70" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F70" s="39"/>
       <c r="G70" s="51"/>
@@ -7301,8 +7309,8 @@
       <c r="AE70" s="61"/>
       <c r="AF70" s="61"/>
       <c r="AG70" s="61"/>
-      <c r="AH70" s="141"/>
-      <c r="AI70" s="141"/>
+      <c r="AH70" s="140"/>
+      <c r="AI70" s="140"/>
       <c r="AJ70" s="61"/>
       <c r="AK70" s="61"/>
       <c r="AL70" s="61"/>
@@ -7321,7 +7329,7 @@
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
       <c r="D71" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E71" s="40"/>
       <c r="F71" s="41"/>
@@ -7375,7 +7383,7 @@
     <row r="72" spans="2:49" x14ac:dyDescent="0.15">
       <c r="B72" s="24"/>
       <c r="C72" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>2</v>
@@ -7594,6 +7602,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E24:F27"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="E34:F39"/>
+    <mergeCell ref="E41:F44"/>
+    <mergeCell ref="E45:F49"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B3:AZ3"/>
     <mergeCell ref="B2:AZ2"/>
     <mergeCell ref="E5:F8"/>
@@ -7602,22 +7626,6 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E24:F27"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="E34:F39"/>
-    <mergeCell ref="E41:F44"/>
-    <mergeCell ref="E45:F49"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\OneDrive\Desktop\Avoid-The-Boss\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erfrr\Desktop\Senior_Project\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D0919-DD9B-437F-A8DB-70B75036B667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E7BEDA-557F-4B64-BA80-B16614FACF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정" sheetId="1" r:id="rId1"/>
@@ -338,11 +338,11 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>8시간</t>
+    <t>총 작업 시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>총 작업 시간</t>
+    <t>13시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -536,6 +536,44 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic Semilight"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic Semilight"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1753,7 +1791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1817,9 +1855,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1865,30 +1900,9 @@
     <xf numFmtId="0" fontId="18" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1905,12 +1919,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1925,9 +1933,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1942,9 +1947,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1970,28 +1972,10 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2045,30 +2029,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2138,9 +2098,6 @@
     <xf numFmtId="0" fontId="18" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2168,16 +2125,22 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2201,9 +2164,6 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2222,25 +2182,244 @@
     <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2619,6 +2798,416 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>204349</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BCC044-B2D9-C897-199A-782E401F05C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410699" y="361951"/>
+          <a:ext cx="198000" cy="13500100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>주간보고일</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2945,500 +3534,500 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD34" sqref="AD34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
-    <col min="9" max="48" width="2.77734375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="2.77734375" style="40" customWidth="1"/>
-    <col min="50" max="53" width="2.77734375" style="1" customWidth="1"/>
-    <col min="54" max="55" width="2.5546875" style="1" customWidth="1"/>
-    <col min="56" max="100" width="2.77734375" style="1" customWidth="1"/>
-    <col min="101" max="256" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.58203125" style="2" customWidth="1"/>
+    <col min="9" max="48" width="2.75" style="1" customWidth="1"/>
+    <col min="49" max="49" width="2.75" style="36" customWidth="1"/>
+    <col min="50" max="53" width="2.75" style="1" customWidth="1"/>
+    <col min="54" max="55" width="2.58203125" style="1" customWidth="1"/>
+    <col min="56" max="100" width="2.75" style="1" customWidth="1"/>
+    <col min="101" max="256" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AW1" s="1"/>
     </row>
-    <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="142" t="s">
+    <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-    </row>
-    <row r="3" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="142"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="142"/>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="142"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="142"/>
-      <c r="AP3" s="142"/>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="142"/>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="142"/>
-      <c r="AV3" s="142"/>
-      <c r="AW3" s="142"/>
-      <c r="AX3" s="142"/>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-    </row>
-    <row r="4" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="150" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="117"/>
+      <c r="AP2" s="117"/>
+      <c r="AQ2" s="117"/>
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="117"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="117"/>
+      <c r="AZ2" s="117"/>
+    </row>
+    <row r="3" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="117"/>
+      <c r="AN3" s="117"/>
+      <c r="AO3" s="117"/>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="117"/>
+      <c r="AR3" s="117"/>
+      <c r="AS3" s="117"/>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="117"/>
+      <c r="AV3" s="117"/>
+      <c r="AW3" s="117"/>
+      <c r="AX3" s="117"/>
+      <c r="AY3" s="117"/>
+      <c r="AZ3" s="117"/>
+    </row>
+    <row r="4" spans="2:100" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="108"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="82"/>
       <c r="AW4" s="1"/>
-      <c r="AZ4" s="95"/>
-    </row>
-    <row r="5" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="152" t="s">
+      <c r="AZ4" s="77"/>
+    </row>
+    <row r="5" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="144"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="94"/>
-    </row>
-    <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="49" t="s">
+      <c r="F5" s="119"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="76"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="76"/>
+    </row>
+    <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73" t="s">
+      <c r="H6" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="115"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73" t="s">
+      <c r="L6" s="209"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="209"/>
+      <c r="P6" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73" t="s">
+      <c r="Q6" s="209"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="209"/>
+      <c r="U6" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="73"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73" t="s">
+      <c r="V6" s="209"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="209"/>
+      <c r="Z6" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73" t="s">
+      <c r="AA6" s="209"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="115"/>
+      <c r="AD6" s="209"/>
+      <c r="AE6" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="73"/>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="73" t="s">
+      <c r="AF6" s="209"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="115"/>
+      <c r="AI6" s="209"/>
+      <c r="AJ6" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="73"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="73"/>
-      <c r="AN6" s="73"/>
-      <c r="AO6" s="73" t="s">
+      <c r="AK6" s="209"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="115"/>
+      <c r="AN6" s="209"/>
+      <c r="AO6" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AP6" s="73"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="73"/>
-      <c r="AS6" s="73"/>
-      <c r="AT6" s="73" t="s">
+      <c r="AP6" s="209"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="115"/>
+      <c r="AS6" s="209"/>
+      <c r="AT6" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="72"/>
-      <c r="AW6" s="90"/>
-    </row>
-    <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="105">
+      <c r="AU6" s="209"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="72"/>
+    </row>
+    <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="105">
+      <c r="J7" s="79">
         <v>2</v>
       </c>
-      <c r="K7" s="105">
+      <c r="K7" s="79">
         <v>3</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="79">
         <v>4</v>
       </c>
-      <c r="M7" s="114">
+      <c r="M7" s="88">
         <v>5</v>
       </c>
-      <c r="N7" s="105">
+      <c r="N7" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="105">
+      <c r="O7" s="79">
         <v>2</v>
       </c>
-      <c r="P7" s="105">
+      <c r="P7" s="79">
         <v>3</v>
       </c>
-      <c r="Q7" s="105">
+      <c r="Q7" s="79">
         <v>4</v>
       </c>
-      <c r="R7" s="114">
+      <c r="R7" s="88">
         <v>5</v>
       </c>
-      <c r="S7" s="105">
+      <c r="S7" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="T7" s="105">
+      <c r="T7" s="79">
         <v>2</v>
       </c>
-      <c r="U7" s="105">
+      <c r="U7" s="79">
         <v>3</v>
       </c>
-      <c r="V7" s="105">
+      <c r="V7" s="79">
         <v>4</v>
       </c>
-      <c r="W7" s="114">
+      <c r="W7" s="88">
         <v>5</v>
       </c>
-      <c r="X7" s="105">
+      <c r="X7" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="Y7" s="105">
+      <c r="Y7" s="79">
         <v>2</v>
       </c>
-      <c r="Z7" s="105">
+      <c r="Z7" s="79">
         <v>3</v>
       </c>
-      <c r="AA7" s="105">
+      <c r="AA7" s="79">
         <v>4</v>
       </c>
-      <c r="AB7" s="114">
+      <c r="AB7" s="88">
         <v>5</v>
       </c>
-      <c r="AC7" s="105">
+      <c r="AC7" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AD7" s="105">
+      <c r="AD7" s="79">
         <v>2</v>
       </c>
-      <c r="AE7" s="105">
+      <c r="AE7" s="79">
         <v>3</v>
       </c>
-      <c r="AF7" s="105">
+      <c r="AF7" s="79">
         <v>4</v>
       </c>
-      <c r="AG7" s="114">
+      <c r="AG7" s="88">
         <v>5</v>
       </c>
-      <c r="AH7" s="105">
+      <c r="AH7" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AI7" s="105">
+      <c r="AI7" s="79">
         <v>2</v>
       </c>
-      <c r="AJ7" s="105">
+      <c r="AJ7" s="79">
         <v>3</v>
       </c>
-      <c r="AK7" s="105">
+      <c r="AK7" s="79">
         <v>4</v>
       </c>
-      <c r="AL7" s="114">
+      <c r="AL7" s="88">
         <v>5</v>
       </c>
-      <c r="AM7" s="105">
+      <c r="AM7" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AN7" s="105">
+      <c r="AN7" s="79">
         <v>2</v>
       </c>
-      <c r="AO7" s="105">
+      <c r="AO7" s="79">
         <v>3</v>
       </c>
-      <c r="AP7" s="105">
+      <c r="AP7" s="79">
         <v>4</v>
       </c>
-      <c r="AQ7" s="114">
+      <c r="AQ7" s="88">
         <v>5</v>
       </c>
-      <c r="AR7" s="105">
+      <c r="AR7" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AS7" s="105">
+      <c r="AS7" s="79">
         <v>2</v>
       </c>
-      <c r="AT7" s="105">
+      <c r="AT7" s="79">
         <v>3</v>
       </c>
-      <c r="AU7" s="105">
+      <c r="AU7" s="79">
         <v>4</v>
       </c>
-      <c r="AV7" s="114">
+      <c r="AV7" s="88">
         <v>5</v>
       </c>
-      <c r="AW7" s="90"/>
-    </row>
-    <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="107"/>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="96"/>
+      <c r="AW7" s="72"/>
+    </row>
+    <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+      <c r="AP8" s="80"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="80"/>
+      <c r="AT8" s="80"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="78"/>
       <c r="AX8"/>
       <c r="AY8"/>
       <c r="AZ8"/>
     </row>
-    <row r="9" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="128">
+      <c r="E9" s="193"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="195">
         <v>0.2</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="196">
         <v>2</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -3462,31 +4051,31 @@
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
-      <c r="AV9" s="80"/>
-      <c r="AW9" s="90"/>
-      <c r="BC9" s="88"/>
-      <c r="BD9" s="88"/>
-    </row>
-    <row r="10" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="33" t="s">
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="72"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+    </row>
+    <row r="10" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="197"/>
+      <c r="F10" s="198" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -3518,32 +4107,33 @@
       <c r="AS10" s="4"/>
       <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
-      <c r="AV10" s="81"/>
-      <c r="AW10" s="90"/>
-      <c r="BC10" s="88"/>
-      <c r="BD10" s="88"/>
+      <c r="AV10" s="63"/>
+      <c r="AW10" s="72"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
       <c r="CV10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="33" t="s">
+    <row r="11" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="133"/>
+      <c r="Q11" s="106"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -3574,31 +4164,31 @@
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="90"/>
-      <c r="BC11" s="88"/>
-      <c r="BD11" s="88"/>
-    </row>
-    <row r="12" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="34" t="s">
+      <c r="AV11" s="63"/>
+      <c r="AW11" s="72"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+    </row>
+    <row r="12" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -3606,11 +4196,11 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -3628,36 +4218,36 @@
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
-      <c r="AV12" s="81"/>
-      <c r="AW12" s="90"/>
-      <c r="BC12" s="88"/>
-      <c r="BD12" s="88"/>
-      <c r="BT12" s="89"/>
-      <c r="BU12" s="89"/>
-      <c r="BV12" s="89"/>
-      <c r="BW12" s="89"/>
-      <c r="BX12" s="89"/>
-    </row>
-    <row r="13" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="28"/>
-      <c r="C13" s="27" t="s">
+      <c r="AV12" s="63"/>
+      <c r="AW12" s="72"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BT12" s="71"/>
+      <c r="BU12" s="71"/>
+      <c r="BV12" s="71"/>
+      <c r="BW12" s="71"/>
+      <c r="BX12" s="71"/>
+    </row>
+    <row r="13" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="128">
+      <c r="E13" s="193"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="195">
         <v>1</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="196">
         <v>30</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3693,35 +4283,35 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
-      <c r="AV13" s="81"/>
-      <c r="AW13" s="90"/>
-      <c r="BC13" s="88"/>
-      <c r="BD13" s="88"/>
-      <c r="BH13" s="91"/>
-    </row>
-    <row r="14" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="115" t="s">
+      <c r="AV13" s="63"/>
+      <c r="AW13" s="72"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="70"/>
+      <c r="BH13" s="73"/>
+    </row>
+    <row r="14" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="149"/>
-      <c r="G14" s="128">
+      <c r="F14" s="203"/>
+      <c r="G14" s="195">
         <v>1</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="196">
         <v>12</v>
       </c>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -3754,32 +4344,32 @@
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
-      <c r="AV14" s="81"/>
-      <c r="AW14" s="90"/>
-      <c r="BC14" s="88"/>
-      <c r="BD14" s="88"/>
-    </row>
-    <row r="15" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="33" t="s">
+      <c r="AV14" s="63"/>
+      <c r="AW14" s="72"/>
+      <c r="BC14" s="70"/>
+      <c r="BD14" s="70"/>
+    </row>
+    <row r="15" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="128">
+      <c r="E15" s="197"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="195">
         <v>1</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="196">
         <v>12</v>
       </c>
-      <c r="I15" s="109"/>
-      <c r="J15" s="110"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -3812,23 +4402,23 @@
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
-      <c r="AV15" s="81"/>
-      <c r="AW15" s="90"/>
-      <c r="BC15" s="88"/>
-      <c r="BD15" s="88"/>
-    </row>
-    <row r="16" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="34" t="s">
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="72"/>
+      <c r="BC15" s="70"/>
+      <c r="BD15" s="70"/>
+    </row>
+    <row r="16" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="86"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -3837,11 +4427,11 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="8"/>
@@ -3866,289 +4456,333 @@
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="90"/>
-      <c r="BC16" s="88"/>
-      <c r="BD16" s="88"/>
-      <c r="BT16" s="89"/>
-      <c r="BU16" s="89"/>
-      <c r="BV16" s="89"/>
-      <c r="BW16" s="89"/>
-      <c r="BX16" s="89"/>
-    </row>
-    <row r="17" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="141"/>
-    </row>
-    <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="155" t="s">
+      <c r="AV16" s="64"/>
+      <c r="AW16" s="72"/>
+      <c r="BC16" s="70"/>
+      <c r="BD16" s="70"/>
+      <c r="BT16" s="71"/>
+      <c r="BU16" s="71"/>
+      <c r="BV16" s="71"/>
+      <c r="BW16" s="71"/>
+      <c r="BX16" s="71"/>
+    </row>
+    <row r="17" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="112"/>
+    </row>
+    <row r="19" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="151"/>
-      <c r="D20" s="108"/>
-    </row>
-    <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="152" t="s">
+      <c r="C20" s="132"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="134"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="134"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="134"/>
+      <c r="AJ20" s="134"/>
+      <c r="AK20" s="134"/>
+      <c r="AL20" s="134"/>
+      <c r="AM20" s="134"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="134"/>
+      <c r="AP20" s="134"/>
+      <c r="AQ20" s="134"/>
+      <c r="AR20" s="134"/>
+      <c r="AS20" s="134"/>
+      <c r="AT20" s="134"/>
+      <c r="AU20" s="134"/>
+      <c r="AV20" s="134"/>
+    </row>
+    <row r="21" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="143" t="s">
+      <c r="E21" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="144"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="94"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="92"/>
-      <c r="AO21" s="92"/>
-      <c r="AP21" s="92"/>
-      <c r="AQ21" s="94"/>
-      <c r="AR21" s="93"/>
-      <c r="AS21" s="92"/>
-      <c r="AT21" s="92"/>
-      <c r="AU21" s="92"/>
-      <c r="AV21" s="94"/>
-    </row>
-    <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="49" t="s">
+      <c r="F21" s="137"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="142"/>
+      <c r="S21" s="140"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="142"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="141"/>
+      <c r="Z21" s="141"/>
+      <c r="AA21" s="141"/>
+      <c r="AB21" s="142"/>
+      <c r="AC21" s="140"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="141"/>
+      <c r="AF21" s="141"/>
+      <c r="AG21" s="142"/>
+      <c r="AH21" s="140"/>
+      <c r="AI21" s="141"/>
+      <c r="AJ21" s="141"/>
+      <c r="AK21" s="141"/>
+      <c r="AL21" s="142"/>
+      <c r="AM21" s="140"/>
+      <c r="AN21" s="141"/>
+      <c r="AO21" s="141"/>
+      <c r="AP21" s="141"/>
+      <c r="AQ21" s="142"/>
+      <c r="AR21" s="140"/>
+      <c r="AS21" s="141"/>
+      <c r="AT21" s="141"/>
+      <c r="AU21" s="141"/>
+      <c r="AV21" s="142"/>
+    </row>
+    <row r="22" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73" t="s">
+      <c r="H22" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="206"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="73"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73" t="s">
+      <c r="L22" s="207"/>
+      <c r="M22" s="208"/>
+      <c r="N22" s="206"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73" t="s">
+      <c r="Q22" s="207"/>
+      <c r="R22" s="208"/>
+      <c r="S22" s="206"/>
+      <c r="T22" s="207"/>
+      <c r="U22" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="V22" s="73"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73" t="s">
+      <c r="V22" s="207"/>
+      <c r="W22" s="208"/>
+      <c r="X22" s="206"/>
+      <c r="Y22" s="207"/>
+      <c r="Z22" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73" t="s">
+      <c r="AA22" s="207"/>
+      <c r="AB22" s="208"/>
+      <c r="AC22" s="206"/>
+      <c r="AD22" s="207"/>
+      <c r="AE22" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="73"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73" t="s">
+      <c r="AF22" s="207"/>
+      <c r="AG22" s="208"/>
+      <c r="AH22" s="206"/>
+      <c r="AI22" s="207"/>
+      <c r="AJ22" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
-      <c r="AO22" s="73" t="s">
+      <c r="AK22" s="207"/>
+      <c r="AL22" s="208"/>
+      <c r="AM22" s="206"/>
+      <c r="AN22" s="207"/>
+      <c r="AO22" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="73" t="s">
+      <c r="AP22" s="207"/>
+      <c r="AQ22" s="208"/>
+      <c r="AR22" s="206"/>
+      <c r="AS22" s="207"/>
+      <c r="AT22" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="72"/>
-    </row>
-    <row r="23" spans="1:249" s="75" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AU22" s="207"/>
+      <c r="AV22" s="208"/>
+    </row>
+    <row r="23" spans="1:249" s="60" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="105">
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="153">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="153">
         <v>2</v>
       </c>
-      <c r="K23" s="105">
+      <c r="K23" s="153">
         <v>3</v>
       </c>
-      <c r="L23" s="105">
+      <c r="L23" s="153">
         <v>4</v>
       </c>
-      <c r="M23" s="114">
+      <c r="M23" s="154">
         <v>5</v>
       </c>
-      <c r="N23" s="105">
+      <c r="N23" s="153">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="105">
+      <c r="O23" s="153">
         <v>2</v>
       </c>
-      <c r="P23" s="105">
+      <c r="P23" s="153">
         <v>3</v>
       </c>
-      <c r="Q23" s="105">
+      <c r="Q23" s="153">
         <v>4</v>
       </c>
-      <c r="R23" s="114">
+      <c r="R23" s="154">
         <v>5</v>
       </c>
-      <c r="S23" s="105">
+      <c r="S23" s="153">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="T23" s="105">
+      <c r="T23" s="153">
         <v>2</v>
       </c>
-      <c r="U23" s="105">
+      <c r="U23" s="153">
         <v>3</v>
       </c>
-      <c r="V23" s="105">
+      <c r="V23" s="153">
         <v>4</v>
       </c>
-      <c r="W23" s="114">
+      <c r="W23" s="154">
         <v>5</v>
       </c>
-      <c r="X23" s="105">
+      <c r="X23" s="153">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="Y23" s="105">
+      <c r="Y23" s="153">
         <v>2</v>
       </c>
-      <c r="Z23" s="105">
+      <c r="Z23" s="153">
         <v>3</v>
       </c>
-      <c r="AA23" s="105">
+      <c r="AA23" s="153">
         <v>4</v>
       </c>
-      <c r="AB23" s="114">
+      <c r="AB23" s="154">
         <v>5</v>
       </c>
-      <c r="AC23" s="105">
+      <c r="AC23" s="153">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AD23" s="105">
+      <c r="AD23" s="153">
         <v>2</v>
       </c>
-      <c r="AE23" s="105">
+      <c r="AE23" s="153">
         <v>3</v>
       </c>
-      <c r="AF23" s="105">
+      <c r="AF23" s="153">
         <v>4</v>
       </c>
-      <c r="AG23" s="114">
+      <c r="AG23" s="154">
         <v>5</v>
       </c>
-      <c r="AH23" s="105">
+      <c r="AH23" s="153">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AI23" s="105">
+      <c r="AI23" s="153">
         <v>2</v>
       </c>
-      <c r="AJ23" s="105">
+      <c r="AJ23" s="153">
         <v>3</v>
       </c>
-      <c r="AK23" s="105">
+      <c r="AK23" s="153">
         <v>4</v>
       </c>
-      <c r="AL23" s="114">
+      <c r="AL23" s="154">
         <v>5</v>
       </c>
-      <c r="AM23" s="105">
+      <c r="AM23" s="153">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AN23" s="105">
+      <c r="AN23" s="153">
         <v>2</v>
       </c>
-      <c r="AO23" s="105">
+      <c r="AO23" s="153">
         <v>3</v>
       </c>
-      <c r="AP23" s="105">
+      <c r="AP23" s="153">
         <v>4</v>
       </c>
-      <c r="AQ23" s="114">
+      <c r="AQ23" s="154">
         <v>5</v>
       </c>
-      <c r="AR23" s="105">
+      <c r="AR23" s="153">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AS23" s="105">
+      <c r="AS23" s="153">
         <v>2</v>
       </c>
-      <c r="AT23" s="105">
+      <c r="AT23" s="153">
         <v>3</v>
       </c>
-      <c r="AU23" s="105">
+      <c r="AU23" s="153">
         <v>4</v>
       </c>
-      <c r="AV23" s="114">
+      <c r="AV23" s="154">
         <v>5</v>
       </c>
       <c r="AW23" s="1"/>
@@ -4353,243 +4987,243 @@
       <c r="IN23" s="1"/>
       <c r="IO23" s="1"/>
     </row>
-    <row r="24" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="156" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="157" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="157"/>
-      <c r="G24" s="138">
+      <c r="G24" s="158">
         <v>1</v>
       </c>
-      <c r="H24" s="102" t="s">
+      <c r="H24" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="100"/>
-      <c r="AK24" s="100"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="100"/>
-      <c r="AN24" s="100"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="100"/>
-      <c r="AQ24" s="100"/>
-      <c r="AR24" s="100"/>
-      <c r="AS24" s="100"/>
-      <c r="AT24" s="100"/>
-      <c r="AU24" s="100"/>
-      <c r="AV24" s="101"/>
-      <c r="AW24" s="90"/>
-    </row>
-    <row r="25" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="19"/>
-      <c r="C25" s="21" t="s">
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="163"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="163"/>
+      <c r="AA24" s="163"/>
+      <c r="AB24" s="163"/>
+      <c r="AC24" s="163"/>
+      <c r="AD24" s="163"/>
+      <c r="AE24" s="163"/>
+      <c r="AF24" s="163"/>
+      <c r="AG24" s="163"/>
+      <c r="AH24" s="163"/>
+      <c r="AI24" s="163"/>
+      <c r="AJ24" s="163"/>
+      <c r="AK24" s="163"/>
+      <c r="AL24" s="163"/>
+      <c r="AM24" s="163"/>
+      <c r="AN24" s="163"/>
+      <c r="AO24" s="163"/>
+      <c r="AP24" s="163"/>
+      <c r="AQ24" s="163"/>
+      <c r="AR24" s="163"/>
+      <c r="AS24" s="163"/>
+      <c r="AT24" s="163"/>
+      <c r="AU24" s="163"/>
+      <c r="AV24" s="164"/>
+      <c r="AW24" s="72"/>
+    </row>
+    <row r="25" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="155"/>
+      <c r="C25" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="139">
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="167">
         <v>1</v>
       </c>
-      <c r="H25" s="103"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="81"/>
-      <c r="AW25" s="90"/>
-    </row>
-    <row r="26" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="54" t="s">
+      <c r="H25" s="168"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="170"/>
+      <c r="T25" s="170"/>
+      <c r="U25" s="170"/>
+      <c r="V25" s="170"/>
+      <c r="W25" s="170"/>
+      <c r="X25" s="170"/>
+      <c r="Y25" s="170"/>
+      <c r="Z25" s="170"/>
+      <c r="AA25" s="170"/>
+      <c r="AB25" s="170"/>
+      <c r="AC25" s="170"/>
+      <c r="AD25" s="170"/>
+      <c r="AE25" s="170"/>
+      <c r="AF25" s="170"/>
+      <c r="AG25" s="170"/>
+      <c r="AH25" s="170"/>
+      <c r="AI25" s="170"/>
+      <c r="AJ25" s="170"/>
+      <c r="AK25" s="170"/>
+      <c r="AL25" s="170"/>
+      <c r="AM25" s="170"/>
+      <c r="AN25" s="170"/>
+      <c r="AO25" s="170"/>
+      <c r="AP25" s="170"/>
+      <c r="AQ25" s="170"/>
+      <c r="AR25" s="170"/>
+      <c r="AS25" s="170"/>
+      <c r="AT25" s="170"/>
+      <c r="AU25" s="170"/>
+      <c r="AV25" s="172"/>
+      <c r="AW25" s="72"/>
+    </row>
+    <row r="26" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="139">
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="167">
         <v>1</v>
       </c>
-      <c r="H26" s="104" t="s">
+      <c r="H26" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="76"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="81"/>
-      <c r="AW26" s="90"/>
-    </row>
-    <row r="27" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="19"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="54" t="s">
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="170"/>
+      <c r="S26" s="170"/>
+      <c r="T26" s="170"/>
+      <c r="U26" s="170"/>
+      <c r="V26" s="170"/>
+      <c r="W26" s="170"/>
+      <c r="X26" s="170"/>
+      <c r="Y26" s="170"/>
+      <c r="Z26" s="170"/>
+      <c r="AA26" s="170"/>
+      <c r="AB26" s="170"/>
+      <c r="AC26" s="170"/>
+      <c r="AD26" s="170"/>
+      <c r="AE26" s="170"/>
+      <c r="AF26" s="170"/>
+      <c r="AG26" s="170"/>
+      <c r="AH26" s="170"/>
+      <c r="AI26" s="170"/>
+      <c r="AJ26" s="170"/>
+      <c r="AK26" s="170"/>
+      <c r="AL26" s="170"/>
+      <c r="AM26" s="170"/>
+      <c r="AN26" s="170"/>
+      <c r="AO26" s="170"/>
+      <c r="AP26" s="170"/>
+      <c r="AQ26" s="170"/>
+      <c r="AR26" s="170"/>
+      <c r="AS26" s="170"/>
+      <c r="AT26" s="170"/>
+      <c r="AU26" s="170"/>
+      <c r="AV26" s="172"/>
+      <c r="AW26" s="72"/>
+    </row>
+    <row r="27" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="139">
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="167">
         <v>1</v>
       </c>
-      <c r="H27" s="103"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="81"/>
-      <c r="AW27" s="90"/>
-    </row>
-    <row r="28" spans="1:249" s="2" customFormat="1" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="168"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="170"/>
+      <c r="V27" s="170"/>
+      <c r="W27" s="170"/>
+      <c r="X27" s="170"/>
+      <c r="Y27" s="170"/>
+      <c r="Z27" s="170"/>
+      <c r="AA27" s="170"/>
+      <c r="AB27" s="170"/>
+      <c r="AC27" s="170"/>
+      <c r="AD27" s="170"/>
+      <c r="AE27" s="170"/>
+      <c r="AF27" s="170"/>
+      <c r="AG27" s="170"/>
+      <c r="AH27" s="170"/>
+      <c r="AI27" s="170"/>
+      <c r="AJ27" s="170"/>
+      <c r="AK27" s="170"/>
+      <c r="AL27" s="170"/>
+      <c r="AM27" s="170"/>
+      <c r="AN27" s="170"/>
+      <c r="AO27" s="170"/>
+      <c r="AP27" s="170"/>
+      <c r="AQ27" s="170"/>
+      <c r="AR27" s="170"/>
+      <c r="AS27" s="170"/>
+      <c r="AT27" s="170"/>
+      <c r="AU27" s="170"/>
+      <c r="AV27" s="172"/>
+      <c r="AW27" s="72"/>
+    </row>
+    <row r="28" spans="1:249" s="2" customFormat="1" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="56"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -4628,10 +5262,10 @@
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
-      <c r="AV28" s="81"/>
-      <c r="AW28" s="90"/>
-    </row>
-    <row r="29" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AV28" s="63"/>
+      <c r="AW28" s="72"/>
+    </row>
+    <row r="29" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="18" t="s">
         <v>89</v>
@@ -4639,22 +5273,22 @@
       <c r="D29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="159" t="s">
+      <c r="E29" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="159"/>
-      <c r="G29" s="52">
+      <c r="F29" s="182"/>
+      <c r="G29" s="183">
         <v>1</v>
       </c>
-      <c r="H29" s="102" t="s">
+      <c r="H29" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="56"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="70"/>
+      <c r="N29" s="58"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -4688,28 +5322,28 @@
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
-      <c r="AV29" s="81"/>
-      <c r="AW29" s="90"/>
-    </row>
-    <row r="30" spans="1:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AV29" s="63"/>
+      <c r="AW29" s="72"/>
+    </row>
+    <row r="30" spans="1:249" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="52">
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="183">
         <v>1</v>
       </c>
-      <c r="H30" s="103"/>
-      <c r="I30" s="56"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -4742,8 +5376,8 @@
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
-      <c r="AV30" s="81"/>
-      <c r="AW30" s="90"/>
+      <c r="AV30" s="63"/>
+      <c r="AW30" s="72"/>
       <c r="AX30" s="2"/>
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2"/>
@@ -4796,24 +5430,24 @@
       <c r="CU30" s="2"/>
       <c r="CV30" s="2"/>
     </row>
-    <row r="31" spans="1:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:249" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="56"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="77"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="61"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
@@ -4845,8 +5479,8 @@
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
       <c r="AU31" s="4"/>
-      <c r="AV31" s="81"/>
-      <c r="AW31" s="90"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="72"/>
       <c r="AX31" s="2"/>
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
@@ -4899,24 +5533,24 @@
       <c r="CU31" s="2"/>
       <c r="CV31" s="2"/>
     </row>
-    <row r="32" spans="1:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:249" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="56"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -4948,8 +5582,8 @@
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
       <c r="AU32" s="4"/>
-      <c r="AV32" s="81"/>
-      <c r="AW32" s="90"/>
+      <c r="AV32" s="63"/>
+      <c r="AW32" s="72"/>
       <c r="AX32" s="2"/>
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
@@ -5002,26 +5636,26 @@
       <c r="CU32" s="2"/>
       <c r="CV32" s="2"/>
     </row>
-    <row r="33" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="56"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -5051,8 +5685,8 @@
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
       <c r="AU33" s="4"/>
-      <c r="AV33" s="81"/>
-      <c r="AW33" s="90"/>
+      <c r="AV33" s="63"/>
+      <c r="AW33" s="72"/>
       <c r="AX33" s="2"/>
       <c r="AY33" s="2"/>
       <c r="AZ33" s="2"/>
@@ -5105,7 +5739,7 @@
       <c r="CU33" s="2"/>
       <c r="CV33" s="2"/>
     </row>
-    <row r="34" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="19"/>
       <c r="C34" s="18" t="s">
         <v>19</v>
@@ -5113,13 +5747,13 @@
       <c r="D34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="158" t="s">
+      <c r="E34" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="158"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="56"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -5129,7 +5763,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="71"/>
+      <c r="S34" s="59"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -5158,8 +5792,8 @@
       <c r="AS34" s="4"/>
       <c r="AT34" s="4"/>
       <c r="AU34" s="4"/>
-      <c r="AV34" s="81"/>
-      <c r="AW34" s="90"/>
+      <c r="AV34" s="63"/>
+      <c r="AW34" s="72"/>
       <c r="AX34" s="2"/>
       <c r="AY34" s="2"/>
       <c r="AZ34" s="2"/>
@@ -5212,17 +5846,17 @@
       <c r="CU34" s="2"/>
       <c r="CV34" s="2"/>
     </row>
-    <row r="35" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="56"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5232,8 +5866,8 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
@@ -5261,8 +5895,8 @@
       <c r="AS35" s="4"/>
       <c r="AT35" s="4"/>
       <c r="AU35" s="4"/>
-      <c r="AV35" s="81"/>
-      <c r="AW35" s="90"/>
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="72"/>
       <c r="AX35" s="2"/>
       <c r="AY35" s="2"/>
       <c r="AZ35" s="2"/>
@@ -5315,17 +5949,17 @@
       <c r="CU35" s="2"/>
       <c r="CV35" s="2"/>
     </row>
-    <row r="36" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="56"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5336,7 +5970,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="71"/>
+      <c r="T36" s="59"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
@@ -5364,8 +5998,8 @@
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
-      <c r="AV36" s="81"/>
-      <c r="AW36" s="90"/>
+      <c r="AV36" s="63"/>
+      <c r="AW36" s="72"/>
       <c r="AX36" s="2"/>
       <c r="AY36" s="2"/>
       <c r="AZ36" s="2"/>
@@ -5418,17 +6052,17 @@
       <c r="CU36" s="2"/>
       <c r="CV36" s="2"/>
     </row>
-    <row r="37" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="56"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5440,7 +6074,7 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="71"/>
+      <c r="U37" s="59"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
@@ -5467,8 +6101,8 @@
       <c r="AS37" s="4"/>
       <c r="AT37" s="4"/>
       <c r="AU37" s="4"/>
-      <c r="AV37" s="81"/>
-      <c r="AW37" s="90"/>
+      <c r="AV37" s="63"/>
+      <c r="AW37" s="72"/>
       <c r="AX37" s="2"/>
       <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
@@ -5521,17 +6155,17 @@
       <c r="CU37" s="2"/>
       <c r="CV37" s="2"/>
     </row>
-    <row r="38" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="56"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -5543,8 +6177,8 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
@@ -5570,8 +6204,8 @@
       <c r="AS38" s="4"/>
       <c r="AT38" s="4"/>
       <c r="AU38" s="4"/>
-      <c r="AV38" s="81"/>
-      <c r="AW38" s="90"/>
+      <c r="AV38" s="63"/>
+      <c r="AW38" s="72"/>
       <c r="AX38" s="2"/>
       <c r="AY38" s="2"/>
       <c r="AZ38" s="2"/>
@@ -5624,17 +6258,17 @@
       <c r="CU38" s="2"/>
       <c r="CV38" s="2"/>
     </row>
-    <row r="39" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="56"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="46"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5648,7 +6282,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="71"/>
+      <c r="W39" s="59"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -5673,8 +6307,8 @@
       <c r="AS39" s="4"/>
       <c r="AT39" s="4"/>
       <c r="AU39" s="4"/>
-      <c r="AV39" s="81"/>
-      <c r="AW39" s="90"/>
+      <c r="AV39" s="63"/>
+      <c r="AW39" s="72"/>
       <c r="AX39" s="2"/>
       <c r="AY39" s="2"/>
       <c r="AZ39" s="2"/>
@@ -5727,15 +6361,15 @@
       <c r="CU39" s="2"/>
       <c r="CV39" s="2"/>
     </row>
-    <row r="40" spans="2:100" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:100" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="56"/>
+      <c r="E40" s="179"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5774,8 +6408,8 @@
       <c r="AS40" s="4"/>
       <c r="AT40" s="4"/>
       <c r="AU40" s="4"/>
-      <c r="AV40" s="81"/>
-      <c r="AW40" s="90"/>
+      <c r="AV40" s="63"/>
+      <c r="AW40" s="72"/>
       <c r="AX40" s="2"/>
       <c r="AY40" s="2"/>
       <c r="AZ40" s="2"/>
@@ -5828,21 +6462,21 @@
       <c r="CU40" s="2"/>
       <c r="CV40" s="2"/>
     </row>
-    <row r="41" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="159" t="s">
+      <c r="E41" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="159"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="58"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="181"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="47"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -5857,10 +6491,10 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="135"/>
-      <c r="Y41" s="120"/>
-      <c r="Z41" s="120"/>
-      <c r="AA41" s="120"/>
+      <c r="X41" s="108"/>
+      <c r="Y41" s="94"/>
+      <c r="Z41" s="94"/>
+      <c r="AA41" s="94"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
@@ -5881,19 +6515,19 @@
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
-      <c r="AV41" s="83"/>
-    </row>
-    <row r="42" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AV41" s="65"/>
+    </row>
+    <row r="42" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
-      <c r="C42" s="31"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="58"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -5912,7 +6546,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
-      <c r="AB42" s="120"/>
+      <c r="AB42" s="94"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
@@ -5932,19 +6566,19 @@
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
-      <c r="AV42" s="83"/>
-    </row>
-    <row r="43" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AV42" s="65"/>
+    </row>
+    <row r="43" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
-      <c r="C43" s="31"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="159"/>
-      <c r="F43" s="159"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="58"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="184"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -5964,8 +6598,8 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-      <c r="AC43" s="120"/>
-      <c r="AD43" s="120"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="94"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
@@ -5983,19 +6617,19 @@
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
-      <c r="AV43" s="83"/>
-    </row>
-    <row r="44" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AV43" s="65"/>
+    </row>
+    <row r="44" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
-      <c r="C44" s="31"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="159"/>
-      <c r="F44" s="159"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="58"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="181"/>
+      <c r="H44" s="184"/>
+      <c r="I44" s="47"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -6016,10 +6650,10 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="120"/>
-      <c r="AE44" s="120"/>
-      <c r="AF44" s="120"/>
-      <c r="AG44" s="120"/>
+      <c r="AD44" s="94"/>
+      <c r="AE44" s="94"/>
+      <c r="AF44" s="94"/>
+      <c r="AG44" s="94"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
@@ -6034,23 +6668,23 @@
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
-      <c r="AV44" s="83"/>
-    </row>
-    <row r="45" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AV44" s="65"/>
+    </row>
+    <row r="45" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="160" t="s">
+      <c r="E45" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="160"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="58"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="181"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="47"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -6060,16 +6694,16 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-      <c r="S45" s="120"/>
-      <c r="T45" s="120"/>
-      <c r="U45" s="120"/>
-      <c r="V45" s="120"/>
-      <c r="W45" s="120"/>
-      <c r="X45" s="120"/>
-      <c r="Y45" s="120"/>
-      <c r="Z45" s="120"/>
-      <c r="AA45" s="120"/>
-      <c r="AB45" s="120"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="94"/>
+      <c r="V45" s="94"/>
+      <c r="W45" s="94"/>
+      <c r="X45" s="94"/>
+      <c r="Y45" s="94"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="94"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
@@ -6089,19 +6723,19 @@
       <c r="AS45" s="3"/>
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
-      <c r="AV45" s="83"/>
-    </row>
-    <row r="46" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AV45" s="65"/>
+    </row>
+    <row r="46" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="54" t="s">
+      <c r="C46" s="30"/>
+      <c r="D46" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="58"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="184"/>
+      <c r="I46" s="47"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -6121,10 +6755,10 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
-      <c r="AC46" s="120"/>
-      <c r="AD46" s="120"/>
-      <c r="AE46" s="120"/>
-      <c r="AF46" s="120"/>
+      <c r="AC46" s="94"/>
+      <c r="AD46" s="94"/>
+      <c r="AE46" s="94"/>
+      <c r="AF46" s="94"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
@@ -6140,176 +6774,176 @@
       <c r="AS46" s="3"/>
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
-      <c r="AV46" s="83"/>
-    </row>
-    <row r="47" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AV46" s="65"/>
+    </row>
+    <row r="47" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="65" t="s">
+      <c r="C47" s="30"/>
+      <c r="D47" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="160"/>
-      <c r="F47" s="160"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-      <c r="U47" s="67"/>
-      <c r="V47" s="67"/>
-      <c r="W47" s="67"/>
-      <c r="X47" s="67"/>
-      <c r="Y47" s="67"/>
-      <c r="Z47" s="67"/>
-      <c r="AA47" s="67"/>
-      <c r="AB47" s="67"/>
-      <c r="AC47" s="67"/>
-      <c r="AD47" s="67"/>
-      <c r="AE47" s="67"/>
-      <c r="AF47" s="136"/>
-      <c r="AG47" s="136"/>
-      <c r="AH47" s="136"/>
-      <c r="AI47" s="136"/>
-      <c r="AJ47" s="136"/>
-      <c r="AK47" s="136"/>
-      <c r="AL47" s="67"/>
-      <c r="AM47" s="67"/>
-      <c r="AN47" s="67"/>
-      <c r="AO47" s="67"/>
-      <c r="AP47" s="67"/>
-      <c r="AQ47" s="67"/>
-      <c r="AR47" s="67"/>
-      <c r="AS47" s="67"/>
-      <c r="AT47" s="67"/>
-      <c r="AU47" s="67"/>
-      <c r="AV47" s="84"/>
-    </row>
-    <row r="48" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="55"/>
+      <c r="AD47" s="55"/>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="109"/>
+      <c r="AG47" s="109"/>
+      <c r="AH47" s="109"/>
+      <c r="AI47" s="109"/>
+      <c r="AJ47" s="109"/>
+      <c r="AK47" s="109"/>
+      <c r="AL47" s="55"/>
+      <c r="AM47" s="55"/>
+      <c r="AN47" s="55"/>
+      <c r="AO47" s="55"/>
+      <c r="AP47" s="55"/>
+      <c r="AQ47" s="55"/>
+      <c r="AR47" s="55"/>
+      <c r="AS47" s="55"/>
+      <c r="AT47" s="55"/>
+      <c r="AU47" s="55"/>
+      <c r="AV47" s="66"/>
+    </row>
+    <row r="48" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="65" t="s">
+      <c r="C48" s="30"/>
+      <c r="D48" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="67"/>
-      <c r="Z48" s="67"/>
-      <c r="AA48" s="67"/>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="67"/>
-      <c r="AD48" s="67"/>
-      <c r="AE48" s="67"/>
-      <c r="AF48" s="67"/>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="136"/>
-      <c r="AM48" s="136"/>
-      <c r="AN48" s="136"/>
-      <c r="AO48" s="136"/>
-      <c r="AP48" s="136"/>
-      <c r="AQ48" s="136"/>
-      <c r="AR48" s="67"/>
-      <c r="AS48" s="67"/>
-      <c r="AT48" s="67"/>
-      <c r="AU48" s="67"/>
-      <c r="AV48" s="84"/>
-    </row>
-    <row r="49" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="185"/>
+      <c r="F48" s="185"/>
+      <c r="G48" s="181"/>
+      <c r="H48" s="184"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="55"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="55"/>
+      <c r="AJ48" s="55"/>
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="109"/>
+      <c r="AM48" s="109"/>
+      <c r="AN48" s="109"/>
+      <c r="AO48" s="109"/>
+      <c r="AP48" s="109"/>
+      <c r="AQ48" s="109"/>
+      <c r="AR48" s="55"/>
+      <c r="AS48" s="55"/>
+      <c r="AT48" s="55"/>
+      <c r="AU48" s="55"/>
+      <c r="AV48" s="66"/>
+    </row>
+    <row r="49" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="19"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="65" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="67"/>
-      <c r="Y49" s="67"/>
-      <c r="Z49" s="67"/>
-      <c r="AA49" s="67"/>
-      <c r="AB49" s="67"/>
-      <c r="AC49" s="67"/>
-      <c r="AD49" s="67"/>
-      <c r="AE49" s="67"/>
-      <c r="AF49" s="67"/>
-      <c r="AG49" s="67"/>
-      <c r="AH49" s="67"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="67"/>
-      <c r="AN49" s="67"/>
-      <c r="AO49" s="67"/>
-      <c r="AP49" s="67"/>
-      <c r="AQ49" s="136"/>
-      <c r="AR49" s="136"/>
-      <c r="AS49" s="136"/>
-      <c r="AT49" s="136"/>
-      <c r="AU49" s="136"/>
-      <c r="AV49" s="137"/>
-    </row>
-    <row r="50" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="185"/>
+      <c r="F49" s="185"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="184"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
+      <c r="AA49" s="55"/>
+      <c r="AB49" s="55"/>
+      <c r="AC49" s="55"/>
+      <c r="AD49" s="55"/>
+      <c r="AE49" s="55"/>
+      <c r="AF49" s="55"/>
+      <c r="AG49" s="55"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="55"/>
+      <c r="AJ49" s="55"/>
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="55"/>
+      <c r="AM49" s="55"/>
+      <c r="AN49" s="55"/>
+      <c r="AO49" s="55"/>
+      <c r="AP49" s="55"/>
+      <c r="AQ49" s="109"/>
+      <c r="AR49" s="109"/>
+      <c r="AS49" s="109"/>
+      <c r="AT49" s="109"/>
+      <c r="AU49" s="109"/>
+      <c r="AV49" s="110"/>
+    </row>
+    <row r="50" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="156" t="s">
+      <c r="E50" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="156"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="59"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="184"/>
+      <c r="I50" s="48"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -6348,314 +6982,330 @@
       <c r="AS50" s="6"/>
       <c r="AT50" s="6"/>
       <c r="AU50" s="6"/>
-      <c r="AV50" s="85"/>
-    </row>
-    <row r="51" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AV50" s="67"/>
+    </row>
+    <row r="51" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
       <c r="AW51" s="1"/>
     </row>
-    <row r="52" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="134"/>
       <c r="AW52" s="1"/>
     </row>
-    <row r="53" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
       <c r="AW53" s="1"/>
     </row>
-    <row r="54" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="155" t="s">
+    <row r="54" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="151"/>
-      <c r="D54" s="108"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
       <c r="AW54" s="1"/>
     </row>
-    <row r="55" spans="2:49" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="152" t="s">
+    <row r="55" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="152" t="s">
+      <c r="C55" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="152" t="s">
+      <c r="D55" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="143" t="s">
+      <c r="E55" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="144"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="93"/>
-      <c r="O55" s="92"/>
-      <c r="P55" s="92"/>
-      <c r="Q55" s="92"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="93"/>
-      <c r="T55" s="92"/>
-      <c r="U55" s="92"/>
-      <c r="V55" s="92"/>
-      <c r="W55" s="94"/>
-      <c r="X55" s="93"/>
-      <c r="Y55" s="92"/>
-      <c r="Z55" s="92"/>
-      <c r="AA55" s="92"/>
-      <c r="AB55" s="94"/>
-      <c r="AC55" s="93"/>
-      <c r="AD55" s="92"/>
-      <c r="AE55" s="92"/>
-      <c r="AF55" s="92"/>
-      <c r="AG55" s="94"/>
-      <c r="AH55" s="93"/>
-      <c r="AI55" s="92"/>
-      <c r="AJ55" s="92"/>
-      <c r="AK55" s="92"/>
-      <c r="AL55" s="94"/>
-      <c r="AM55" s="93"/>
-      <c r="AN55" s="92"/>
-      <c r="AO55" s="92"/>
-      <c r="AP55" s="92"/>
-      <c r="AQ55" s="94"/>
-      <c r="AR55" s="93"/>
-      <c r="AS55" s="92"/>
-      <c r="AT55" s="92"/>
-      <c r="AU55" s="92"/>
-      <c r="AV55" s="94"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="139"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="74"/>
+      <c r="U55" s="130"/>
+      <c r="V55" s="74"/>
+      <c r="W55" s="76"/>
+      <c r="X55" s="75"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="74"/>
+      <c r="AA55" s="74"/>
+      <c r="AB55" s="76"/>
+      <c r="AC55" s="75"/>
+      <c r="AD55" s="74"/>
+      <c r="AE55" s="74"/>
+      <c r="AF55" s="74"/>
+      <c r="AG55" s="76"/>
+      <c r="AH55" s="75"/>
+      <c r="AI55" s="74"/>
+      <c r="AJ55" s="74"/>
+      <c r="AK55" s="74"/>
+      <c r="AL55" s="76"/>
+      <c r="AM55" s="75"/>
+      <c r="AN55" s="74"/>
+      <c r="AO55" s="74"/>
+      <c r="AP55" s="74"/>
+      <c r="AQ55" s="76"/>
+      <c r="AR55" s="75"/>
+      <c r="AS55" s="74"/>
+      <c r="AT55" s="74"/>
+      <c r="AU55" s="74"/>
+      <c r="AV55" s="76"/>
       <c r="AW55" s="1"/>
     </row>
-    <row r="56" spans="2:49" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="153"/>
-      <c r="C56" s="153"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="49" t="s">
+    <row r="56" spans="2:49" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="127"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="H56" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73" t="s">
+      <c r="H56" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="I56" s="115"/>
+      <c r="J56" s="209"/>
+      <c r="K56" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="L56" s="73"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73" t="s">
+      <c r="L56" s="209"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="209"/>
+      <c r="O56" s="209"/>
+      <c r="P56" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="72"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73" t="s">
+      <c r="Q56" s="209"/>
+      <c r="R56" s="116"/>
+      <c r="S56" s="209"/>
+      <c r="T56" s="209"/>
+      <c r="U56" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="V56" s="73"/>
-      <c r="W56" s="72"/>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="73" t="s">
+      <c r="V56" s="209"/>
+      <c r="W56" s="116"/>
+      <c r="X56" s="209"/>
+      <c r="Y56" s="209"/>
+      <c r="Z56" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="72"/>
-      <c r="AC56" s="73"/>
-      <c r="AD56" s="73"/>
-      <c r="AE56" s="73" t="s">
+      <c r="AA56" s="209"/>
+      <c r="AB56" s="116"/>
+      <c r="AC56" s="209"/>
+      <c r="AD56" s="209"/>
+      <c r="AE56" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="AF56" s="73"/>
-      <c r="AG56" s="72"/>
-      <c r="AH56" s="73"/>
-      <c r="AI56" s="73"/>
-      <c r="AJ56" s="73" t="s">
+      <c r="AF56" s="209"/>
+      <c r="AG56" s="116"/>
+      <c r="AH56" s="209"/>
+      <c r="AI56" s="209"/>
+      <c r="AJ56" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="AK56" s="73"/>
-      <c r="AL56" s="72"/>
-      <c r="AM56" s="73"/>
-      <c r="AN56" s="73"/>
-      <c r="AO56" s="73" t="s">
+      <c r="AK56" s="209"/>
+      <c r="AL56" s="116"/>
+      <c r="AM56" s="209"/>
+      <c r="AN56" s="209"/>
+      <c r="AO56" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AP56" s="73"/>
-      <c r="AQ56" s="72"/>
-      <c r="AR56" s="73"/>
-      <c r="AS56" s="73"/>
-      <c r="AT56" s="73" t="s">
+      <c r="AP56" s="209"/>
+      <c r="AQ56" s="116"/>
+      <c r="AR56" s="209"/>
+      <c r="AS56" s="209"/>
+      <c r="AT56" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="AU56" s="73"/>
-      <c r="AV56" s="72"/>
+      <c r="AU56" s="209"/>
+      <c r="AV56" s="116"/>
       <c r="AW56" s="1"/>
     </row>
-    <row r="57" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B57" s="154"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="148"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="105">
+    <row r="57" spans="2:49" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="149"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="J57" s="105">
+      <c r="J57" s="79">
         <v>2</v>
       </c>
-      <c r="K57" s="105">
+      <c r="K57" s="79">
         <v>3</v>
       </c>
-      <c r="L57" s="105">
+      <c r="L57" s="79">
         <v>4</v>
       </c>
-      <c r="M57" s="114">
+      <c r="M57" s="88">
         <v>5</v>
       </c>
-      <c r="N57" s="105">
+      <c r="N57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="O57" s="105">
+      <c r="O57" s="79">
         <v>2</v>
       </c>
-      <c r="P57" s="105">
+      <c r="P57" s="79">
         <v>3</v>
       </c>
-      <c r="Q57" s="105">
+      <c r="Q57" s="79">
         <v>4</v>
       </c>
-      <c r="R57" s="114">
+      <c r="R57" s="88">
         <v>5</v>
       </c>
-      <c r="S57" s="105">
+      <c r="S57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="T57" s="105">
+      <c r="T57" s="79">
         <v>2</v>
       </c>
-      <c r="U57" s="105">
+      <c r="U57" s="79">
         <v>3</v>
       </c>
-      <c r="V57" s="105">
+      <c r="V57" s="79">
         <v>4</v>
       </c>
-      <c r="W57" s="114">
+      <c r="W57" s="88">
         <v>5</v>
       </c>
-      <c r="X57" s="105">
+      <c r="X57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="Y57" s="105">
+      <c r="Y57" s="79">
         <v>2</v>
       </c>
-      <c r="Z57" s="105">
+      <c r="Z57" s="79">
         <v>3</v>
       </c>
-      <c r="AA57" s="105">
+      <c r="AA57" s="79">
         <v>4</v>
       </c>
-      <c r="AB57" s="114">
+      <c r="AB57" s="88">
         <v>5</v>
       </c>
-      <c r="AC57" s="105">
+      <c r="AC57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AD57" s="105">
+      <c r="AD57" s="79">
         <v>2</v>
       </c>
-      <c r="AE57" s="105">
+      <c r="AE57" s="79">
         <v>3</v>
       </c>
-      <c r="AF57" s="105">
+      <c r="AF57" s="79">
         <v>4</v>
       </c>
-      <c r="AG57" s="114">
+      <c r="AG57" s="88">
         <v>5</v>
       </c>
-      <c r="AH57" s="105">
+      <c r="AH57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AI57" s="105">
+      <c r="AI57" s="79">
         <v>2</v>
       </c>
-      <c r="AJ57" s="105">
+      <c r="AJ57" s="79">
         <v>3</v>
       </c>
-      <c r="AK57" s="105">
+      <c r="AK57" s="79">
         <v>4</v>
       </c>
-      <c r="AL57" s="114">
+      <c r="AL57" s="88">
         <v>5</v>
       </c>
-      <c r="AM57" s="105">
+      <c r="AM57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AN57" s="105">
+      <c r="AN57" s="79">
         <v>2</v>
       </c>
-      <c r="AO57" s="105">
+      <c r="AO57" s="79">
         <v>3</v>
       </c>
-      <c r="AP57" s="105">
+      <c r="AP57" s="79">
         <v>4</v>
       </c>
-      <c r="AQ57" s="114">
+      <c r="AQ57" s="88">
         <v>5</v>
       </c>
-      <c r="AR57" s="105">
+      <c r="AR57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AS57" s="105">
+      <c r="AS57" s="79">
         <v>2</v>
       </c>
-      <c r="AT57" s="105">
+      <c r="AT57" s="79">
         <v>3</v>
       </c>
-      <c r="AU57" s="105">
+      <c r="AU57" s="79">
         <v>4</v>
       </c>
-      <c r="AV57" s="114">
+      <c r="AV57" s="88">
         <v>5</v>
       </c>
       <c r="AW57" s="1"/>
     </row>
-    <row r="58" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B58" s="23" t="s">
+    <row r="58" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="52">
+      <c r="F58" s="189"/>
+      <c r="G58" s="183">
         <v>1</v>
       </c>
-      <c r="H58" s="57" t="s">
+      <c r="H58" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="113"/>
+      <c r="I58" s="87"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="116"/>
+      <c r="K58" s="90"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -6692,32 +7342,32 @@
       <c r="AS58" s="9"/>
       <c r="AT58" s="9"/>
       <c r="AU58" s="9"/>
-      <c r="AV58" s="86"/>
-    </row>
-    <row r="59" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
+      <c r="AV58" s="68"/>
+    </row>
+    <row r="59" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="H59" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="I59" s="58"/>
+      <c r="E59" s="191"/>
+      <c r="F59" s="192"/>
+      <c r="G59" s="183">
+        <v>0.8</v>
+      </c>
+      <c r="H59" s="190" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" s="47"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="118"/>
+      <c r="L59" s="92"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="121"/>
-      <c r="R59" s="121"/>
+      <c r="N59" s="92"/>
+      <c r="O59" s="92"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="95"/>
+      <c r="R59" s="95"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -6747,32 +7397,32 @@
       <c r="AS59" s="3"/>
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
-      <c r="AV59" s="83"/>
-    </row>
-    <row r="60" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+      <c r="AV59" s="65"/>
+    </row>
+    <row r="60" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="52">
+      <c r="E60" s="191"/>
+      <c r="F60" s="192"/>
+      <c r="G60" s="183">
         <v>0.4</v>
       </c>
-      <c r="H60" s="57" t="s">
+      <c r="H60" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="58"/>
+      <c r="I60" s="47"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="118"/>
+      <c r="M60" s="92"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="121"/>
-      <c r="P60" s="121"/>
-      <c r="Q60" s="120"/>
-      <c r="R60" s="120"/>
+      <c r="O60" s="95"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="94"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -6802,32 +7452,32 @@
       <c r="AS60" s="3"/>
       <c r="AT60" s="3"/>
       <c r="AU60" s="3"/>
-      <c r="AV60" s="83"/>
-    </row>
-    <row r="61" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="36" t="s">
+      <c r="AV60" s="65"/>
+    </row>
+    <row r="61" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="52">
+      <c r="E61" s="179"/>
+      <c r="F61" s="180"/>
+      <c r="G61" s="183">
         <v>0.6</v>
       </c>
-      <c r="H61" s="57" t="s">
+      <c r="H61" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="I61" s="59"/>
+      <c r="I61" s="48"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="117"/>
-      <c r="N61" s="117"/>
-      <c r="O61" s="117"/>
-      <c r="P61" s="119"/>
-      <c r="Q61" s="119"/>
-      <c r="R61" s="122"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="96"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
@@ -6857,74 +7507,74 @@
       <c r="AS61" s="6"/>
       <c r="AT61" s="6"/>
       <c r="AU61" s="6"/>
-      <c r="AV61" s="85"/>
-    </row>
-    <row r="62" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B62" s="24"/>
-      <c r="C62" s="23" t="s">
+      <c r="AV61" s="67"/>
+    </row>
+    <row r="62" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B62" s="23"/>
+      <c r="C62" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="F62" s="39"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="113"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="61"/>
-      <c r="S62" s="123"/>
-      <c r="T62" s="123"/>
-      <c r="U62" s="124"/>
-      <c r="V62" s="124"/>
-      <c r="W62" s="61"/>
-      <c r="X62" s="61"/>
-      <c r="Y62" s="61"/>
-      <c r="Z62" s="61"/>
-      <c r="AA62" s="61"/>
-      <c r="AB62" s="61"/>
-      <c r="AC62" s="61"/>
-      <c r="AD62" s="61"/>
-      <c r="AE62" s="61"/>
-      <c r="AF62" s="61"/>
-      <c r="AG62" s="61"/>
-      <c r="AH62" s="61"/>
-      <c r="AI62" s="61"/>
-      <c r="AJ62" s="61"/>
-      <c r="AK62" s="61"/>
-      <c r="AL62" s="61"/>
-      <c r="AM62" s="61"/>
-      <c r="AN62" s="61"/>
-      <c r="AO62" s="61"/>
-      <c r="AP62" s="61"/>
-      <c r="AQ62" s="61"/>
-      <c r="AR62" s="61"/>
-      <c r="AS62" s="61"/>
-      <c r="AT62" s="61"/>
-      <c r="AU62" s="61"/>
-      <c r="AV62" s="87"/>
-    </row>
-    <row r="63" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
+      <c r="F62" s="189"/>
+      <c r="G62" s="184"/>
+      <c r="H62" s="190"/>
+      <c r="I62" s="87"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="97"/>
+      <c r="T62" s="97"/>
+      <c r="U62" s="98"/>
+      <c r="V62" s="98"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="50"/>
+      <c r="Y62" s="50"/>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="50"/>
+      <c r="AB62" s="50"/>
+      <c r="AC62" s="50"/>
+      <c r="AD62" s="50"/>
+      <c r="AE62" s="50"/>
+      <c r="AF62" s="50"/>
+      <c r="AG62" s="50"/>
+      <c r="AH62" s="50"/>
+      <c r="AI62" s="50"/>
+      <c r="AJ62" s="50"/>
+      <c r="AK62" s="50"/>
+      <c r="AL62" s="50"/>
+      <c r="AM62" s="50"/>
+      <c r="AN62" s="50"/>
+      <c r="AO62" s="50"/>
+      <c r="AP62" s="50"/>
+      <c r="AQ62" s="50"/>
+      <c r="AR62" s="50"/>
+      <c r="AS62" s="50"/>
+      <c r="AT62" s="50"/>
+      <c r="AU62" s="50"/>
+      <c r="AV62" s="69"/>
+    </row>
+    <row r="63" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="58"/>
+      <c r="E63" s="191"/>
+      <c r="F63" s="192"/>
+      <c r="G63" s="184"/>
+      <c r="H63" s="190"/>
+      <c r="I63" s="47"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -6936,12 +7586,12 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="120"/>
-      <c r="V63" s="120"/>
-      <c r="W63" s="120"/>
-      <c r="X63" s="125"/>
-      <c r="Y63" s="125"/>
-      <c r="Z63" s="121"/>
+      <c r="U63" s="94"/>
+      <c r="V63" s="94"/>
+      <c r="W63" s="94"/>
+      <c r="X63" s="99"/>
+      <c r="Y63" s="99"/>
+      <c r="Z63" s="95"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
@@ -6963,18 +7613,19 @@
       <c r="AS63" s="3"/>
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
-      <c r="AV63" s="83"/>
-    </row>
-    <row r="64" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
+      <c r="AV63" s="65"/>
+    </row>
+    <row r="64" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="40"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="58"/>
+      <c r="E64" s="191"/>
+      <c r="F64" s="187"/>
+      <c r="G64" s="184"/>
+      <c r="H64" s="190"/>
+      <c r="I64" s="47"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -6984,20 +7635,20 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
-      <c r="S64" s="121"/>
-      <c r="T64" s="121"/>
-      <c r="U64" s="121"/>
-      <c r="V64" s="121"/>
-      <c r="W64" s="121"/>
+      <c r="S64" s="95"/>
+      <c r="T64" s="95"/>
+      <c r="U64" s="95"/>
+      <c r="V64" s="95"/>
+      <c r="W64" s="95"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
-      <c r="AA64" s="120"/>
-      <c r="AB64" s="120"/>
-      <c r="AC64" s="120"/>
-      <c r="AD64" s="125"/>
-      <c r="AE64" s="125"/>
-      <c r="AF64" s="125"/>
+      <c r="AA64" s="94"/>
+      <c r="AB64" s="94"/>
+      <c r="AC64" s="94"/>
+      <c r="AD64" s="99"/>
+      <c r="AE64" s="99"/>
+      <c r="AF64" s="99"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
@@ -7013,19 +7664,19 @@
       <c r="AS64" s="3"/>
       <c r="AT64" s="3"/>
       <c r="AU64" s="3"/>
-      <c r="AV64" s="83"/>
-    </row>
-    <row r="65" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="AV64" s="65"/>
+    </row>
+    <row r="65" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="59"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="180"/>
+      <c r="G65" s="184"/>
+      <c r="H65" s="190"/>
+      <c r="I65" s="48"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -7046,92 +7697,92 @@
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
-      <c r="AD65" s="122"/>
-      <c r="AE65" s="122"/>
-      <c r="AF65" s="127"/>
-      <c r="AG65" s="127"/>
-      <c r="AH65" s="127"/>
-      <c r="AI65" s="127"/>
-      <c r="AJ65" s="127"/>
-      <c r="AK65" s="127"/>
-      <c r="AL65" s="127"/>
-      <c r="AM65" s="127"/>
-      <c r="AN65" s="127"/>
-      <c r="AO65" s="127"/>
+      <c r="AD65" s="96"/>
+      <c r="AE65" s="96"/>
+      <c r="AF65" s="101"/>
+      <c r="AG65" s="101"/>
+      <c r="AH65" s="101"/>
+      <c r="AI65" s="101"/>
+      <c r="AJ65" s="101"/>
+      <c r="AK65" s="101"/>
+      <c r="AL65" s="101"/>
+      <c r="AM65" s="101"/>
+      <c r="AN65" s="101"/>
+      <c r="AO65" s="101"/>
       <c r="AP65" s="6"/>
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6"/>
       <c r="AS65" s="6"/>
       <c r="AT65" s="6"/>
       <c r="AU65" s="6"/>
-      <c r="AV65" s="85"/>
-    </row>
-    <row r="66" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B66" s="24"/>
-      <c r="C66" s="23" t="s">
+      <c r="AV65" s="67"/>
+    </row>
+    <row r="66" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B66" s="23"/>
+      <c r="C66" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="123"/>
-      <c r="X66" s="123"/>
-      <c r="Y66" s="126"/>
-      <c r="Z66" s="61"/>
-      <c r="AA66" s="61"/>
-      <c r="AB66" s="61"/>
-      <c r="AC66" s="61"/>
-      <c r="AD66" s="61"/>
-      <c r="AE66" s="61"/>
-      <c r="AF66" s="61"/>
-      <c r="AG66" s="61"/>
-      <c r="AH66" s="61"/>
-      <c r="AI66" s="61"/>
-      <c r="AJ66" s="61"/>
-      <c r="AK66" s="61"/>
-      <c r="AL66" s="61"/>
-      <c r="AM66" s="61"/>
-      <c r="AN66" s="61"/>
-      <c r="AO66" s="61"/>
-      <c r="AP66" s="61"/>
-      <c r="AQ66" s="61"/>
-      <c r="AR66" s="61"/>
-      <c r="AS66" s="61"/>
-      <c r="AT66" s="61"/>
-      <c r="AU66" s="61"/>
-      <c r="AV66" s="87"/>
-    </row>
-    <row r="67" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
+      <c r="F66" s="189"/>
+      <c r="G66" s="184"/>
+      <c r="H66" s="190"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="50"/>
+      <c r="U66" s="50"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="97"/>
+      <c r="X66" s="97"/>
+      <c r="Y66" s="100"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="50"/>
+      <c r="AC66" s="50"/>
+      <c r="AD66" s="50"/>
+      <c r="AE66" s="50"/>
+      <c r="AF66" s="50"/>
+      <c r="AG66" s="50"/>
+      <c r="AH66" s="50"/>
+      <c r="AI66" s="50"/>
+      <c r="AJ66" s="50"/>
+      <c r="AK66" s="50"/>
+      <c r="AL66" s="50"/>
+      <c r="AM66" s="50"/>
+      <c r="AN66" s="50"/>
+      <c r="AO66" s="50"/>
+      <c r="AP66" s="50"/>
+      <c r="AQ66" s="50"/>
+      <c r="AR66" s="50"/>
+      <c r="AS66" s="50"/>
+      <c r="AT66" s="50"/>
+      <c r="AU66" s="50"/>
+      <c r="AV66" s="69"/>
+    </row>
+    <row r="67" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="40"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="58"/>
+      <c r="E67" s="191"/>
+      <c r="F67" s="192"/>
+      <c r="G67" s="184"/>
+      <c r="H67" s="190"/>
+      <c r="I67" s="47"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -7147,8 +7798,8 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="125"/>
-      <c r="Z67" s="125"/>
+      <c r="Y67" s="99"/>
+      <c r="Z67" s="99"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
@@ -7170,17 +7821,17 @@
       <c r="AS67" s="3"/>
       <c r="AT67" s="3"/>
       <c r="AU67" s="3"/>
-      <c r="AV67" s="83"/>
-    </row>
-    <row r="68" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
+      <c r="AV67" s="65"/>
+    </row>
+    <row r="68" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="58"/>
+      <c r="E68" s="191"/>
+      <c r="F68" s="192"/>
+      <c r="G68" s="184"/>
+      <c r="H68" s="190"/>
+      <c r="I68" s="47"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -7219,17 +7870,17 @@
       <c r="AS68" s="3"/>
       <c r="AT68" s="3"/>
       <c r="AU68" s="3"/>
-      <c r="AV68" s="83"/>
-    </row>
-    <row r="69" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="59"/>
+      <c r="AV68" s="65"/>
+    </row>
+    <row r="69" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="179"/>
+      <c r="F69" s="180"/>
+      <c r="G69" s="184"/>
+      <c r="H69" s="190"/>
+      <c r="I69" s="48"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -7268,87 +7919,87 @@
       <c r="AS69" s="6"/>
       <c r="AT69" s="6"/>
       <c r="AU69" s="6"/>
-      <c r="AV69" s="85"/>
-    </row>
-    <row r="70" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B70" s="24"/>
-      <c r="C70" s="23" t="s">
+      <c r="AV69" s="67"/>
+    </row>
+    <row r="70" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B70" s="23"/>
+      <c r="C70" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="39"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="124"/>
-      <c r="S70" s="61"/>
-      <c r="T70" s="61"/>
-      <c r="U70" s="61"/>
-      <c r="V70" s="61"/>
-      <c r="W70" s="61"/>
-      <c r="X70" s="61"/>
-      <c r="Y70" s="61"/>
-      <c r="Z70" s="61"/>
-      <c r="AA70" s="61"/>
-      <c r="AB70" s="61"/>
-      <c r="AC70" s="61"/>
-      <c r="AD70" s="61"/>
-      <c r="AE70" s="61"/>
-      <c r="AF70" s="61"/>
-      <c r="AG70" s="61"/>
-      <c r="AH70" s="140"/>
-      <c r="AI70" s="140"/>
-      <c r="AJ70" s="61"/>
-      <c r="AK70" s="61"/>
-      <c r="AL70" s="61"/>
-      <c r="AM70" s="61"/>
-      <c r="AN70" s="61"/>
-      <c r="AO70" s="61"/>
-      <c r="AP70" s="61"/>
-      <c r="AQ70" s="61"/>
-      <c r="AR70" s="61"/>
-      <c r="AS70" s="61"/>
-      <c r="AT70" s="61"/>
-      <c r="AU70" s="61"/>
-      <c r="AV70" s="87"/>
-    </row>
-    <row r="71" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="F70" s="189"/>
+      <c r="G70" s="184"/>
+      <c r="H70" s="190"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="98"/>
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="50"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="50"/>
+      <c r="Y70" s="50"/>
+      <c r="Z70" s="50"/>
+      <c r="AA70" s="50"/>
+      <c r="AB70" s="50"/>
+      <c r="AC70" s="50"/>
+      <c r="AD70" s="50"/>
+      <c r="AE70" s="50"/>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="111"/>
+      <c r="AI70" s="111"/>
+      <c r="AJ70" s="50"/>
+      <c r="AK70" s="50"/>
+      <c r="AL70" s="50"/>
+      <c r="AM70" s="50"/>
+      <c r="AN70" s="50"/>
+      <c r="AO70" s="50"/>
+      <c r="AP70" s="50"/>
+      <c r="AQ70" s="50"/>
+      <c r="AR70" s="50"/>
+      <c r="AS70" s="50"/>
+      <c r="AT70" s="50"/>
+      <c r="AU70" s="50"/>
+      <c r="AV70" s="69"/>
+    </row>
+    <row r="71" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="40"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="52">
+      <c r="E71" s="191"/>
+      <c r="F71" s="192"/>
+      <c r="G71" s="183">
         <v>1</v>
       </c>
-      <c r="H71" s="57" t="s">
+      <c r="H71" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="58"/>
+      <c r="I71" s="47"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="118"/>
+      <c r="N71" s="92"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="121"/>
+      <c r="R71" s="95"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
@@ -7378,23 +8029,23 @@
       <c r="AS71" s="3"/>
       <c r="AT71" s="3"/>
       <c r="AU71" s="3"/>
-      <c r="AV71" s="83"/>
-    </row>
-    <row r="72" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B72" s="24"/>
-      <c r="C72" s="23" t="s">
+      <c r="AV71" s="65"/>
+    </row>
+    <row r="72" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B72" s="23"/>
+      <c r="C72" s="22" t="s">
         <v>80</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="58"/>
+      <c r="F72" s="189"/>
+      <c r="G72" s="184"/>
+      <c r="H72" s="190"/>
+      <c r="I72" s="47"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -7419,10 +8070,10 @@
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
-      <c r="AH72" s="125"/>
-      <c r="AI72" s="120"/>
-      <c r="AJ72" s="120"/>
-      <c r="AK72" s="120"/>
+      <c r="AH72" s="99"/>
+      <c r="AI72" s="94"/>
+      <c r="AJ72" s="94"/>
+      <c r="AK72" s="94"/>
       <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
@@ -7433,19 +8084,19 @@
       <c r="AS72" s="3"/>
       <c r="AT72" s="3"/>
       <c r="AU72" s="3"/>
-      <c r="AV72" s="83"/>
-    </row>
-    <row r="73" spans="2:49" x14ac:dyDescent="0.15">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="AV72" s="65"/>
+    </row>
+    <row r="73" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="42"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="59"/>
+      <c r="E73" s="179"/>
+      <c r="F73" s="180"/>
+      <c r="G73" s="184"/>
+      <c r="H73" s="181"/>
+      <c r="I73" s="48"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -7470,13 +8121,13 @@
       <c r="AE73" s="6"/>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
-      <c r="AH73" s="122"/>
-      <c r="AI73" s="122"/>
-      <c r="AJ73" s="122"/>
-      <c r="AK73" s="122"/>
-      <c r="AL73" s="127"/>
-      <c r="AM73" s="127"/>
-      <c r="AN73" s="127"/>
+      <c r="AH73" s="96"/>
+      <c r="AI73" s="96"/>
+      <c r="AJ73" s="96"/>
+      <c r="AK73" s="96"/>
+      <c r="AL73" s="101"/>
+      <c r="AM73" s="101"/>
+      <c r="AN73" s="101"/>
       <c r="AO73" s="6"/>
       <c r="AP73" s="6"/>
       <c r="AQ73" s="6"/>
@@ -7484,120 +8135,120 @@
       <c r="AS73" s="6"/>
       <c r="AT73" s="6"/>
       <c r="AU73" s="6"/>
-      <c r="AV73" s="85"/>
-    </row>
-    <row r="74" spans="2:49" x14ac:dyDescent="0.15">
+      <c r="AV73" s="67"/>
+    </row>
+    <row r="74" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AW74" s="1"/>
     </row>
-    <row r="75" spans="2:49" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AW75" s="1"/>
     </row>
-    <row r="76" spans="2:49" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AW76" s="1"/>
     </row>
-    <row r="77" spans="2:49" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AW77" s="1"/>
     </row>
-    <row r="78" spans="2:49" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AW78" s="1"/>
     </row>
-    <row r="79" spans="2:49" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AW79" s="1"/>
     </row>
-    <row r="80" spans="2:49" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AW80" s="1"/>
     </row>
-    <row r="81" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="81" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW81" s="1"/>
     </row>
-    <row r="82" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="82" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW82" s="1"/>
     </row>
-    <row r="83" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="83" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW83" s="1"/>
     </row>
-    <row r="84" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="84" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW84" s="1"/>
     </row>
-    <row r="85" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="85" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW85" s="1"/>
     </row>
-    <row r="86" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="86" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW86" s="1"/>
     </row>
-    <row r="87" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="87" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW87" s="1"/>
     </row>
-    <row r="88" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="88" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW88" s="1"/>
     </row>
-    <row r="89" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="89" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW89" s="1"/>
     </row>
-    <row r="90" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="90" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW90" s="1"/>
     </row>
-    <row r="91" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="91" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW91" s="1"/>
     </row>
-    <row r="92" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="92" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW92" s="1"/>
     </row>
-    <row r="93" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="93" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW93" s="1"/>
     </row>
-    <row r="94" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="94" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW94" s="1"/>
     </row>
-    <row r="95" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="95" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW95" s="1"/>
     </row>
-    <row r="96" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="96" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW96" s="1"/>
     </row>
-    <row r="97" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="97" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW97" s="1"/>
     </row>
-    <row r="98" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="98" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW98" s="1"/>
     </row>
-    <row r="99" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="99" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW99" s="1"/>
     </row>
-    <row r="100" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="100" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW100" s="1"/>
     </row>
-    <row r="101" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="101" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW101" s="1"/>
     </row>
-    <row r="102" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="102" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW102" s="1"/>
     </row>
-    <row r="103" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="103" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW103" s="1"/>
     </row>
-    <row r="104" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="104" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW104" s="1"/>
     </row>
-    <row r="105" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="105" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW105" s="1"/>
     </row>
-    <row r="106" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="106" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW106" s="1"/>
     </row>
-    <row r="107" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="107" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW107" s="1"/>
     </row>
-    <row r="108" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="108" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW108" s="1"/>
     </row>
-    <row r="109" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="109" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW109" s="1"/>
     </row>
-    <row r="110" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="110" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW110" s="1"/>
     </row>
-    <row r="111" spans="49:49" x14ac:dyDescent="0.15">
+    <row r="111" spans="49:49" x14ac:dyDescent="0.25">
       <c r="AW111" s="1"/>
     </row>
   </sheetData>

--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erfrr\Desktop\Senior_Project\Avoid-The-Boss\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH.S.D\Desktop\졸작\졸작\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E7BEDA-557F-4B64-BA80-B16614FACF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F84FD39-D523-4459-81C6-18EF59FA4C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
   <si>
     <t>서버 되감기 동기화 공부 및 분석(30)</t>
   </si>
@@ -334,15 +334,19 @@
     <t>2월(28일)</t>
   </si>
   <si>
-    <t>39시간</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>총 작업 시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>13시간</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시간</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>42시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1791,7 +1795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2143,6 +2147,258 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2164,263 +2420,14 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -2525,291 +2532,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53974</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Line 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8929687" y="1309687"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Line 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8929687" y="1309687"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="Line 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8929687" y="1309687"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="Line 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8929687" y="1309687"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1029" name="Line 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8929687" y="1309687"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>204349</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13849</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2824,8 +2556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9410699" y="361951"/>
-          <a:ext cx="198000" cy="13500100"/>
+          <a:off x="10655299" y="400051"/>
+          <a:ext cx="198000" cy="12690475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3208,6 +2940,281 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8929687" y="1309687"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8929687" y="1309687"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8929687" y="1309687"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="Line 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8929687" y="1309687"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="Line 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8929687" y="1309687"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3534,162 +3541,162 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.58203125" style="2" customWidth="1"/>
-    <col min="9" max="48" width="2.75" style="1" customWidth="1"/>
-    <col min="49" max="49" width="2.75" style="36" customWidth="1"/>
-    <col min="50" max="53" width="2.75" style="1" customWidth="1"/>
-    <col min="54" max="55" width="2.58203125" style="1" customWidth="1"/>
-    <col min="56" max="100" width="2.75" style="1" customWidth="1"/>
-    <col min="101" max="256" width="8.9140625" style="1"/>
+    <col min="5" max="5" width="2.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
+    <col min="9" max="48" width="2.77734375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="2.77734375" style="36" customWidth="1"/>
+    <col min="50" max="53" width="2.77734375" style="1" customWidth="1"/>
+    <col min="54" max="55" width="2.5546875" style="1" customWidth="1"/>
+    <col min="56" max="100" width="2.77734375" style="1" customWidth="1"/>
+    <col min="101" max="256" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:100" ht="18" customHeight="1">
       <c r="AW1" s="1"/>
     </row>
-    <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="117" t="s">
+    <row r="2" spans="2:100" ht="14.25" customHeight="1">
+      <c r="B2" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="117"/>
-      <c r="AL2" s="117"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="117"/>
-      <c r="AP2" s="117"/>
-      <c r="AQ2" s="117"/>
-      <c r="AR2" s="117"/>
-      <c r="AS2" s="117"/>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="117"/>
-      <c r="AV2" s="117"/>
-      <c r="AW2" s="117"/>
-      <c r="AX2" s="117"/>
-      <c r="AY2" s="117"/>
-      <c r="AZ2" s="117"/>
-    </row>
-    <row r="3" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="117"/>
-      <c r="AJ3" s="117"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="117"/>
-      <c r="AM3" s="117"/>
-      <c r="AN3" s="117"/>
-      <c r="AO3" s="117"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="117"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="117"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="117"/>
-      <c r="AW3" s="117"/>
-      <c r="AX3" s="117"/>
-      <c r="AY3" s="117"/>
-      <c r="AZ3" s="117"/>
-    </row>
-    <row r="4" spans="2:100" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="124" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
+      <c r="AP2" s="201"/>
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="201"/>
+      <c r="AS2" s="201"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+    </row>
+    <row r="3" spans="2:100" ht="14.25" customHeight="1">
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="201"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="201"/>
+      <c r="AE3" s="201"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="201"/>
+      <c r="AH3" s="201"/>
+      <c r="AI3" s="201"/>
+      <c r="AJ3" s="201"/>
+      <c r="AK3" s="201"/>
+      <c r="AL3" s="201"/>
+      <c r="AM3" s="201"/>
+      <c r="AN3" s="201"/>
+      <c r="AO3" s="201"/>
+      <c r="AP3" s="201"/>
+      <c r="AQ3" s="201"/>
+      <c r="AR3" s="201"/>
+      <c r="AS3" s="201"/>
+      <c r="AT3" s="201"/>
+      <c r="AU3" s="201"/>
+      <c r="AV3" s="201"/>
+      <c r="AW3" s="201"/>
+      <c r="AX3" s="201"/>
+      <c r="AY3" s="201"/>
+      <c r="AZ3" s="201"/>
+    </row>
+    <row r="4" spans="2:100" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B4" s="209" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="82"/>
       <c r="AW4" s="1"/>
       <c r="AZ4" s="77"/>
     </row>
-    <row r="5" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="126" t="s">
+    <row r="5" spans="2:100" ht="14.25" customHeight="1">
+      <c r="B5" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="119"/>
+      <c r="F5" s="203"/>
       <c r="G5" s="40"/>
       <c r="H5" s="37"/>
       <c r="I5" s="75"/>
@@ -3733,82 +3740,82 @@
       <c r="AU5" s="74"/>
       <c r="AV5" s="76"/>
     </row>
-    <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="121"/>
+    <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="205"/>
       <c r="G6" s="41" t="s">
         <v>95</v>
       </c>
       <c r="H6" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" s="115"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209" t="s">
+      <c r="J6" s="179"/>
+      <c r="K6" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="209"/>
+      <c r="L6" s="179"/>
       <c r="M6" s="116"/>
       <c r="N6" s="115"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209" t="s">
+      <c r="O6" s="179"/>
+      <c r="P6" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="209"/>
+      <c r="Q6" s="179"/>
       <c r="R6" s="116"/>
       <c r="S6" s="115"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209" t="s">
+      <c r="T6" s="179"/>
+      <c r="U6" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="209"/>
+      <c r="V6" s="179"/>
       <c r="W6" s="116"/>
       <c r="X6" s="115"/>
-      <c r="Y6" s="209"/>
-      <c r="Z6" s="209" t="s">
+      <c r="Y6" s="179"/>
+      <c r="Z6" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="209"/>
+      <c r="AA6" s="179"/>
       <c r="AB6" s="116"/>
       <c r="AC6" s="115"/>
-      <c r="AD6" s="209"/>
-      <c r="AE6" s="209" t="s">
+      <c r="AD6" s="179"/>
+      <c r="AE6" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="209"/>
+      <c r="AF6" s="179"/>
       <c r="AG6" s="116"/>
       <c r="AH6" s="115"/>
-      <c r="AI6" s="209"/>
-      <c r="AJ6" s="209" t="s">
+      <c r="AI6" s="179"/>
+      <c r="AJ6" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="209"/>
+      <c r="AK6" s="179"/>
       <c r="AL6" s="116"/>
       <c r="AM6" s="115"/>
-      <c r="AN6" s="209"/>
-      <c r="AO6" s="209" t="s">
+      <c r="AN6" s="179"/>
+      <c r="AO6" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="AP6" s="209"/>
+      <c r="AP6" s="179"/>
       <c r="AQ6" s="116"/>
       <c r="AR6" s="115"/>
-      <c r="AS6" s="209"/>
-      <c r="AT6" s="209" t="s">
+      <c r="AS6" s="179"/>
+      <c r="AT6" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" s="209"/>
+      <c r="AU6" s="179"/>
       <c r="AV6" s="116"/>
       <c r="AW6" s="72"/>
     </row>
-    <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
+    <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
       <c r="G7" s="41"/>
       <c r="H7" s="38"/>
       <c r="I7" s="79">
@@ -3941,12 +3948,12 @@
       </c>
       <c r="AW7" s="72"/>
     </row>
-    <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="123"/>
+    <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1">
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="207"/>
       <c r="G8" s="42"/>
       <c r="H8" s="39"/>
       <c r="I8" s="79"/>
@@ -3994,7 +4001,7 @@
       <c r="AY8"/>
       <c r="AZ8"/>
     </row>
-    <row r="9" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
@@ -4004,12 +4011,12 @@
       <c r="D9" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="193"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="195">
+      <c r="E9" s="166"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="168">
         <v>0.2</v>
       </c>
-      <c r="H9" s="196">
+      <c r="H9" s="169">
         <v>2</v>
       </c>
       <c r="I9" s="51"/>
@@ -4056,18 +4063,18 @@
       <c r="BC9" s="70"/>
       <c r="BD9" s="70"/>
     </row>
-    <row r="10" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198" t="s">
+      <c r="E10" s="170"/>
+      <c r="F10" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="199"/>
-      <c r="H10" s="196"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="169"/>
       <c r="I10" s="83"/>
       <c r="J10" s="84"/>
       <c r="K10" s="4"/>
@@ -4115,16 +4122,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="197"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="196"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="169"/>
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
       <c r="K11" s="4"/>
@@ -4169,16 +4176,16 @@
       <c r="BC11" s="70"/>
       <c r="BD11" s="70"/>
     </row>
-    <row r="12" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="196"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="169"/>
       <c r="I12" s="83"/>
       <c r="J12" s="84"/>
       <c r="K12" s="4"/>
@@ -4228,7 +4235,7 @@
       <c r="BW12" s="71"/>
       <c r="BX12" s="71"/>
     </row>
-    <row r="13" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B13" s="27"/>
       <c r="C13" s="26" t="s">
         <v>10</v>
@@ -4236,12 +4243,12 @@
       <c r="D13" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="195">
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="168">
         <v>1</v>
       </c>
-      <c r="H13" s="196">
+      <c r="H13" s="169">
         <v>30</v>
       </c>
       <c r="I13" s="83"/>
@@ -4289,20 +4296,20 @@
       <c r="BD13" s="70"/>
       <c r="BH13" s="73"/>
     </row>
-    <row r="14" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="203" t="s">
+      <c r="E14" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="203"/>
-      <c r="G14" s="195">
+      <c r="F14" s="208"/>
+      <c r="G14" s="168">
         <v>1</v>
       </c>
-      <c r="H14" s="196">
+      <c r="H14" s="169">
         <v>12</v>
       </c>
       <c r="I14" s="83"/>
@@ -4349,18 +4356,18 @@
       <c r="BC14" s="70"/>
       <c r="BD14" s="70"/>
     </row>
-    <row r="15" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="197"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="195">
+      <c r="E15" s="170"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="168">
         <v>1</v>
       </c>
-      <c r="H15" s="196">
+      <c r="H15" s="169">
         <v>12</v>
       </c>
       <c r="I15" s="83"/>
@@ -4407,16 +4414,16 @@
       <c r="BC15" s="70"/>
       <c r="BD15" s="70"/>
     </row>
-    <row r="16" spans="2:100" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="205"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="177"/>
       <c r="I16" s="85"/>
       <c r="J16" s="86"/>
       <c r="K16" s="5"/>
@@ -4466,323 +4473,323 @@
       <c r="BW16" s="71"/>
       <c r="BX16" s="71"/>
     </row>
-    <row r="17" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1"/>
+    <row r="18" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="H18" s="112"/>
     </row>
-    <row r="19" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="131" t="s">
+    <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1"/>
+    <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B20" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="134"/>
-      <c r="Y20" s="134"/>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="134"/>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="134"/>
-      <c r="AD20" s="134"/>
-      <c r="AE20" s="134"/>
-      <c r="AF20" s="134"/>
-      <c r="AG20" s="134"/>
-      <c r="AH20" s="134"/>
-      <c r="AI20" s="134"/>
-      <c r="AJ20" s="134"/>
-      <c r="AK20" s="134"/>
-      <c r="AL20" s="134"/>
-      <c r="AM20" s="134"/>
-      <c r="AN20" s="134"/>
-      <c r="AO20" s="134"/>
-      <c r="AP20" s="134"/>
-      <c r="AQ20" s="134"/>
-      <c r="AR20" s="134"/>
-      <c r="AS20" s="134"/>
-      <c r="AT20" s="134"/>
-      <c r="AU20" s="134"/>
-      <c r="AV20" s="134"/>
-    </row>
-    <row r="21" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="135" t="s">
+      <c r="C20" s="190"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="119"/>
+      <c r="AF20" s="119"/>
+      <c r="AG20" s="119"/>
+      <c r="AH20" s="119"/>
+      <c r="AI20" s="119"/>
+      <c r="AJ20" s="119"/>
+      <c r="AK20" s="119"/>
+      <c r="AL20" s="119"/>
+      <c r="AM20" s="119"/>
+      <c r="AN20" s="119"/>
+      <c r="AO20" s="119"/>
+      <c r="AP20" s="119"/>
+      <c r="AQ20" s="119"/>
+      <c r="AR20" s="119"/>
+      <c r="AS20" s="119"/>
+      <c r="AT20" s="119"/>
+      <c r="AU20" s="119"/>
+      <c r="AV20" s="119"/>
+    </row>
+    <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B21" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="135" t="s">
+      <c r="D21" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="136" t="s">
+      <c r="E21" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="137"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="142"/>
-      <c r="S21" s="140"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
-      <c r="W21" s="142"/>
-      <c r="X21" s="140"/>
-      <c r="Y21" s="141"/>
-      <c r="Z21" s="141"/>
-      <c r="AA21" s="141"/>
-      <c r="AB21" s="142"/>
-      <c r="AC21" s="140"/>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="141"/>
-      <c r="AF21" s="141"/>
-      <c r="AG21" s="142"/>
-      <c r="AH21" s="140"/>
-      <c r="AI21" s="141"/>
-      <c r="AJ21" s="141"/>
-      <c r="AK21" s="141"/>
-      <c r="AL21" s="142"/>
-      <c r="AM21" s="140"/>
-      <c r="AN21" s="141"/>
-      <c r="AO21" s="141"/>
-      <c r="AP21" s="141"/>
-      <c r="AQ21" s="142"/>
-      <c r="AR21" s="140"/>
-      <c r="AS21" s="141"/>
-      <c r="AT21" s="141"/>
-      <c r="AU21" s="141"/>
-      <c r="AV21" s="142"/>
-    </row>
-    <row r="22" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146" t="s">
+      <c r="F21" s="181"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="123"/>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="123"/>
+      <c r="AE21" s="123"/>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="122"/>
+      <c r="AI21" s="123"/>
+      <c r="AJ21" s="123"/>
+      <c r="AK21" s="123"/>
+      <c r="AL21" s="124"/>
+      <c r="AM21" s="122"/>
+      <c r="AN21" s="123"/>
+      <c r="AO21" s="123"/>
+      <c r="AP21" s="123"/>
+      <c r="AQ21" s="124"/>
+      <c r="AR21" s="122"/>
+      <c r="AS21" s="123"/>
+      <c r="AT21" s="123"/>
+      <c r="AU21" s="123"/>
+      <c r="AV21" s="124"/>
+    </row>
+    <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B22" s="187"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="147" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="206"/>
-      <c r="J22" s="207"/>
-      <c r="K22" s="207" t="s">
+      <c r="H22" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="127"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="207"/>
-      <c r="M22" s="208"/>
-      <c r="N22" s="206"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="207" t="s">
+      <c r="L22" s="178"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="207"/>
-      <c r="R22" s="208"/>
-      <c r="S22" s="206"/>
-      <c r="T22" s="207"/>
-      <c r="U22" s="207" t="s">
+      <c r="Q22" s="178"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="178"/>
+      <c r="U22" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="V22" s="207"/>
-      <c r="W22" s="208"/>
-      <c r="X22" s="206"/>
-      <c r="Y22" s="207"/>
-      <c r="Z22" s="207" t="s">
+      <c r="V22" s="178"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="178"/>
+      <c r="Z22" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AA22" s="207"/>
-      <c r="AB22" s="208"/>
-      <c r="AC22" s="206"/>
-      <c r="AD22" s="207"/>
-      <c r="AE22" s="207" t="s">
+      <c r="AA22" s="178"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="178"/>
+      <c r="AE22" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="207"/>
-      <c r="AG22" s="208"/>
-      <c r="AH22" s="206"/>
-      <c r="AI22" s="207"/>
-      <c r="AJ22" s="207" t="s">
+      <c r="AF22" s="178"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="127"/>
+      <c r="AI22" s="178"/>
+      <c r="AJ22" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="AK22" s="207"/>
-      <c r="AL22" s="208"/>
-      <c r="AM22" s="206"/>
-      <c r="AN22" s="207"/>
-      <c r="AO22" s="207" t="s">
+      <c r="AK22" s="178"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="127"/>
+      <c r="AN22" s="178"/>
+      <c r="AO22" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="AP22" s="207"/>
-      <c r="AQ22" s="208"/>
-      <c r="AR22" s="206"/>
-      <c r="AS22" s="207"/>
-      <c r="AT22" s="207" t="s">
+      <c r="AP22" s="178"/>
+      <c r="AQ22" s="128"/>
+      <c r="AR22" s="127"/>
+      <c r="AS22" s="178"/>
+      <c r="AT22" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AU22" s="207"/>
-      <c r="AV22" s="208"/>
-    </row>
-    <row r="23" spans="1:249" s="60" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU22" s="178"/>
+      <c r="AV22" s="128"/>
+    </row>
+    <row r="23" spans="1:249" s="60" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="153">
+      <c r="B23" s="188"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="J23" s="153">
+      <c r="J23" s="131">
         <v>2</v>
       </c>
-      <c r="K23" s="153">
+      <c r="K23" s="131">
         <v>3</v>
       </c>
-      <c r="L23" s="153">
+      <c r="L23" s="131">
         <v>4</v>
       </c>
-      <c r="M23" s="154">
+      <c r="M23" s="132">
         <v>5</v>
       </c>
-      <c r="N23" s="153">
+      <c r="N23" s="131">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="153">
+      <c r="O23" s="131">
         <v>2</v>
       </c>
-      <c r="P23" s="153">
+      <c r="P23" s="131">
         <v>3</v>
       </c>
-      <c r="Q23" s="153">
+      <c r="Q23" s="131">
         <v>4</v>
       </c>
-      <c r="R23" s="154">
+      <c r="R23" s="132">
         <v>5</v>
       </c>
-      <c r="S23" s="153">
+      <c r="S23" s="131">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="T23" s="153">
+      <c r="T23" s="131">
         <v>2</v>
       </c>
-      <c r="U23" s="153">
+      <c r="U23" s="131">
         <v>3</v>
       </c>
-      <c r="V23" s="153">
+      <c r="V23" s="131">
         <v>4</v>
       </c>
-      <c r="W23" s="154">
+      <c r="W23" s="132">
         <v>5</v>
       </c>
-      <c r="X23" s="153">
+      <c r="X23" s="131">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="Y23" s="153">
+      <c r="Y23" s="131">
         <v>2</v>
       </c>
-      <c r="Z23" s="153">
+      <c r="Z23" s="131">
         <v>3</v>
       </c>
-      <c r="AA23" s="153">
+      <c r="AA23" s="131">
         <v>4</v>
       </c>
-      <c r="AB23" s="154">
+      <c r="AB23" s="132">
         <v>5</v>
       </c>
-      <c r="AC23" s="153">
+      <c r="AC23" s="131">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AD23" s="153">
+      <c r="AD23" s="131">
         <v>2</v>
       </c>
-      <c r="AE23" s="153">
+      <c r="AE23" s="131">
         <v>3</v>
       </c>
-      <c r="AF23" s="153">
+      <c r="AF23" s="131">
         <v>4</v>
       </c>
-      <c r="AG23" s="154">
+      <c r="AG23" s="132">
         <v>5</v>
       </c>
-      <c r="AH23" s="153">
+      <c r="AH23" s="131">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AI23" s="153">
+      <c r="AI23" s="131">
         <v>2</v>
       </c>
-      <c r="AJ23" s="153">
+      <c r="AJ23" s="131">
         <v>3</v>
       </c>
-      <c r="AK23" s="153">
+      <c r="AK23" s="131">
         <v>4</v>
       </c>
-      <c r="AL23" s="154">
+      <c r="AL23" s="132">
         <v>5</v>
       </c>
-      <c r="AM23" s="153">
+      <c r="AM23" s="131">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AN23" s="153">
+      <c r="AN23" s="131">
         <v>2</v>
       </c>
-      <c r="AO23" s="153">
+      <c r="AO23" s="131">
         <v>3</v>
       </c>
-      <c r="AP23" s="153">
+      <c r="AP23" s="131">
         <v>4</v>
       </c>
-      <c r="AQ23" s="154">
+      <c r="AQ23" s="132">
         <v>5</v>
       </c>
-      <c r="AR23" s="153">
+      <c r="AR23" s="131">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AS23" s="153">
+      <c r="AS23" s="131">
         <v>2</v>
       </c>
-      <c r="AT23" s="153">
+      <c r="AT23" s="131">
         <v>3</v>
       </c>
-      <c r="AU23" s="153">
+      <c r="AU23" s="131">
         <v>4</v>
       </c>
-      <c r="AV23" s="154">
+      <c r="AV23" s="132">
         <v>5</v>
       </c>
       <c r="AW23" s="1"/>
@@ -4987,242 +4994,242 @@
       <c r="IN23" s="1"/>
       <c r="IO23" s="1"/>
     </row>
-    <row r="24" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="155" t="s">
+    <row r="24" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B24" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="155" t="s">
+      <c r="C24" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="157" t="s">
+      <c r="E24" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="157"/>
-      <c r="G24" s="158">
+      <c r="F24" s="192"/>
+      <c r="G24" s="135">
         <v>1</v>
       </c>
-      <c r="H24" s="159" t="s">
+      <c r="H24" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="160"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="163"/>
-      <c r="AA24" s="163"/>
-      <c r="AB24" s="163"/>
-      <c r="AC24" s="163"/>
-      <c r="AD24" s="163"/>
-      <c r="AE24" s="163"/>
-      <c r="AF24" s="163"/>
-      <c r="AG24" s="163"/>
-      <c r="AH24" s="163"/>
-      <c r="AI24" s="163"/>
-      <c r="AJ24" s="163"/>
-      <c r="AK24" s="163"/>
-      <c r="AL24" s="163"/>
-      <c r="AM24" s="163"/>
-      <c r="AN24" s="163"/>
-      <c r="AO24" s="163"/>
-      <c r="AP24" s="163"/>
-      <c r="AQ24" s="163"/>
-      <c r="AR24" s="163"/>
-      <c r="AS24" s="163"/>
-      <c r="AT24" s="163"/>
-      <c r="AU24" s="163"/>
-      <c r="AV24" s="164"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="140"/>
+      <c r="V24" s="140"/>
+      <c r="W24" s="140"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="140"/>
+      <c r="Z24" s="140"/>
+      <c r="AA24" s="140"/>
+      <c r="AB24" s="140"/>
+      <c r="AC24" s="140"/>
+      <c r="AD24" s="140"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="140"/>
+      <c r="AG24" s="140"/>
+      <c r="AH24" s="140"/>
+      <c r="AI24" s="140"/>
+      <c r="AJ24" s="140"/>
+      <c r="AK24" s="140"/>
+      <c r="AL24" s="140"/>
+      <c r="AM24" s="140"/>
+      <c r="AN24" s="140"/>
+      <c r="AO24" s="140"/>
+      <c r="AP24" s="140"/>
+      <c r="AQ24" s="140"/>
+      <c r="AR24" s="140"/>
+      <c r="AS24" s="140"/>
+      <c r="AT24" s="140"/>
+      <c r="AU24" s="140"/>
+      <c r="AV24" s="141"/>
       <c r="AW24" s="72"/>
     </row>
-    <row r="25" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="155"/>
-      <c r="C25" s="155" t="s">
+    <row r="25" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B25" s="133"/>
+      <c r="C25" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="165" t="s">
+      <c r="D25" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="167">
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="143">
         <v>1</v>
       </c>
-      <c r="H25" s="168"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="170"/>
-      <c r="V25" s="170"/>
-      <c r="W25" s="170"/>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="170"/>
-      <c r="AC25" s="170"/>
-      <c r="AD25" s="170"/>
-      <c r="AE25" s="170"/>
-      <c r="AF25" s="170"/>
-      <c r="AG25" s="170"/>
-      <c r="AH25" s="170"/>
-      <c r="AI25" s="170"/>
-      <c r="AJ25" s="170"/>
-      <c r="AK25" s="170"/>
-      <c r="AL25" s="170"/>
-      <c r="AM25" s="170"/>
-      <c r="AN25" s="170"/>
-      <c r="AO25" s="170"/>
-      <c r="AP25" s="170"/>
-      <c r="AQ25" s="170"/>
-      <c r="AR25" s="170"/>
-      <c r="AS25" s="170"/>
-      <c r="AT25" s="170"/>
-      <c r="AU25" s="170"/>
-      <c r="AV25" s="172"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="146"/>
+      <c r="S25" s="146"/>
+      <c r="T25" s="146"/>
+      <c r="U25" s="146"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="146"/>
+      <c r="X25" s="146"/>
+      <c r="Y25" s="146"/>
+      <c r="Z25" s="146"/>
+      <c r="AA25" s="146"/>
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="146"/>
+      <c r="AD25" s="146"/>
+      <c r="AE25" s="146"/>
+      <c r="AF25" s="146"/>
+      <c r="AG25" s="146"/>
+      <c r="AH25" s="146"/>
+      <c r="AI25" s="146"/>
+      <c r="AJ25" s="146"/>
+      <c r="AK25" s="146"/>
+      <c r="AL25" s="146"/>
+      <c r="AM25" s="146"/>
+      <c r="AN25" s="146"/>
+      <c r="AO25" s="146"/>
+      <c r="AP25" s="146"/>
+      <c r="AQ25" s="146"/>
+      <c r="AR25" s="146"/>
+      <c r="AS25" s="146"/>
+      <c r="AT25" s="146"/>
+      <c r="AU25" s="146"/>
+      <c r="AV25" s="148"/>
       <c r="AW25" s="72"/>
     </row>
-    <row r="26" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="165" t="s">
+    <row r="26" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="167">
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="143">
         <v>1</v>
       </c>
-      <c r="H26" s="173" t="s">
+      <c r="H26" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="170"/>
-      <c r="AB26" s="170"/>
-      <c r="AC26" s="170"/>
-      <c r="AD26" s="170"/>
-      <c r="AE26" s="170"/>
-      <c r="AF26" s="170"/>
-      <c r="AG26" s="170"/>
-      <c r="AH26" s="170"/>
-      <c r="AI26" s="170"/>
-      <c r="AJ26" s="170"/>
-      <c r="AK26" s="170"/>
-      <c r="AL26" s="170"/>
-      <c r="AM26" s="170"/>
-      <c r="AN26" s="170"/>
-      <c r="AO26" s="170"/>
-      <c r="AP26" s="170"/>
-      <c r="AQ26" s="170"/>
-      <c r="AR26" s="170"/>
-      <c r="AS26" s="170"/>
-      <c r="AT26" s="170"/>
-      <c r="AU26" s="170"/>
-      <c r="AV26" s="172"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="146"/>
+      <c r="S26" s="146"/>
+      <c r="T26" s="146"/>
+      <c r="U26" s="146"/>
+      <c r="V26" s="146"/>
+      <c r="W26" s="146"/>
+      <c r="X26" s="146"/>
+      <c r="Y26" s="146"/>
+      <c r="Z26" s="146"/>
+      <c r="AA26" s="146"/>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="146"/>
+      <c r="AD26" s="146"/>
+      <c r="AE26" s="146"/>
+      <c r="AF26" s="146"/>
+      <c r="AG26" s="146"/>
+      <c r="AH26" s="146"/>
+      <c r="AI26" s="146"/>
+      <c r="AJ26" s="146"/>
+      <c r="AK26" s="146"/>
+      <c r="AL26" s="146"/>
+      <c r="AM26" s="146"/>
+      <c r="AN26" s="146"/>
+      <c r="AO26" s="146"/>
+      <c r="AP26" s="146"/>
+      <c r="AQ26" s="146"/>
+      <c r="AR26" s="146"/>
+      <c r="AS26" s="146"/>
+      <c r="AT26" s="146"/>
+      <c r="AU26" s="146"/>
+      <c r="AV26" s="148"/>
       <c r="AW26" s="72"/>
     </row>
-    <row r="27" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="165" t="s">
+    <row r="27" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="167">
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="143">
         <v>1</v>
       </c>
-      <c r="H27" s="168"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="178"/>
-      <c r="U27" s="170"/>
-      <c r="V27" s="170"/>
-      <c r="W27" s="170"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="170"/>
-      <c r="AB27" s="170"/>
-      <c r="AC27" s="170"/>
-      <c r="AD27" s="170"/>
-      <c r="AE27" s="170"/>
-      <c r="AF27" s="170"/>
-      <c r="AG27" s="170"/>
-      <c r="AH27" s="170"/>
-      <c r="AI27" s="170"/>
-      <c r="AJ27" s="170"/>
-      <c r="AK27" s="170"/>
-      <c r="AL27" s="170"/>
-      <c r="AM27" s="170"/>
-      <c r="AN27" s="170"/>
-      <c r="AO27" s="170"/>
-      <c r="AP27" s="170"/>
-      <c r="AQ27" s="170"/>
-      <c r="AR27" s="170"/>
-      <c r="AS27" s="170"/>
-      <c r="AT27" s="170"/>
-      <c r="AU27" s="170"/>
-      <c r="AV27" s="172"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="146"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="146"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="146"/>
+      <c r="AD27" s="146"/>
+      <c r="AE27" s="146"/>
+      <c r="AF27" s="146"/>
+      <c r="AG27" s="146"/>
+      <c r="AH27" s="146"/>
+      <c r="AI27" s="146"/>
+      <c r="AJ27" s="146"/>
+      <c r="AK27" s="146"/>
+      <c r="AL27" s="146"/>
+      <c r="AM27" s="146"/>
+      <c r="AN27" s="146"/>
+      <c r="AO27" s="146"/>
+      <c r="AP27" s="146"/>
+      <c r="AQ27" s="146"/>
+      <c r="AR27" s="146"/>
+      <c r="AS27" s="146"/>
+      <c r="AT27" s="146"/>
+      <c r="AU27" s="146"/>
+      <c r="AV27" s="148"/>
       <c r="AW27" s="72"/>
     </row>
-    <row r="28" spans="1:249" s="2" customFormat="1" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:249" s="2" customFormat="1" ht="0" hidden="1" customHeight="1">
       <c r="B28" s="19"/>
       <c r="C28" s="21"/>
       <c r="D28" s="45"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="159"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="136"/>
       <c r="I28" s="46"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -5265,7 +5272,7 @@
       <c r="AV28" s="63"/>
       <c r="AW28" s="72"/>
     </row>
-    <row r="29" spans="1:249" s="2" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="B29" s="19"/>
       <c r="C29" s="18" t="s">
         <v>89</v>
@@ -5273,14 +5280,14 @@
       <c r="D29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="182" t="s">
+      <c r="E29" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="182"/>
-      <c r="G29" s="183">
+      <c r="F29" s="194"/>
+      <c r="G29" s="159">
         <v>1</v>
       </c>
-      <c r="H29" s="159" t="s">
+      <c r="H29" s="136" t="s">
         <v>87</v>
       </c>
       <c r="I29" s="46"/>
@@ -5325,18 +5332,18 @@
       <c r="AV29" s="63"/>
       <c r="AW29" s="72"/>
     </row>
-    <row r="30" spans="1:249" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:249" ht="14.1" customHeight="1">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="183">
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="159">
         <v>1</v>
       </c>
-      <c r="H30" s="168"/>
+      <c r="H30" s="144"/>
       <c r="I30" s="46"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5430,16 +5437,16 @@
       <c r="CU30" s="2"/>
       <c r="CV30" s="2"/>
     </row>
-    <row r="31" spans="1:249" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:249" ht="14.1" customHeight="1">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="168"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="144"/>
       <c r="I31" s="46"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5533,16 +5540,16 @@
       <c r="CU31" s="2"/>
       <c r="CV31" s="2"/>
     </row>
-    <row r="32" spans="1:249" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:249" ht="14.1" customHeight="1">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="182"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="184"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="158"/>
       <c r="I32" s="46"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5636,16 +5643,16 @@
       <c r="CU32" s="2"/>
       <c r="CV32" s="2"/>
     </row>
-    <row r="33" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:100" ht="14.1" customHeight="1">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="184"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="158"/>
       <c r="I33" s="46"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -5739,7 +5746,7 @@
       <c r="CU33" s="2"/>
       <c r="CV33" s="2"/>
     </row>
-    <row r="34" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:100" ht="14.1" customHeight="1">
       <c r="B34" s="19"/>
       <c r="C34" s="18" t="s">
         <v>19</v>
@@ -5747,12 +5754,12 @@
       <c r="D34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="166" t="s">
+      <c r="E34" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="166"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="184"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="158"/>
       <c r="I34" s="46"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5846,16 +5853,16 @@
       <c r="CU34" s="2"/>
       <c r="CV34" s="2"/>
     </row>
-    <row r="35" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:100" ht="14.1" customHeight="1">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="184"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="158"/>
       <c r="I35" s="46"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5949,16 +5956,16 @@
       <c r="CU35" s="2"/>
       <c r="CV35" s="2"/>
     </row>
-    <row r="36" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:100" ht="14.1" customHeight="1">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="184"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="158"/>
       <c r="I36" s="46"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -6052,16 +6059,16 @@
       <c r="CU36" s="2"/>
       <c r="CV36" s="2"/>
     </row>
-    <row r="37" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:100" ht="14.1" customHeight="1">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="184"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="158"/>
       <c r="I37" s="46"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -6155,16 +6162,16 @@
       <c r="CU37" s="2"/>
       <c r="CV37" s="2"/>
     </row>
-    <row r="38" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:100" ht="14.1" customHeight="1">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="184"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="193"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="158"/>
       <c r="I38" s="46"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -6258,16 +6265,16 @@
       <c r="CU38" s="2"/>
       <c r="CV38" s="2"/>
     </row>
-    <row r="39" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="184"/>
+      <c r="E39" s="193"/>
+      <c r="F39" s="193"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="158"/>
       <c r="I39" s="46"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -6361,14 +6368,14 @@
       <c r="CU39" s="2"/>
       <c r="CV39" s="2"/>
     </row>
-    <row r="40" spans="2:100" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:100" ht="0" hidden="1" customHeight="1">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="179"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="184"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="158"/>
       <c r="I40" s="46"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -6462,7 +6469,7 @@
       <c r="CU40" s="2"/>
       <c r="CV40" s="2"/>
     </row>
-    <row r="41" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="B41" s="19"/>
       <c r="C41" s="29" t="s">
         <v>85</v>
@@ -6470,12 +6477,12 @@
       <c r="D41" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="182" t="s">
+      <c r="E41" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="182"/>
-      <c r="G41" s="181"/>
-      <c r="H41" s="184"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="158"/>
       <c r="I41" s="47"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -6517,16 +6524,16 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="65"/>
     </row>
-    <row r="42" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:100" ht="14.1" customHeight="1">
       <c r="B42" s="19"/>
       <c r="C42" s="30"/>
       <c r="D42" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="182"/>
-      <c r="F42" s="182"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="184"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="158"/>
       <c r="I42" s="47"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -6568,16 +6575,16 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="65"/>
     </row>
-    <row r="43" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:100" ht="14.1" customHeight="1">
       <c r="B43" s="19"/>
       <c r="C43" s="30"/>
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="181"/>
-      <c r="H43" s="184"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="158"/>
       <c r="I43" s="47"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -6619,16 +6626,16 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="65"/>
     </row>
-    <row r="44" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:100" ht="14.1" customHeight="1">
       <c r="B44" s="19"/>
       <c r="C44" s="30"/>
       <c r="D44" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="182"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="184"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="158"/>
       <c r="I44" s="47"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -6670,7 +6677,7 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="65"/>
     </row>
-    <row r="45" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:100" ht="14.1" customHeight="1">
       <c r="B45" s="19"/>
       <c r="C45" s="29" t="s">
         <v>92</v>
@@ -6678,12 +6685,12 @@
       <c r="D45" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="185" t="s">
+      <c r="E45" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="185"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="184"/>
+      <c r="F45" s="195"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="158"/>
       <c r="I45" s="47"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -6725,16 +6732,16 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="65"/>
     </row>
-    <row r="46" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:100" ht="14.1" customHeight="1">
       <c r="B46" s="19"/>
       <c r="C46" s="30"/>
       <c r="D46" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="181"/>
-      <c r="H46" s="184"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="158"/>
       <c r="I46" s="47"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -6776,16 +6783,16 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="65"/>
     </row>
-    <row r="47" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:100" ht="14.1" customHeight="1">
       <c r="B47" s="19"/>
       <c r="C47" s="30"/>
       <c r="D47" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="185"/>
-      <c r="F47" s="185"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="184"/>
+      <c r="E47" s="195"/>
+      <c r="F47" s="195"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="158"/>
       <c r="I47" s="54"/>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
@@ -6827,16 +6834,16 @@
       <c r="AU47" s="55"/>
       <c r="AV47" s="66"/>
     </row>
-    <row r="48" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:100" ht="14.1" customHeight="1">
       <c r="B48" s="19"/>
       <c r="C48" s="30"/>
       <c r="D48" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="185"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="181"/>
-      <c r="H48" s="184"/>
+      <c r="E48" s="195"/>
+      <c r="F48" s="195"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="158"/>
       <c r="I48" s="54"/>
       <c r="J48" s="55"/>
       <c r="K48" s="55"/>
@@ -6878,16 +6885,16 @@
       <c r="AU48" s="55"/>
       <c r="AV48" s="66"/>
     </row>
-    <row r="49" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:49" ht="14.1" customHeight="1">
       <c r="B49" s="19"/>
       <c r="C49" s="30"/>
       <c r="D49" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="185"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="184"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="158"/>
       <c r="I49" s="54"/>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
@@ -6929,7 +6936,7 @@
       <c r="AU49" s="109"/>
       <c r="AV49" s="110"/>
     </row>
-    <row r="50" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:49" ht="14.1" customHeight="1">
       <c r="B50" s="20"/>
       <c r="C50" s="56" t="s">
         <v>13</v>
@@ -6937,12 +6944,12 @@
       <c r="D50" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="186" t="s">
+      <c r="E50" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="186"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="184"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="158"/>
       <c r="I50" s="48"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -6984,55 +6991,55 @@
       <c r="AU50" s="6"/>
       <c r="AV50" s="67"/>
     </row>
-    <row r="51" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="187"/>
-      <c r="F51" s="187"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
+    <row r="51" spans="2:49" ht="14.1" customHeight="1">
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
       <c r="AW51" s="1"/>
     </row>
-    <row r="52" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="187"/>
-      <c r="F52" s="187"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
+    <row r="52" spans="2:49" ht="14.1" customHeight="1">
+      <c r="E52" s="160"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
       <c r="AW52" s="1"/>
     </row>
-    <row r="53" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="187"/>
-      <c r="F53" s="187"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
+    <row r="53" spans="2:49" ht="14.1" customHeight="1">
+      <c r="E53" s="160"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
       <c r="AW53" s="1"/>
     </row>
-    <row r="54" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="129" t="s">
+    <row r="54" spans="2:49" ht="14.1" customHeight="1">
+      <c r="B54" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="125"/>
+      <c r="C54" s="200"/>
       <c r="D54" s="82"/>
-      <c r="E54" s="187"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
       <c r="AW54" s="1"/>
     </row>
-    <row r="55" spans="2:49" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="126" t="s">
+    <row r="55" spans="2:49" ht="14.1" customHeight="1">
+      <c r="B55" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="126" t="s">
+      <c r="C55" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="126" t="s">
+      <c r="D55" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="136" t="s">
+      <c r="E55" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="137"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="139"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="121"/>
       <c r="I55" s="75"/>
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
@@ -7045,7 +7052,7 @@
       <c r="R55" s="76"/>
       <c r="S55" s="75"/>
       <c r="T55" s="74"/>
-      <c r="U55" s="130"/>
+      <c r="U55" s="117"/>
       <c r="V55" s="74"/>
       <c r="W55" s="76"/>
       <c r="X55" s="75"/>
@@ -7075,84 +7082,84 @@
       <c r="AV55" s="76"/>
       <c r="AW55" s="1"/>
     </row>
-    <row r="56" spans="2:49" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="146" t="s">
+    <row r="56" spans="2:49" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B56" s="197"/>
+      <c r="C56" s="197"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="182"/>
+      <c r="F56" s="183"/>
+      <c r="G56" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="H56" s="147" t="s">
-        <v>100</v>
+      <c r="H56" s="126" t="s">
+        <v>99</v>
       </c>
       <c r="I56" s="115"/>
-      <c r="J56" s="209"/>
-      <c r="K56" s="209" t="s">
+      <c r="J56" s="179"/>
+      <c r="K56" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="L56" s="209"/>
+      <c r="L56" s="179"/>
       <c r="M56" s="116"/>
-      <c r="N56" s="209"/>
-      <c r="O56" s="209"/>
-      <c r="P56" s="209" t="s">
+      <c r="N56" s="179"/>
+      <c r="O56" s="179"/>
+      <c r="P56" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="209"/>
+      <c r="Q56" s="179"/>
       <c r="R56" s="116"/>
-      <c r="S56" s="209"/>
-      <c r="T56" s="209"/>
-      <c r="U56" s="209" t="s">
+      <c r="S56" s="179"/>
+      <c r="T56" s="179"/>
+      <c r="U56" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="V56" s="209"/>
+      <c r="V56" s="179"/>
       <c r="W56" s="116"/>
-      <c r="X56" s="209"/>
-      <c r="Y56" s="209"/>
-      <c r="Z56" s="209" t="s">
+      <c r="X56" s="179"/>
+      <c r="Y56" s="179"/>
+      <c r="Z56" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="AA56" s="209"/>
+      <c r="AA56" s="179"/>
       <c r="AB56" s="116"/>
-      <c r="AC56" s="209"/>
-      <c r="AD56" s="209"/>
-      <c r="AE56" s="209" t="s">
+      <c r="AC56" s="179"/>
+      <c r="AD56" s="179"/>
+      <c r="AE56" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="AF56" s="209"/>
+      <c r="AF56" s="179"/>
       <c r="AG56" s="116"/>
-      <c r="AH56" s="209"/>
-      <c r="AI56" s="209"/>
-      <c r="AJ56" s="209" t="s">
+      <c r="AH56" s="179"/>
+      <c r="AI56" s="179"/>
+      <c r="AJ56" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="AK56" s="209"/>
+      <c r="AK56" s="179"/>
       <c r="AL56" s="116"/>
-      <c r="AM56" s="209"/>
-      <c r="AN56" s="209"/>
-      <c r="AO56" s="209" t="s">
+      <c r="AM56" s="179"/>
+      <c r="AN56" s="179"/>
+      <c r="AO56" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="AP56" s="209"/>
+      <c r="AP56" s="179"/>
       <c r="AQ56" s="116"/>
-      <c r="AR56" s="209"/>
-      <c r="AS56" s="209"/>
-      <c r="AT56" s="209" t="s">
+      <c r="AR56" s="179"/>
+      <c r="AS56" s="179"/>
+      <c r="AT56" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="AU56" s="209"/>
+      <c r="AU56" s="179"/>
       <c r="AV56" s="116"/>
       <c r="AW56" s="1"/>
     </row>
-    <row r="57" spans="2:49" ht="17.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="149"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="152"/>
+    <row r="57" spans="2:49" ht="17.25" thickBot="1">
+      <c r="B57" s="198"/>
+      <c r="C57" s="198"/>
+      <c r="D57" s="198"/>
+      <c r="E57" s="184"/>
+      <c r="F57" s="185"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="130"/>
       <c r="I57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
@@ -7283,7 +7290,7 @@
       </c>
       <c r="AW57" s="1"/>
     </row>
-    <row r="58" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:49">
       <c r="B58" s="22" t="s">
         <v>9</v>
       </c>
@@ -7293,14 +7300,14 @@
       <c r="D58" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="188" t="s">
+      <c r="E58" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="189"/>
-      <c r="G58" s="183">
+      <c r="F58" s="162"/>
+      <c r="G58" s="159">
         <v>1</v>
       </c>
-      <c r="H58" s="190" t="s">
+      <c r="H58" s="163" t="s">
         <v>20</v>
       </c>
       <c r="I58" s="87"/>
@@ -7344,19 +7351,19 @@
       <c r="AU58" s="9"/>
       <c r="AV58" s="68"/>
     </row>
-    <row r="59" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:49">
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
       <c r="D59" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="191"/>
-      <c r="F59" s="192"/>
-      <c r="G59" s="183">
+      <c r="E59" s="164"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="159">
         <v>0.8</v>
       </c>
-      <c r="H59" s="190" t="s">
-        <v>101</v>
+      <c r="H59" s="163" t="s">
+        <v>100</v>
       </c>
       <c r="I59" s="47"/>
       <c r="J59" s="3"/>
@@ -7399,18 +7406,18 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="65"/>
     </row>
-    <row r="60" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:49">
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
       <c r="D60" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="191"/>
-      <c r="F60" s="192"/>
-      <c r="G60" s="183">
+      <c r="E60" s="164"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="159">
         <v>0.4</v>
       </c>
-      <c r="H60" s="190" t="s">
+      <c r="H60" s="163" t="s">
         <v>21</v>
       </c>
       <c r="I60" s="47"/>
@@ -7454,19 +7461,19 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="65"/>
     </row>
-    <row r="61" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:49">
       <c r="B61" s="23"/>
       <c r="C61" s="24"/>
       <c r="D61" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="179"/>
-      <c r="F61" s="180"/>
-      <c r="G61" s="183">
-        <v>0.6</v>
-      </c>
-      <c r="H61" s="190" t="s">
-        <v>99</v>
+      <c r="E61" s="155"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="159">
+        <v>0.7</v>
+      </c>
+      <c r="H61" s="163" t="s">
+        <v>102</v>
       </c>
       <c r="I61" s="48"/>
       <c r="J61" s="6"/>
@@ -7475,7 +7482,7 @@
       <c r="M61" s="91"/>
       <c r="N61" s="91"/>
       <c r="O61" s="91"/>
-      <c r="P61" s="93"/>
+      <c r="P61" s="91"/>
       <c r="Q61" s="93"/>
       <c r="R61" s="96"/>
       <c r="S61" s="6"/>
@@ -7509,7 +7516,7 @@
       <c r="AU61" s="6"/>
       <c r="AV61" s="67"/>
     </row>
-    <row r="62" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:49">
       <c r="B62" s="23"/>
       <c r="C62" s="22" t="s">
         <v>40</v>
@@ -7517,12 +7524,16 @@
       <c r="D62" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="188" t="s">
+      <c r="E62" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="F62" s="189"/>
-      <c r="G62" s="184"/>
-      <c r="H62" s="190"/>
+      <c r="F62" s="162"/>
+      <c r="G62" s="159">
+        <v>0.5</v>
+      </c>
+      <c r="H62" s="163" t="s">
+        <v>101</v>
+      </c>
       <c r="I62" s="87"/>
       <c r="J62" s="50"/>
       <c r="K62" s="50"/>
@@ -7530,7 +7541,7 @@
       <c r="M62" s="50"/>
       <c r="N62" s="50"/>
       <c r="O62" s="50"/>
-      <c r="P62" s="50"/>
+      <c r="P62" s="210"/>
       <c r="Q62" s="50"/>
       <c r="R62" s="50"/>
       <c r="S62" s="97"/>
@@ -7564,16 +7575,16 @@
       <c r="AU62" s="50"/>
       <c r="AV62" s="69"/>
     </row>
-    <row r="63" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:49">
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="191"/>
-      <c r="F63" s="192"/>
-      <c r="G63" s="184"/>
-      <c r="H63" s="190"/>
+      <c r="E63" s="164"/>
+      <c r="F63" s="165"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="163"/>
       <c r="I63" s="47"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -7615,16 +7626,16 @@
       <c r="AU63" s="3"/>
       <c r="AV63" s="65"/>
     </row>
-    <row r="64" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:49">
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
       <c r="D64" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="191"/>
-      <c r="F64" s="187"/>
-      <c r="G64" s="184"/>
-      <c r="H64" s="190"/>
+      <c r="E64" s="164"/>
+      <c r="F64" s="160"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="163"/>
       <c r="I64" s="47"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -7666,16 +7677,16 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="65"/>
     </row>
-    <row r="65" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:49">
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
       <c r="D65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="179"/>
-      <c r="F65" s="180"/>
-      <c r="G65" s="184"/>
-      <c r="H65" s="190"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="163"/>
       <c r="I65" s="48"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -7717,7 +7728,7 @@
       <c r="AU65" s="6"/>
       <c r="AV65" s="67"/>
     </row>
-    <row r="66" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:49">
       <c r="B66" s="23"/>
       <c r="C66" s="22" t="s">
         <v>51</v>
@@ -7725,12 +7736,12 @@
       <c r="D66" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="188" t="s">
+      <c r="E66" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="189"/>
-      <c r="G66" s="184"/>
-      <c r="H66" s="190"/>
+      <c r="F66" s="162"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="163"/>
       <c r="I66" s="49"/>
       <c r="J66" s="50"/>
       <c r="K66" s="50"/>
@@ -7772,16 +7783,16 @@
       <c r="AU66" s="50"/>
       <c r="AV66" s="69"/>
     </row>
-    <row r="67" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:49">
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
       <c r="D67" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="191"/>
-      <c r="F67" s="192"/>
-      <c r="G67" s="184"/>
-      <c r="H67" s="190"/>
+      <c r="E67" s="164"/>
+      <c r="F67" s="165"/>
+      <c r="G67" s="158"/>
+      <c r="H67" s="163"/>
       <c r="I67" s="47"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -7823,14 +7834,14 @@
       <c r="AU67" s="3"/>
       <c r="AV67" s="65"/>
     </row>
-    <row r="68" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:49">
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="191"/>
-      <c r="F68" s="192"/>
-      <c r="G68" s="184"/>
-      <c r="H68" s="190"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="163"/>
       <c r="I68" s="47"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -7872,14 +7883,14 @@
       <c r="AU68" s="3"/>
       <c r="AV68" s="65"/>
     </row>
-    <row r="69" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:49">
       <c r="B69" s="23"/>
       <c r="C69" s="24"/>
       <c r="D69" s="35"/>
-      <c r="E69" s="179"/>
-      <c r="F69" s="180"/>
-      <c r="G69" s="184"/>
-      <c r="H69" s="190"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="163"/>
       <c r="I69" s="48"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -7921,7 +7932,7 @@
       <c r="AU69" s="6"/>
       <c r="AV69" s="67"/>
     </row>
-    <row r="70" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:49">
       <c r="B70" s="23"/>
       <c r="C70" s="22" t="s">
         <v>96</v>
@@ -7929,12 +7940,12 @@
       <c r="D70" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="188" t="s">
+      <c r="E70" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="189"/>
-      <c r="G70" s="184"/>
-      <c r="H70" s="190"/>
+      <c r="F70" s="162"/>
+      <c r="G70" s="158"/>
+      <c r="H70" s="163"/>
       <c r="I70" s="49"/>
       <c r="J70" s="50"/>
       <c r="K70" s="50"/>
@@ -7976,18 +7987,18 @@
       <c r="AU70" s="50"/>
       <c r="AV70" s="69"/>
     </row>
-    <row r="71" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:49">
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
       <c r="D71" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="191"/>
-      <c r="F71" s="192"/>
-      <c r="G71" s="183">
+      <c r="E71" s="164"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="159">
         <v>1</v>
       </c>
-      <c r="H71" s="190" t="s">
+      <c r="H71" s="163" t="s">
         <v>15</v>
       </c>
       <c r="I71" s="47"/>
@@ -8031,7 +8042,7 @@
       <c r="AU71" s="3"/>
       <c r="AV71" s="65"/>
     </row>
-    <row r="72" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:49">
       <c r="B72" s="23"/>
       <c r="C72" s="22" t="s">
         <v>80</v>
@@ -8039,12 +8050,12 @@
       <c r="D72" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="188" t="s">
+      <c r="E72" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="189"/>
-      <c r="G72" s="184"/>
-      <c r="H72" s="190"/>
+      <c r="F72" s="162"/>
+      <c r="G72" s="158"/>
+      <c r="H72" s="163"/>
       <c r="I72" s="47"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -8086,16 +8097,16 @@
       <c r="AU72" s="3"/>
       <c r="AV72" s="65"/>
     </row>
-    <row r="73" spans="2:49" ht="16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:49">
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="179"/>
-      <c r="F73" s="180"/>
-      <c r="G73" s="184"/>
-      <c r="H73" s="181"/>
+      <c r="E73" s="155"/>
+      <c r="F73" s="156"/>
+      <c r="G73" s="158"/>
+      <c r="H73" s="157"/>
       <c r="I73" s="48"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -8137,138 +8148,122 @@
       <c r="AU73" s="6"/>
       <c r="AV73" s="67"/>
     </row>
-    <row r="74" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:49">
       <c r="AW74" s="1"/>
     </row>
-    <row r="75" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:49">
       <c r="AW75" s="1"/>
     </row>
-    <row r="76" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:49">
       <c r="AW76" s="1"/>
     </row>
-    <row r="77" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:49">
       <c r="AW77" s="1"/>
     </row>
-    <row r="78" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:49">
       <c r="AW78" s="1"/>
     </row>
-    <row r="79" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:49">
       <c r="AW79" s="1"/>
     </row>
-    <row r="80" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:49">
       <c r="AW80" s="1"/>
     </row>
-    <row r="81" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="81" spans="49:49">
       <c r="AW81" s="1"/>
     </row>
-    <row r="82" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="82" spans="49:49">
       <c r="AW82" s="1"/>
     </row>
-    <row r="83" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="83" spans="49:49">
       <c r="AW83" s="1"/>
     </row>
-    <row r="84" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="84" spans="49:49">
       <c r="AW84" s="1"/>
     </row>
-    <row r="85" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="85" spans="49:49">
       <c r="AW85" s="1"/>
     </row>
-    <row r="86" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="86" spans="49:49">
       <c r="AW86" s="1"/>
     </row>
-    <row r="87" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="87" spans="49:49">
       <c r="AW87" s="1"/>
     </row>
-    <row r="88" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="88" spans="49:49">
       <c r="AW88" s="1"/>
     </row>
-    <row r="89" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="89" spans="49:49">
       <c r="AW89" s="1"/>
     </row>
-    <row r="90" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="90" spans="49:49">
       <c r="AW90" s="1"/>
     </row>
-    <row r="91" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="91" spans="49:49">
       <c r="AW91" s="1"/>
     </row>
-    <row r="92" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="92" spans="49:49">
       <c r="AW92" s="1"/>
     </row>
-    <row r="93" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="93" spans="49:49">
       <c r="AW93" s="1"/>
     </row>
-    <row r="94" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="94" spans="49:49">
       <c r="AW94" s="1"/>
     </row>
-    <row r="95" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="95" spans="49:49">
       <c r="AW95" s="1"/>
     </row>
-    <row r="96" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="96" spans="49:49">
       <c r="AW96" s="1"/>
     </row>
-    <row r="97" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="97" spans="49:49">
       <c r="AW97" s="1"/>
     </row>
-    <row r="98" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="98" spans="49:49">
       <c r="AW98" s="1"/>
     </row>
-    <row r="99" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="99" spans="49:49">
       <c r="AW99" s="1"/>
     </row>
-    <row r="100" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="100" spans="49:49">
       <c r="AW100" s="1"/>
     </row>
-    <row r="101" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="101" spans="49:49">
       <c r="AW101" s="1"/>
     </row>
-    <row r="102" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="102" spans="49:49">
       <c r="AW102" s="1"/>
     </row>
-    <row r="103" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="103" spans="49:49">
       <c r="AW103" s="1"/>
     </row>
-    <row r="104" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="104" spans="49:49">
       <c r="AW104" s="1"/>
     </row>
-    <row r="105" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="105" spans="49:49">
       <c r="AW105" s="1"/>
     </row>
-    <row r="106" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="106" spans="49:49">
       <c r="AW106" s="1"/>
     </row>
-    <row r="107" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="107" spans="49:49">
       <c r="AW107" s="1"/>
     </row>
-    <row r="108" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="108" spans="49:49">
       <c r="AW108" s="1"/>
     </row>
-    <row r="109" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="109" spans="49:49">
       <c r="AW109" s="1"/>
     </row>
-    <row r="110" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="110" spans="49:49">
       <c r="AW110" s="1"/>
     </row>
-    <row r="111" spans="49:49" x14ac:dyDescent="0.25">
+    <row r="111" spans="49:49">
       <c r="AW111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E24:F27"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="E34:F39"/>
-    <mergeCell ref="E41:F44"/>
-    <mergeCell ref="E45:F49"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B3:AZ3"/>
     <mergeCell ref="B2:AZ2"/>
     <mergeCell ref="E5:F8"/>
@@ -8277,6 +8272,22 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E24:F27"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="E34:F39"/>
+    <mergeCell ref="E41:F44"/>
+    <mergeCell ref="E45:F49"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH.S.D\Desktop\졸작\졸작\Avoid-The-Boss\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\OneDrive\Desktop\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F84FD39-D523-4459-81C6-18EF59FA4C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EC912F-5C10-49BF-8E45-1D11DBB83BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1795,7 +1795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2336,6 +2336,48 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2354,19 +2396,7 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2384,49 +2414,22 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3541,8 +3544,8 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -3567,136 +3570,136 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="201"/>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
-      <c r="AP2" s="201"/>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="201"/>
-      <c r="AS2" s="201"/>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="201"/>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="181"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="181"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="181"/>
+      <c r="AM2" s="181"/>
+      <c r="AN2" s="181"/>
+      <c r="AO2" s="181"/>
+      <c r="AP2" s="181"/>
+      <c r="AQ2" s="181"/>
+      <c r="AR2" s="181"/>
+      <c r="AS2" s="181"/>
+      <c r="AT2" s="181"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="181"/>
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="181"/>
     </row>
     <row r="3" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="201"/>
-      <c r="Z3" s="201"/>
-      <c r="AA3" s="201"/>
-      <c r="AB3" s="201"/>
-      <c r="AC3" s="201"/>
-      <c r="AD3" s="201"/>
-      <c r="AE3" s="201"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="201"/>
-      <c r="AH3" s="201"/>
-      <c r="AI3" s="201"/>
-      <c r="AJ3" s="201"/>
-      <c r="AK3" s="201"/>
-      <c r="AL3" s="201"/>
-      <c r="AM3" s="201"/>
-      <c r="AN3" s="201"/>
-      <c r="AO3" s="201"/>
-      <c r="AP3" s="201"/>
-      <c r="AQ3" s="201"/>
-      <c r="AR3" s="201"/>
-      <c r="AS3" s="201"/>
-      <c r="AT3" s="201"/>
-      <c r="AU3" s="201"/>
-      <c r="AV3" s="201"/>
-      <c r="AW3" s="201"/>
-      <c r="AX3" s="201"/>
-      <c r="AY3" s="201"/>
-      <c r="AZ3" s="201"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="181"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="181"/>
+      <c r="AJ3" s="181"/>
+      <c r="AK3" s="181"/>
+      <c r="AL3" s="181"/>
+      <c r="AM3" s="181"/>
+      <c r="AN3" s="181"/>
+      <c r="AO3" s="181"/>
+      <c r="AP3" s="181"/>
+      <c r="AQ3" s="181"/>
+      <c r="AR3" s="181"/>
+      <c r="AS3" s="181"/>
+      <c r="AT3" s="181"/>
+      <c r="AU3" s="181"/>
+      <c r="AV3" s="181"/>
+      <c r="AW3" s="181"/>
+      <c r="AX3" s="181"/>
+      <c r="AY3" s="181"/>
+      <c r="AZ3" s="181"/>
     </row>
     <row r="4" spans="2:100" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="190"/>
       <c r="D4" s="82"/>
       <c r="AW4" s="1"/>
       <c r="AZ4" s="77"/>
     </row>
     <row r="5" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="196" t="s">
+      <c r="C5" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="196" t="s">
+      <c r="D5" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="202" t="s">
+      <c r="E5" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="203"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="40"/>
       <c r="H5" s="37"/>
       <c r="I5" s="75"/>
@@ -3741,11 +3744,11 @@
       <c r="AV5" s="76"/>
     </row>
     <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B6" s="197"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="205"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="185"/>
       <c r="G6" s="41" t="s">
         <v>95</v>
       </c>
@@ -3811,11 +3814,11 @@
       <c r="AW6" s="72"/>
     </row>
     <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
       <c r="G7" s="41"/>
       <c r="H7" s="38"/>
       <c r="I7" s="79">
@@ -3949,11 +3952,11 @@
       <c r="AW7" s="72"/>
     </row>
     <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1">
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="187"/>
       <c r="G8" s="42"/>
       <c r="H8" s="39"/>
       <c r="I8" s="79"/>
@@ -4026,7 +4029,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="105"/>
       <c r="O9" s="113"/>
-      <c r="P9" s="104"/>
+      <c r="P9" s="211"/>
       <c r="Q9" s="25"/>
       <c r="R9" s="104"/>
       <c r="S9" s="25"/>
@@ -4302,10 +4305,10 @@
       <c r="D14" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="188" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="208"/>
+      <c r="F14" s="188"/>
       <c r="G14" s="168">
         <v>1</v>
       </c>
@@ -4479,10 +4482,10 @@
     </row>
     <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B20" s="189" t="s">
+      <c r="B20" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="190"/>
+      <c r="C20" s="210"/>
       <c r="D20" s="118"/>
       <c r="E20" s="119"/>
       <c r="F20" s="119"/>
@@ -4530,19 +4533,19 @@
       <c r="AV20" s="119"/>
     </row>
     <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="186" t="s">
+      <c r="C21" s="206" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="186" t="s">
+      <c r="D21" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="180" t="s">
+      <c r="E21" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="181"/>
+      <c r="F21" s="195"/>
       <c r="G21" s="120"/>
       <c r="H21" s="121"/>
       <c r="I21" s="122"/>
@@ -4587,11 +4590,11 @@
       <c r="AV21" s="124"/>
     </row>
     <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="183"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="125" t="s">
         <v>95</v>
       </c>
@@ -4657,11 +4660,11 @@
     </row>
     <row r="23" spans="1:249" s="60" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="185"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="129"/>
       <c r="H23" s="130"/>
       <c r="I23" s="131">
@@ -5004,10 +5007,10 @@
       <c r="D24" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="192" t="s">
+      <c r="E24" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="192"/>
+      <c r="F24" s="202"/>
       <c r="G24" s="135">
         <v>1</v>
       </c>
@@ -5064,8 +5067,8 @@
       <c r="D25" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
       <c r="G25" s="143">
         <v>1</v>
       </c>
@@ -5118,8 +5121,8 @@
       <c r="D26" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
       <c r="G26" s="143">
         <v>1</v>
       </c>
@@ -5174,8 +5177,8 @@
       <c r="D27" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
       <c r="G27" s="143">
         <v>1</v>
       </c>
@@ -5280,10 +5283,10 @@
       <c r="D29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="194" t="s">
+      <c r="E29" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="194"/>
+      <c r="F29" s="204"/>
       <c r="G29" s="159">
         <v>1</v>
       </c>
@@ -5338,8 +5341,8 @@
       <c r="D30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
       <c r="G30" s="159">
         <v>1</v>
       </c>
@@ -5443,8 +5446,8 @@
       <c r="D31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
       <c r="G31" s="157"/>
       <c r="H31" s="144"/>
       <c r="I31" s="46"/>
@@ -5546,8 +5549,8 @@
       <c r="D32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
       <c r="G32" s="157"/>
       <c r="H32" s="158"/>
       <c r="I32" s="46"/>
@@ -5649,8 +5652,8 @@
       <c r="D33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
       <c r="G33" s="157"/>
       <c r="H33" s="158"/>
       <c r="I33" s="46"/>
@@ -5754,10 +5757,10 @@
       <c r="D34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="193" t="s">
+      <c r="E34" s="203" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="193"/>
+      <c r="F34" s="203"/>
       <c r="G34" s="157"/>
       <c r="H34" s="158"/>
       <c r="I34" s="46"/>
@@ -5859,8 +5862,8 @@
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
       <c r="G35" s="157"/>
       <c r="H35" s="158"/>
       <c r="I35" s="46"/>
@@ -5962,8 +5965,8 @@
       <c r="D36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
       <c r="G36" s="157"/>
       <c r="H36" s="158"/>
       <c r="I36" s="46"/>
@@ -6065,8 +6068,8 @@
       <c r="D37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
       <c r="G37" s="157"/>
       <c r="H37" s="158"/>
       <c r="I37" s="46"/>
@@ -6168,8 +6171,8 @@
       <c r="D38" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="203"/>
       <c r="G38" s="157"/>
       <c r="H38" s="158"/>
       <c r="I38" s="46"/>
@@ -6271,8 +6274,8 @@
       <c r="D39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="193"/>
-      <c r="F39" s="193"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="203"/>
       <c r="G39" s="157"/>
       <c r="H39" s="158"/>
       <c r="I39" s="46"/>
@@ -6477,10 +6480,10 @@
       <c r="D41" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="194" t="s">
+      <c r="E41" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="194"/>
+      <c r="F41" s="204"/>
       <c r="G41" s="157"/>
       <c r="H41" s="158"/>
       <c r="I41" s="47"/>
@@ -6530,8 +6533,8 @@
       <c r="D42" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
       <c r="G42" s="157"/>
       <c r="H42" s="158"/>
       <c r="I42" s="47"/>
@@ -6581,8 +6584,8 @@
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
       <c r="G43" s="157"/>
       <c r="H43" s="158"/>
       <c r="I43" s="47"/>
@@ -6632,8 +6635,8 @@
       <c r="D44" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
+      <c r="E44" s="204"/>
+      <c r="F44" s="204"/>
       <c r="G44" s="157"/>
       <c r="H44" s="158"/>
       <c r="I44" s="47"/>
@@ -6685,10 +6688,10 @@
       <c r="D45" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="195" t="s">
+      <c r="E45" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="195"/>
+      <c r="F45" s="205"/>
       <c r="G45" s="157"/>
       <c r="H45" s="158"/>
       <c r="I45" s="47"/>
@@ -6738,8 +6741,8 @@
       <c r="D46" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
       <c r="G46" s="157"/>
       <c r="H46" s="158"/>
       <c r="I46" s="47"/>
@@ -6789,8 +6792,8 @@
       <c r="D47" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="195"/>
-      <c r="F47" s="195"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
       <c r="G47" s="157"/>
       <c r="H47" s="158"/>
       <c r="I47" s="54"/>
@@ -6840,8 +6843,8 @@
       <c r="D48" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="195"/>
-      <c r="F48" s="195"/>
+      <c r="E48" s="205"/>
+      <c r="F48" s="205"/>
       <c r="G48" s="157"/>
       <c r="H48" s="158"/>
       <c r="I48" s="54"/>
@@ -6891,8 +6894,8 @@
       <c r="D49" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="195"/>
-      <c r="F49" s="195"/>
+      <c r="E49" s="205"/>
+      <c r="F49" s="205"/>
       <c r="G49" s="157"/>
       <c r="H49" s="158"/>
       <c r="I49" s="54"/>
@@ -6944,10 +6947,10 @@
       <c r="D50" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="191" t="s">
+      <c r="E50" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="191"/>
+      <c r="F50" s="201"/>
       <c r="G50" s="157"/>
       <c r="H50" s="158"/>
       <c r="I50" s="48"/>
@@ -7013,10 +7016,10 @@
       <c r="AW53" s="1"/>
     </row>
     <row r="54" spans="2:49" ht="14.1" customHeight="1">
-      <c r="B54" s="199" t="s">
+      <c r="B54" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="200"/>
+      <c r="C54" s="190"/>
       <c r="D54" s="82"/>
       <c r="E54" s="160"/>
       <c r="F54" s="160"/>
@@ -7025,19 +7028,19 @@
       <c r="AW54" s="1"/>
     </row>
     <row r="55" spans="2:49" ht="14.1" customHeight="1">
-      <c r="B55" s="196" t="s">
+      <c r="B55" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="196" t="s">
+      <c r="C55" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="196" t="s">
+      <c r="D55" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="180" t="s">
+      <c r="E55" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="181"/>
+      <c r="F55" s="195"/>
       <c r="G55" s="120"/>
       <c r="H55" s="121"/>
       <c r="I55" s="75"/>
@@ -7083,11 +7086,11 @@
       <c r="AW55" s="1"/>
     </row>
     <row r="56" spans="2:49" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B56" s="197"/>
-      <c r="C56" s="197"/>
-      <c r="D56" s="197"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="183"/>
+      <c r="B56" s="192"/>
+      <c r="C56" s="192"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="196"/>
+      <c r="F56" s="197"/>
       <c r="G56" s="125" t="s">
         <v>95</v>
       </c>
@@ -7153,11 +7156,11 @@
       <c r="AW56" s="1"/>
     </row>
     <row r="57" spans="2:49" ht="17.25" thickBot="1">
-      <c r="B57" s="198"/>
-      <c r="C57" s="198"/>
-      <c r="D57" s="198"/>
-      <c r="E57" s="184"/>
-      <c r="F57" s="185"/>
+      <c r="B57" s="193"/>
+      <c r="C57" s="193"/>
+      <c r="D57" s="193"/>
+      <c r="E57" s="198"/>
+      <c r="F57" s="199"/>
       <c r="G57" s="129"/>
       <c r="H57" s="130"/>
       <c r="I57" s="79">
@@ -7541,7 +7544,7 @@
       <c r="M62" s="50"/>
       <c r="N62" s="50"/>
       <c r="O62" s="50"/>
-      <c r="P62" s="210"/>
+      <c r="P62" s="180"/>
       <c r="Q62" s="50"/>
       <c r="R62" s="50"/>
       <c r="S62" s="97"/>
@@ -8264,6 +8267,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E24:F27"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="E34:F39"/>
+    <mergeCell ref="E41:F44"/>
+    <mergeCell ref="E45:F49"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B3:AZ3"/>
     <mergeCell ref="B2:AZ2"/>
     <mergeCell ref="E5:F8"/>
@@ -8272,22 +8291,6 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E24:F27"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="E34:F39"/>
-    <mergeCell ref="E41:F44"/>
-    <mergeCell ref="E45:F49"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\OneDrive\Desktop\Avoid-The-Boss\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH.S.D\Desktop\졸작\졸작\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EC912F-5C10-49BF-8E45-1D11DBB83BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F0EE0-509E-479F-988C-2A98172AE689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>4시간</t>
   </si>
   <si>
-    <t>2시간</t>
-  </si>
-  <si>
     <t>4월</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>기본적인 클라 - 서버 접속 종료 구현(5)</t>
   </si>
   <si>
-    <t>클라이언트 프레임워크 분석 및 로그인 적용(15)</t>
-  </si>
-  <si>
     <t>캐릭터 로직 처리 - 카메라 시점, 이동(20)</t>
   </si>
   <si>
@@ -342,11 +336,19 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>10시간</t>
+    <t>42시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>42시간</t>
+    <t>15시간</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시간</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 프레임워크 분석 및 로그인 적용(15)</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2339,6 +2341,72 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2365,72 +2433,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -2536,15 +2538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>53974</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>34924</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13849</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>232924</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3176</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2559,7 +2561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10655299" y="400051"/>
+          <a:off x="10636249" y="695326"/>
           <a:ext cx="198000" cy="12690475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3544,8 +3546,8 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V76" sqref="V76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -3570,136 +3572,136 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B2" s="181" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="181"/>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="181"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="181"/>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="181"/>
-      <c r="AP2" s="181"/>
-      <c r="AQ2" s="181"/>
-      <c r="AR2" s="181"/>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="181"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="181"/>
+      <c r="B2" s="203" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="203"/>
+      <c r="AJ2" s="203"/>
+      <c r="AK2" s="203"/>
+      <c r="AL2" s="203"/>
+      <c r="AM2" s="203"/>
+      <c r="AN2" s="203"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="203"/>
+      <c r="AQ2" s="203"/>
+      <c r="AR2" s="203"/>
+      <c r="AS2" s="203"/>
+      <c r="AT2" s="203"/>
+      <c r="AU2" s="203"/>
+      <c r="AV2" s="203"/>
+      <c r="AW2" s="203"/>
+      <c r="AX2" s="203"/>
+      <c r="AY2" s="203"/>
+      <c r="AZ2" s="203"/>
     </row>
     <row r="3" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="181"/>
-      <c r="AJ3" s="181"/>
-      <c r="AK3" s="181"/>
-      <c r="AL3" s="181"/>
-      <c r="AM3" s="181"/>
-      <c r="AN3" s="181"/>
-      <c r="AO3" s="181"/>
-      <c r="AP3" s="181"/>
-      <c r="AQ3" s="181"/>
-      <c r="AR3" s="181"/>
-      <c r="AS3" s="181"/>
-      <c r="AT3" s="181"/>
-      <c r="AU3" s="181"/>
-      <c r="AV3" s="181"/>
-      <c r="AW3" s="181"/>
-      <c r="AX3" s="181"/>
-      <c r="AY3" s="181"/>
-      <c r="AZ3" s="181"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="203"/>
+      <c r="AI3" s="203"/>
+      <c r="AJ3" s="203"/>
+      <c r="AK3" s="203"/>
+      <c r="AL3" s="203"/>
+      <c r="AM3" s="203"/>
+      <c r="AN3" s="203"/>
+      <c r="AO3" s="203"/>
+      <c r="AP3" s="203"/>
+      <c r="AQ3" s="203"/>
+      <c r="AR3" s="203"/>
+      <c r="AS3" s="203"/>
+      <c r="AT3" s="203"/>
+      <c r="AU3" s="203"/>
+      <c r="AV3" s="203"/>
+      <c r="AW3" s="203"/>
+      <c r="AX3" s="203"/>
+      <c r="AY3" s="203"/>
+      <c r="AZ3" s="203"/>
     </row>
     <row r="4" spans="2:100" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B4" s="189" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="190"/>
+      <c r="B4" s="211" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="202"/>
       <c r="D4" s="82"/>
       <c r="AW4" s="1"/>
       <c r="AZ4" s="77"/>
     </row>
     <row r="5" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="191" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="182" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="183"/>
+      <c r="C5" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="198" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="204" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="205"/>
       <c r="G5" s="40"/>
       <c r="H5" s="37"/>
       <c r="I5" s="75"/>
@@ -3744,28 +3746,28 @@
       <c r="AV5" s="76"/>
     </row>
     <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="185"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="207"/>
       <c r="G6" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6" s="114" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I6" s="115"/>
       <c r="J6" s="179"/>
       <c r="K6" s="179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="179"/>
       <c r="M6" s="116"/>
       <c r="N6" s="115"/>
       <c r="O6" s="179"/>
       <c r="P6" s="179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="179"/>
       <c r="R6" s="116"/>
@@ -3779,7 +3781,7 @@
       <c r="X6" s="115"/>
       <c r="Y6" s="179"/>
       <c r="Z6" s="179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA6" s="179"/>
       <c r="AB6" s="116"/>
@@ -3800,7 +3802,7 @@
       <c r="AM6" s="115"/>
       <c r="AN6" s="179"/>
       <c r="AO6" s="179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP6" s="179"/>
       <c r="AQ6" s="116"/>
@@ -3814,11 +3816,11 @@
       <c r="AW6" s="72"/>
     </row>
     <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
       <c r="G7" s="41"/>
       <c r="H7" s="38"/>
       <c r="I7" s="79">
@@ -3952,11 +3954,11 @@
       <c r="AW7" s="72"/>
     </row>
     <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1">
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="187"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="209"/>
       <c r="G8" s="42"/>
       <c r="H8" s="39"/>
       <c r="I8" s="79"/>
@@ -4006,13 +4008,13 @@
     </row>
     <row r="9" spans="2:100" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B9" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="166"/>
       <c r="F9" s="167"/>
@@ -4029,7 +4031,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="105"/>
       <c r="O9" s="113"/>
-      <c r="P9" s="211"/>
+      <c r="P9" s="181"/>
       <c r="Q9" s="25"/>
       <c r="R9" s="104"/>
       <c r="S9" s="25"/>
@@ -4070,11 +4072,11 @@
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="170"/>
       <c r="F10" s="171" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G10" s="172"/>
       <c r="H10" s="169"/>
@@ -4129,7 +4131,7 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="170"/>
       <c r="F11" s="173"/>
@@ -4183,7 +4185,7 @@
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="174"/>
       <c r="F12" s="175"/>
@@ -4244,7 +4246,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="166"/>
       <c r="F13" s="167"/>
@@ -4303,12 +4305,12 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="188" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="188"/>
+      <c r="F14" s="210"/>
       <c r="G14" s="168">
         <v>1</v>
       </c>
@@ -4363,7 +4365,7 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="170"/>
       <c r="F15" s="171"/>
@@ -4421,7 +4423,7 @@
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="174"/>
       <c r="F16" s="175"/>
@@ -4482,10 +4484,10 @@
     </row>
     <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="210"/>
+      <c r="C20" s="192"/>
       <c r="D20" s="118"/>
       <c r="E20" s="119"/>
       <c r="F20" s="119"/>
@@ -4533,19 +4535,19 @@
       <c r="AV20" s="119"/>
     </row>
     <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B21" s="206" t="s">
+      <c r="B21" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="206" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="206" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="194" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="195"/>
+      <c r="C21" s="188" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="188" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="182" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="183"/>
       <c r="G21" s="120"/>
       <c r="H21" s="121"/>
       <c r="I21" s="122"/>
@@ -4590,28 +4592,28 @@
       <c r="AV21" s="124"/>
     </row>
     <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B22" s="207"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
       <c r="G22" s="125" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H22" s="126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I22" s="127"/>
       <c r="J22" s="178"/>
       <c r="K22" s="178" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L22" s="178"/>
       <c r="M22" s="128"/>
       <c r="N22" s="127"/>
       <c r="O22" s="178"/>
       <c r="P22" s="178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="178"/>
       <c r="R22" s="128"/>
@@ -4625,7 +4627,7 @@
       <c r="X22" s="127"/>
       <c r="Y22" s="178"/>
       <c r="Z22" s="178" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA22" s="178"/>
       <c r="AB22" s="128"/>
@@ -4646,7 +4648,7 @@
       <c r="AM22" s="127"/>
       <c r="AN22" s="178"/>
       <c r="AO22" s="178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP22" s="178"/>
       <c r="AQ22" s="128"/>
@@ -4660,11 +4662,11 @@
     </row>
     <row r="23" spans="1:249" s="60" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="187"/>
       <c r="G23" s="129"/>
       <c r="H23" s="130"/>
       <c r="I23" s="131">
@@ -4999,23 +5001,23 @@
     </row>
     <row r="24" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B24" s="133" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="134" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="202" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="202"/>
+        <v>54</v>
+      </c>
+      <c r="E24" s="194" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="194"/>
       <c r="G24" s="135">
         <v>1</v>
       </c>
       <c r="H24" s="136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="137"/>
       <c r="J24" s="138"/>
@@ -5062,13 +5064,13 @@
     <row r="25" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
       <c r="B25" s="133"/>
       <c r="C25" s="133" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
+        <v>47</v>
+      </c>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
       <c r="G25" s="143">
         <v>1</v>
       </c>
@@ -5119,15 +5121,15 @@
       <c r="B26" s="133"/>
       <c r="C26" s="133"/>
       <c r="D26" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
+        <v>72</v>
+      </c>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
       <c r="G26" s="143">
         <v>1</v>
       </c>
       <c r="H26" s="149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="150"/>
       <c r="J26" s="151"/>
@@ -5175,10 +5177,10 @@
       <c r="B27" s="133"/>
       <c r="C27" s="133"/>
       <c r="D27" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
+        <v>33</v>
+      </c>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
       <c r="G27" s="143">
         <v>1</v>
       </c>
@@ -5278,20 +5280,20 @@
     <row r="29" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="B29" s="19"/>
       <c r="C29" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="204" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="204"/>
+        <v>64</v>
+      </c>
+      <c r="E29" s="196" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="196"/>
       <c r="G29" s="159">
         <v>1</v>
       </c>
       <c r="H29" s="136" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="4"/>
@@ -5339,10 +5341,10 @@
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
+        <v>31</v>
+      </c>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
       <c r="G30" s="159">
         <v>1</v>
       </c>
@@ -5444,10 +5446,10 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
+        <v>55</v>
+      </c>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
       <c r="G31" s="157"/>
       <c r="H31" s="144"/>
       <c r="I31" s="46"/>
@@ -5547,10 +5549,10 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
+        <v>57</v>
+      </c>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
       <c r="G32" s="157"/>
       <c r="H32" s="158"/>
       <c r="I32" s="46"/>
@@ -5650,10 +5652,10 @@
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
+        <v>36</v>
+      </c>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="157"/>
       <c r="H33" s="158"/>
       <c r="I33" s="46"/>
@@ -5755,12 +5757,12 @@
         <v>19</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="203" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="203"/>
+        <v>74</v>
+      </c>
+      <c r="E34" s="195" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="195"/>
       <c r="G34" s="157"/>
       <c r="H34" s="158"/>
       <c r="I34" s="46"/>
@@ -5862,8 +5864,8 @@
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
       <c r="G35" s="157"/>
       <c r="H35" s="158"/>
       <c r="I35" s="46"/>
@@ -5963,10 +5965,10 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
+        <v>80</v>
+      </c>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
       <c r="G36" s="157"/>
       <c r="H36" s="158"/>
       <c r="I36" s="46"/>
@@ -6066,10 +6068,10 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
+        <v>60</v>
+      </c>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
       <c r="G37" s="157"/>
       <c r="H37" s="158"/>
       <c r="I37" s="46"/>
@@ -6169,10 +6171,10 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="203"/>
-      <c r="F38" s="203"/>
+        <v>62</v>
+      </c>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
       <c r="G38" s="157"/>
       <c r="H38" s="158"/>
       <c r="I38" s="46"/>
@@ -6272,10 +6274,10 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="203"/>
-      <c r="F39" s="203"/>
+        <v>26</v>
+      </c>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
       <c r="G39" s="157"/>
       <c r="H39" s="158"/>
       <c r="I39" s="46"/>
@@ -6475,15 +6477,15 @@
     <row r="41" spans="2:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="B41" s="19"/>
       <c r="C41" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="204" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="204"/>
+        <v>66</v>
+      </c>
+      <c r="E41" s="196" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="196"/>
       <c r="G41" s="157"/>
       <c r="H41" s="158"/>
       <c r="I41" s="47"/>
@@ -6531,10 +6533,10 @@
       <c r="B42" s="19"/>
       <c r="C42" s="30"/>
       <c r="D42" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
+        <v>75</v>
+      </c>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
       <c r="G42" s="157"/>
       <c r="H42" s="158"/>
       <c r="I42" s="47"/>
@@ -6584,8 +6586,8 @@
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="204"/>
-      <c r="F43" s="204"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
       <c r="G43" s="157"/>
       <c r="H43" s="158"/>
       <c r="I43" s="47"/>
@@ -6633,10 +6635,10 @@
       <c r="B44" s="19"/>
       <c r="C44" s="30"/>
       <c r="D44" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="204"/>
-      <c r="F44" s="204"/>
+        <v>56</v>
+      </c>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196"/>
       <c r="G44" s="157"/>
       <c r="H44" s="158"/>
       <c r="I44" s="47"/>
@@ -6683,15 +6685,15 @@
     <row r="45" spans="2:100" ht="14.1" customHeight="1">
       <c r="B45" s="19"/>
       <c r="C45" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="205" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="205"/>
+        <v>52</v>
+      </c>
+      <c r="E45" s="197" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="197"/>
       <c r="G45" s="157"/>
       <c r="H45" s="158"/>
       <c r="I45" s="47"/>
@@ -6739,10 +6741,10 @@
       <c r="B46" s="19"/>
       <c r="C46" s="30"/>
       <c r="D46" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="205"/>
-      <c r="F46" s="205"/>
+        <v>77</v>
+      </c>
+      <c r="E46" s="197"/>
+      <c r="F46" s="197"/>
       <c r="G46" s="157"/>
       <c r="H46" s="158"/>
       <c r="I46" s="47"/>
@@ -6790,10 +6792,10 @@
       <c r="B47" s="19"/>
       <c r="C47" s="30"/>
       <c r="D47" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="205"/>
-      <c r="F47" s="205"/>
+        <v>28</v>
+      </c>
+      <c r="E47" s="197"/>
+      <c r="F47" s="197"/>
       <c r="G47" s="157"/>
       <c r="H47" s="158"/>
       <c r="I47" s="54"/>
@@ -6841,10 +6843,10 @@
       <c r="B48" s="19"/>
       <c r="C48" s="30"/>
       <c r="D48" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="205"/>
-      <c r="F48" s="205"/>
+        <v>34</v>
+      </c>
+      <c r="E48" s="197"/>
+      <c r="F48" s="197"/>
       <c r="G48" s="157"/>
       <c r="H48" s="158"/>
       <c r="I48" s="54"/>
@@ -6892,10 +6894,10 @@
       <c r="B49" s="19"/>
       <c r="C49" s="30"/>
       <c r="D49" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="205"/>
-      <c r="F49" s="205"/>
+        <v>81</v>
+      </c>
+      <c r="E49" s="197"/>
+      <c r="F49" s="197"/>
       <c r="G49" s="157"/>
       <c r="H49" s="158"/>
       <c r="I49" s="54"/>
@@ -6945,12 +6947,12 @@
         <v>13</v>
       </c>
       <c r="D50" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="201" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="201"/>
+        <v>68</v>
+      </c>
+      <c r="E50" s="193" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="193"/>
       <c r="G50" s="157"/>
       <c r="H50" s="158"/>
       <c r="I50" s="48"/>
@@ -7016,10 +7018,10 @@
       <c r="AW53" s="1"/>
     </row>
     <row r="54" spans="2:49" ht="14.1" customHeight="1">
-      <c r="B54" s="200" t="s">
+      <c r="B54" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="190"/>
+      <c r="C54" s="202"/>
       <c r="D54" s="82"/>
       <c r="E54" s="160"/>
       <c r="F54" s="160"/>
@@ -7028,19 +7030,19 @@
       <c r="AW54" s="1"/>
     </row>
     <row r="55" spans="2:49" ht="14.1" customHeight="1">
-      <c r="B55" s="191" t="s">
+      <c r="B55" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="191" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="191" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="194" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="195"/>
+      <c r="C55" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="198" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="182" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="183"/>
       <c r="G55" s="120"/>
       <c r="H55" s="121"/>
       <c r="I55" s="75"/>
@@ -7086,28 +7088,28 @@
       <c r="AW55" s="1"/>
     </row>
     <row r="56" spans="2:49" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B56" s="192"/>
-      <c r="C56" s="192"/>
-      <c r="D56" s="192"/>
-      <c r="E56" s="196"/>
-      <c r="F56" s="197"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="185"/>
       <c r="G56" s="125" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H56" s="126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I56" s="115"/>
       <c r="J56" s="179"/>
       <c r="K56" s="179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L56" s="179"/>
       <c r="M56" s="116"/>
       <c r="N56" s="179"/>
       <c r="O56" s="179"/>
       <c r="P56" s="179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q56" s="179"/>
       <c r="R56" s="116"/>
@@ -7121,7 +7123,7 @@
       <c r="X56" s="179"/>
       <c r="Y56" s="179"/>
       <c r="Z56" s="179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA56" s="179"/>
       <c r="AB56" s="116"/>
@@ -7142,7 +7144,7 @@
       <c r="AM56" s="179"/>
       <c r="AN56" s="179"/>
       <c r="AO56" s="179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP56" s="179"/>
       <c r="AQ56" s="116"/>
@@ -7156,11 +7158,11 @@
       <c r="AW56" s="1"/>
     </row>
     <row r="57" spans="2:49" ht="17.25" thickBot="1">
-      <c r="B57" s="193"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="198"/>
-      <c r="F57" s="199"/>
+      <c r="B57" s="200"/>
+      <c r="C57" s="200"/>
+      <c r="D57" s="200"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="187"/>
       <c r="G57" s="129"/>
       <c r="H57" s="130"/>
       <c r="I57" s="79">
@@ -7298,13 +7300,13 @@
         <v>9</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E58" s="161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" s="162"/>
       <c r="G58" s="159">
@@ -7358,7 +7360,7 @@
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
       <c r="D59" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E59" s="164"/>
       <c r="F59" s="165"/>
@@ -7366,7 +7368,7 @@
         <v>0.8</v>
       </c>
       <c r="H59" s="163" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I59" s="47"/>
       <c r="J59" s="3"/>
@@ -7413,15 +7415,15 @@
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
       <c r="D60" s="16" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E60" s="164"/>
       <c r="F60" s="165"/>
       <c r="G60" s="159">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H60" s="163" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I60" s="47"/>
       <c r="J60" s="3"/>
@@ -7430,7 +7432,7 @@
       <c r="M60" s="92"/>
       <c r="N60" s="3"/>
       <c r="O60" s="95"/>
-      <c r="P60" s="95"/>
+      <c r="P60" s="92"/>
       <c r="Q60" s="94"/>
       <c r="R60" s="94"/>
       <c r="S60" s="3"/>
@@ -7468,7 +7470,7 @@
       <c r="B61" s="23"/>
       <c r="C61" s="24"/>
       <c r="D61" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E61" s="155"/>
       <c r="F61" s="156"/>
@@ -7476,7 +7478,7 @@
         <v>0.7</v>
       </c>
       <c r="H61" s="163" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I61" s="48"/>
       <c r="J61" s="6"/>
@@ -7522,20 +7524,20 @@
     <row r="62" spans="2:49">
       <c r="B62" s="23"/>
       <c r="C62" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="161" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F62" s="162"/>
       <c r="G62" s="159">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H62" s="163" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I62" s="87"/>
       <c r="J62" s="50"/>
@@ -7582,7 +7584,7 @@
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E63" s="164"/>
       <c r="F63" s="165"/>
@@ -7734,13 +7736,13 @@
     <row r="66" spans="2:49">
       <c r="B66" s="23"/>
       <c r="C66" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E66" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="162"/>
       <c r="G66" s="158"/>
@@ -7790,7 +7792,7 @@
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
       <c r="D67" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E67" s="164"/>
       <c r="F67" s="165"/>
@@ -7938,13 +7940,13 @@
     <row r="70" spans="2:49">
       <c r="B70" s="23"/>
       <c r="C70" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="161" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="162"/>
       <c r="G70" s="158"/>
@@ -7994,7 +7996,7 @@
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
       <c r="D71" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E71" s="164"/>
       <c r="F71" s="165"/>
@@ -8048,7 +8050,7 @@
     <row r="72" spans="2:49">
       <c r="B72" s="23"/>
       <c r="C72" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>2</v>
@@ -8104,7 +8106,7 @@
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E73" s="155"/>
       <c r="F73" s="156"/>
@@ -8152,6 +8154,9 @@
       <c r="AV73" s="67"/>
     </row>
     <row r="74" spans="2:49">
+      <c r="H74" s="2">
+        <v>111</v>
+      </c>
       <c r="AW74" s="1"/>
     </row>
     <row r="75" spans="2:49">
@@ -8267,22 +8272,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E24:F27"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="E34:F39"/>
-    <mergeCell ref="E41:F44"/>
-    <mergeCell ref="E45:F49"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B3:AZ3"/>
     <mergeCell ref="B2:AZ2"/>
     <mergeCell ref="E5:F8"/>
@@ -8291,6 +8280,22 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E24:F27"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="E34:F39"/>
+    <mergeCell ref="E41:F44"/>
+    <mergeCell ref="E45:F49"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH.S.D\Desktop\졸작\졸작\Avoid-The-Boss\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\OneDrive\Desktop\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F0EE0-509E-479F-988C-2A98172AE689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FAF320-9BED-4F51-8244-82A62ED5E99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1797,7 +1797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2344,6 +2344,45 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2362,19 +2401,7 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2392,47 +2419,23 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -3546,8 +3549,8 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V76" sqref="V76"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -3572,136 +3575,136 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="203"/>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="203"/>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="203"/>
-      <c r="AJ2" s="203"/>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="203"/>
-      <c r="AM2" s="203"/>
-      <c r="AN2" s="203"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="203"/>
-      <c r="AQ2" s="203"/>
-      <c r="AR2" s="203"/>
-      <c r="AS2" s="203"/>
-      <c r="AT2" s="203"/>
-      <c r="AU2" s="203"/>
-      <c r="AV2" s="203"/>
-      <c r="AW2" s="203"/>
-      <c r="AX2" s="203"/>
-      <c r="AY2" s="203"/>
-      <c r="AZ2" s="203"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="182"/>
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="182"/>
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="182"/>
+      <c r="AH2" s="182"/>
+      <c r="AI2" s="182"/>
+      <c r="AJ2" s="182"/>
+      <c r="AK2" s="182"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="182"/>
+      <c r="AN2" s="182"/>
+      <c r="AO2" s="182"/>
+      <c r="AP2" s="182"/>
+      <c r="AQ2" s="182"/>
+      <c r="AR2" s="182"/>
+      <c r="AS2" s="182"/>
+      <c r="AT2" s="182"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="182"/>
+      <c r="AZ2" s="182"/>
     </row>
     <row r="3" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="203"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="203"/>
-      <c r="AH3" s="203"/>
-      <c r="AI3" s="203"/>
-      <c r="AJ3" s="203"/>
-      <c r="AK3" s="203"/>
-      <c r="AL3" s="203"/>
-      <c r="AM3" s="203"/>
-      <c r="AN3" s="203"/>
-      <c r="AO3" s="203"/>
-      <c r="AP3" s="203"/>
-      <c r="AQ3" s="203"/>
-      <c r="AR3" s="203"/>
-      <c r="AS3" s="203"/>
-      <c r="AT3" s="203"/>
-      <c r="AU3" s="203"/>
-      <c r="AV3" s="203"/>
-      <c r="AW3" s="203"/>
-      <c r="AX3" s="203"/>
-      <c r="AY3" s="203"/>
-      <c r="AZ3" s="203"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="182"/>
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="182"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="182"/>
+      <c r="AL3" s="182"/>
+      <c r="AM3" s="182"/>
+      <c r="AN3" s="182"/>
+      <c r="AO3" s="182"/>
+      <c r="AP3" s="182"/>
+      <c r="AQ3" s="182"/>
+      <c r="AR3" s="182"/>
+      <c r="AS3" s="182"/>
+      <c r="AT3" s="182"/>
+      <c r="AU3" s="182"/>
+      <c r="AV3" s="182"/>
+      <c r="AW3" s="182"/>
+      <c r="AX3" s="182"/>
+      <c r="AY3" s="182"/>
+      <c r="AZ3" s="182"/>
     </row>
     <row r="4" spans="2:100" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="202"/>
+      <c r="C4" s="191"/>
       <c r="D4" s="82"/>
       <c r="AW4" s="1"/>
       <c r="AZ4" s="77"/>
     </row>
     <row r="5" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="198" t="s">
+      <c r="D5" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="204" t="s">
+      <c r="E5" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="205"/>
+      <c r="F5" s="184"/>
       <c r="G5" s="40"/>
       <c r="H5" s="37"/>
       <c r="I5" s="75"/>
@@ -3746,11 +3749,11 @@
       <c r="AV5" s="76"/>
     </row>
     <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="207"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="186"/>
       <c r="G6" s="41" t="s">
         <v>93</v>
       </c>
@@ -3816,11 +3819,11 @@
       <c r="AW6" s="72"/>
     </row>
     <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
       <c r="G7" s="41"/>
       <c r="H7" s="38"/>
       <c r="I7" s="79">
@@ -3954,11 +3957,11 @@
       <c r="AW7" s="72"/>
     </row>
     <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1">
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="209"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
       <c r="G8" s="42"/>
       <c r="H8" s="39"/>
       <c r="I8" s="79"/>
@@ -4019,10 +4022,10 @@
       <c r="E9" s="166"/>
       <c r="F9" s="167"/>
       <c r="G9" s="168">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="169">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="103"/>
@@ -4032,7 +4035,7 @@
       <c r="N9" s="105"/>
       <c r="O9" s="113"/>
       <c r="P9" s="181"/>
-      <c r="Q9" s="25"/>
+      <c r="Q9" s="113"/>
       <c r="R9" s="104"/>
       <c r="S9" s="25"/>
       <c r="T9" s="102"/>
@@ -4078,17 +4081,21 @@
       <c r="F10" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="172"/>
-      <c r="H10" s="169"/>
+      <c r="G10" s="212">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="169">
+        <v>15</v>
+      </c>
       <c r="I10" s="83"/>
       <c r="J10" s="84"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="4"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -4307,10 +4314,10 @@
       <c r="D14" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="210" t="s">
+      <c r="E14" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="210"/>
+      <c r="F14" s="189"/>
       <c r="G14" s="168">
         <v>1</v>
       </c>
@@ -4484,10 +4491,10 @@
     </row>
     <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="192"/>
+      <c r="C20" s="211"/>
       <c r="D20" s="118"/>
       <c r="E20" s="119"/>
       <c r="F20" s="119"/>
@@ -4535,19 +4542,19 @@
       <c r="AV20" s="119"/>
     </row>
     <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="188" t="s">
+      <c r="C21" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="188" t="s">
+      <c r="D21" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="182" t="s">
+      <c r="E21" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="183"/>
+      <c r="F21" s="196"/>
       <c r="G21" s="120"/>
       <c r="H21" s="121"/>
       <c r="I21" s="122"/>
@@ -4592,11 +4599,11 @@
       <c r="AV21" s="124"/>
     </row>
     <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B22" s="189"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="185"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="198"/>
       <c r="G22" s="125" t="s">
         <v>93</v>
       </c>
@@ -4662,11 +4669,11 @@
     </row>
     <row r="23" spans="1:249" s="60" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="187"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="200"/>
       <c r="G23" s="129"/>
       <c r="H23" s="130"/>
       <c r="I23" s="131">
@@ -5009,10 +5016,10 @@
       <c r="D24" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="194" t="s">
+      <c r="E24" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="194"/>
+      <c r="F24" s="203"/>
       <c r="G24" s="135">
         <v>1</v>
       </c>
@@ -5069,8 +5076,8 @@
       <c r="D25" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
       <c r="G25" s="143">
         <v>1</v>
       </c>
@@ -5123,8 +5130,8 @@
       <c r="D26" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
       <c r="G26" s="143">
         <v>1</v>
       </c>
@@ -5179,8 +5186,8 @@
       <c r="D27" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="204"/>
       <c r="G27" s="143">
         <v>1</v>
       </c>
@@ -5285,10 +5292,10 @@
       <c r="D29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="196" t="s">
+      <c r="E29" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="196"/>
+      <c r="F29" s="205"/>
       <c r="G29" s="159">
         <v>1</v>
       </c>
@@ -5343,8 +5350,8 @@
       <c r="D30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
       <c r="G30" s="159">
         <v>1</v>
       </c>
@@ -5448,8 +5455,8 @@
       <c r="D31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
       <c r="G31" s="157"/>
       <c r="H31" s="144"/>
       <c r="I31" s="46"/>
@@ -5551,8 +5558,8 @@
       <c r="D32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
       <c r="G32" s="157"/>
       <c r="H32" s="158"/>
       <c r="I32" s="46"/>
@@ -5654,8 +5661,8 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
       <c r="G33" s="157"/>
       <c r="H33" s="158"/>
       <c r="I33" s="46"/>
@@ -5759,10 +5766,10 @@
       <c r="D34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="195" t="s">
+      <c r="E34" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="195"/>
+      <c r="F34" s="204"/>
       <c r="G34" s="157"/>
       <c r="H34" s="158"/>
       <c r="I34" s="46"/>
@@ -5864,8 +5871,8 @@
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
       <c r="G35" s="157"/>
       <c r="H35" s="158"/>
       <c r="I35" s="46"/>
@@ -5967,8 +5974,8 @@
       <c r="D36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
       <c r="G36" s="157"/>
       <c r="H36" s="158"/>
       <c r="I36" s="46"/>
@@ -6070,8 +6077,8 @@
       <c r="D37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="195"/>
-      <c r="F37" s="195"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
       <c r="G37" s="157"/>
       <c r="H37" s="158"/>
       <c r="I37" s="46"/>
@@ -6173,8 +6180,8 @@
       <c r="D38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
       <c r="G38" s="157"/>
       <c r="H38" s="158"/>
       <c r="I38" s="46"/>
@@ -6276,8 +6283,8 @@
       <c r="D39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="204"/>
       <c r="G39" s="157"/>
       <c r="H39" s="158"/>
       <c r="I39" s="46"/>
@@ -6482,10 +6489,10 @@
       <c r="D41" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="196" t="s">
+      <c r="E41" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="196"/>
+      <c r="F41" s="205"/>
       <c r="G41" s="157"/>
       <c r="H41" s="158"/>
       <c r="I41" s="47"/>
@@ -6535,8 +6542,8 @@
       <c r="D42" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="205"/>
       <c r="G42" s="157"/>
       <c r="H42" s="158"/>
       <c r="I42" s="47"/>
@@ -6586,8 +6593,8 @@
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
+      <c r="E43" s="205"/>
+      <c r="F43" s="205"/>
       <c r="G43" s="157"/>
       <c r="H43" s="158"/>
       <c r="I43" s="47"/>
@@ -6637,8 +6644,8 @@
       <c r="D44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="196"/>
-      <c r="F44" s="196"/>
+      <c r="E44" s="205"/>
+      <c r="F44" s="205"/>
       <c r="G44" s="157"/>
       <c r="H44" s="158"/>
       <c r="I44" s="47"/>
@@ -6690,10 +6697,10 @@
       <c r="D45" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="197" t="s">
+      <c r="E45" s="206" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="197"/>
+      <c r="F45" s="206"/>
       <c r="G45" s="157"/>
       <c r="H45" s="158"/>
       <c r="I45" s="47"/>
@@ -6743,8 +6750,8 @@
       <c r="D46" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="197"/>
-      <c r="F46" s="197"/>
+      <c r="E46" s="206"/>
+      <c r="F46" s="206"/>
       <c r="G46" s="157"/>
       <c r="H46" s="158"/>
       <c r="I46" s="47"/>
@@ -6794,8 +6801,8 @@
       <c r="D47" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="197"/>
-      <c r="F47" s="197"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="206"/>
       <c r="G47" s="157"/>
       <c r="H47" s="158"/>
       <c r="I47" s="54"/>
@@ -6845,8 +6852,8 @@
       <c r="D48" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="197"/>
-      <c r="F48" s="197"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
       <c r="G48" s="157"/>
       <c r="H48" s="158"/>
       <c r="I48" s="54"/>
@@ -6896,8 +6903,8 @@
       <c r="D49" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="197"/>
-      <c r="F49" s="197"/>
+      <c r="E49" s="206"/>
+      <c r="F49" s="206"/>
       <c r="G49" s="157"/>
       <c r="H49" s="158"/>
       <c r="I49" s="54"/>
@@ -6949,10 +6956,10 @@
       <c r="D50" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="193" t="s">
+      <c r="E50" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="193"/>
+      <c r="F50" s="202"/>
       <c r="G50" s="157"/>
       <c r="H50" s="158"/>
       <c r="I50" s="48"/>
@@ -7021,7 +7028,7 @@
       <c r="B54" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="202"/>
+      <c r="C54" s="191"/>
       <c r="D54" s="82"/>
       <c r="E54" s="160"/>
       <c r="F54" s="160"/>
@@ -7030,19 +7037,19 @@
       <c r="AW54" s="1"/>
     </row>
     <row r="55" spans="2:49" ht="14.1" customHeight="1">
-      <c r="B55" s="198" t="s">
+      <c r="B55" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="198" t="s">
+      <c r="C55" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="198" t="s">
+      <c r="D55" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="182" t="s">
+      <c r="E55" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="183"/>
+      <c r="F55" s="196"/>
       <c r="G55" s="120"/>
       <c r="H55" s="121"/>
       <c r="I55" s="75"/>
@@ -7088,11 +7095,11 @@
       <c r="AW55" s="1"/>
     </row>
     <row r="56" spans="2:49" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B56" s="199"/>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="184"/>
-      <c r="F56" s="185"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="193"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="197"/>
+      <c r="F56" s="198"/>
       <c r="G56" s="125" t="s">
         <v>93</v>
       </c>
@@ -7158,11 +7165,11 @@
       <c r="AW56" s="1"/>
     </row>
     <row r="57" spans="2:49" ht="17.25" thickBot="1">
-      <c r="B57" s="200"/>
-      <c r="C57" s="200"/>
-      <c r="D57" s="200"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="187"/>
+      <c r="B57" s="194"/>
+      <c r="C57" s="194"/>
+      <c r="D57" s="194"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="200"/>
       <c r="G57" s="129"/>
       <c r="H57" s="130"/>
       <c r="I57" s="79">
@@ -8272,6 +8279,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E24:F27"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="E34:F39"/>
+    <mergeCell ref="E41:F44"/>
+    <mergeCell ref="E45:F49"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B3:AZ3"/>
     <mergeCell ref="B2:AZ2"/>
     <mergeCell ref="E5:F8"/>
@@ -8280,22 +8303,6 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E24:F27"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="E34:F39"/>
-    <mergeCell ref="E41:F44"/>
-    <mergeCell ref="E45:F49"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\OneDrive\Desktop\Avoid-The-Boss\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH.S.D\Desktop\SeniorProject\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FAF320-9BED-4F51-8244-82A62ED5E99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4550F-FDE5-458E-BE43-5F3DE34107FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>서버 되감기 동기화 공부 및 분석(30)</t>
   </si>
@@ -336,19 +336,23 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>42시간</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15시간</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>6시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>클라이언트 프레임워크 분석 및 로그인 적용(15)</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>23시간(+8)</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>48시간(+6)</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시간(+5)</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2077,9 +2081,6 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2344,6 +2345,72 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2371,71 +2438,8 @@
     <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -2540,16 +2544,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>34924</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>232924</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>213874</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>3176</xdr:rowOff>
+      <xdr:rowOff>117476</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2564,7 +2568,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10636249" y="695326"/>
+          <a:off x="10855324" y="809626"/>
           <a:ext cx="198000" cy="12690475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3549,8 +3553,8 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -3575,136 +3579,136 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="182"/>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="182"/>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="182"/>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="182"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="182"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="182"/>
-      <c r="AN2" s="182"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="182"/>
-      <c r="AQ2" s="182"/>
-      <c r="AR2" s="182"/>
-      <c r="AS2" s="182"/>
-      <c r="AT2" s="182"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="182"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="203"/>
+      <c r="AJ2" s="203"/>
+      <c r="AK2" s="203"/>
+      <c r="AL2" s="203"/>
+      <c r="AM2" s="203"/>
+      <c r="AN2" s="203"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="203"/>
+      <c r="AQ2" s="203"/>
+      <c r="AR2" s="203"/>
+      <c r="AS2" s="203"/>
+      <c r="AT2" s="203"/>
+      <c r="AU2" s="203"/>
+      <c r="AV2" s="203"/>
+      <c r="AW2" s="203"/>
+      <c r="AX2" s="203"/>
+      <c r="AY2" s="203"/>
+      <c r="AZ2" s="203"/>
     </row>
     <row r="3" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="182"/>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="182"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="182"/>
-      <c r="AL3" s="182"/>
-      <c r="AM3" s="182"/>
-      <c r="AN3" s="182"/>
-      <c r="AO3" s="182"/>
-      <c r="AP3" s="182"/>
-      <c r="AQ3" s="182"/>
-      <c r="AR3" s="182"/>
-      <c r="AS3" s="182"/>
-      <c r="AT3" s="182"/>
-      <c r="AU3" s="182"/>
-      <c r="AV3" s="182"/>
-      <c r="AW3" s="182"/>
-      <c r="AX3" s="182"/>
-      <c r="AY3" s="182"/>
-      <c r="AZ3" s="182"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="203"/>
+      <c r="AI3" s="203"/>
+      <c r="AJ3" s="203"/>
+      <c r="AK3" s="203"/>
+      <c r="AL3" s="203"/>
+      <c r="AM3" s="203"/>
+      <c r="AN3" s="203"/>
+      <c r="AO3" s="203"/>
+      <c r="AP3" s="203"/>
+      <c r="AQ3" s="203"/>
+      <c r="AR3" s="203"/>
+      <c r="AS3" s="203"/>
+      <c r="AT3" s="203"/>
+      <c r="AU3" s="203"/>
+      <c r="AV3" s="203"/>
+      <c r="AW3" s="203"/>
+      <c r="AX3" s="203"/>
+      <c r="AY3" s="203"/>
+      <c r="AZ3" s="203"/>
     </row>
     <row r="4" spans="2:100" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="211" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="191"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="82"/>
       <c r="AW4" s="1"/>
       <c r="AZ4" s="77"/>
     </row>
     <row r="5" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="198" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="184"/>
+      <c r="F5" s="205"/>
       <c r="G5" s="40"/>
       <c r="H5" s="37"/>
       <c r="I5" s="75"/>
@@ -3749,81 +3753,81 @@
       <c r="AV5" s="76"/>
     </row>
     <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="186"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="207"/>
       <c r="G6" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179" t="s">
+      <c r="I6" s="114"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="179"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179" t="s">
+      <c r="L6" s="178"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179" t="s">
+      <c r="Q6" s="178"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="178"/>
+      <c r="U6" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="179"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="179"/>
-      <c r="Z6" s="179" t="s">
+      <c r="V6" s="178"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="179"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="115"/>
-      <c r="AD6" s="179"/>
-      <c r="AE6" s="179" t="s">
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="178"/>
+      <c r="AE6" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="179"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="115"/>
-      <c r="AI6" s="179"/>
-      <c r="AJ6" s="179" t="s">
+      <c r="AF6" s="178"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="178"/>
+      <c r="AJ6" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="179"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="115"/>
-      <c r="AN6" s="179"/>
-      <c r="AO6" s="179" t="s">
+      <c r="AK6" s="178"/>
+      <c r="AL6" s="115"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="178"/>
+      <c r="AO6" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AP6" s="179"/>
-      <c r="AQ6" s="116"/>
-      <c r="AR6" s="115"/>
-      <c r="AS6" s="179"/>
-      <c r="AT6" s="179" t="s">
+      <c r="AP6" s="178"/>
+      <c r="AQ6" s="115"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="178"/>
+      <c r="AT6" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" s="179"/>
-      <c r="AV6" s="116"/>
+      <c r="AU6" s="178"/>
+      <c r="AV6" s="115"/>
       <c r="AW6" s="72"/>
     </row>
     <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
       <c r="G7" s="41"/>
       <c r="H7" s="38"/>
       <c r="I7" s="79">
@@ -3957,11 +3961,11 @@
       <c r="AW7" s="72"/>
     </row>
     <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1">
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="209"/>
       <c r="G8" s="42"/>
       <c r="H8" s="39"/>
       <c r="I8" s="79"/>
@@ -4019,30 +4023,30 @@
       <c r="D9" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="168">
+      <c r="E9" s="165"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167">
         <v>1</v>
       </c>
-      <c r="H9" s="169">
+      <c r="H9" s="168">
         <v>15</v>
       </c>
       <c r="I9" s="51"/>
-      <c r="J9" s="103"/>
+      <c r="J9" s="102"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="103"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="103"/>
       <c r="S9" s="25"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -4077,14 +4081,14 @@
       <c r="D10" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="170"/>
-      <c r="F10" s="171" t="s">
+      <c r="E10" s="169"/>
+      <c r="F10" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="212">
+      <c r="G10" s="181">
         <v>0.8</v>
       </c>
-      <c r="H10" s="169">
+      <c r="H10" s="168">
         <v>15</v>
       </c>
       <c r="I10" s="83"/>
@@ -4140,10 +4144,10 @@
       <c r="D11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="168"/>
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
       <c r="K11" s="4"/>
@@ -4152,7 +4156,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="106"/>
+      <c r="Q11" s="105"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -4194,10 +4198,10 @@
       <c r="D12" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="174"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="169"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="168"/>
       <c r="I12" s="83"/>
       <c r="J12" s="84"/>
       <c r="K12" s="4"/>
@@ -4206,8 +4210,8 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -4255,12 +4259,12 @@
       <c r="D13" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="168">
+      <c r="E13" s="165"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="167">
         <v>1</v>
       </c>
-      <c r="H13" s="169">
+      <c r="H13" s="168">
         <v>30</v>
       </c>
       <c r="I13" s="83"/>
@@ -4314,14 +4318,14 @@
       <c r="D14" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="189" t="s">
+      <c r="E14" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="189"/>
-      <c r="G14" s="168">
+      <c r="F14" s="210"/>
+      <c r="G14" s="167">
         <v>1</v>
       </c>
-      <c r="H14" s="169">
+      <c r="H14" s="168">
         <v>12</v>
       </c>
       <c r="I14" s="83"/>
@@ -4374,12 +4378,12 @@
       <c r="D15" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="170"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="168">
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="167">
         <v>1</v>
       </c>
-      <c r="H15" s="169">
+      <c r="H15" s="168">
         <v>12</v>
       </c>
       <c r="I15" s="83"/>
@@ -4432,10 +4436,10 @@
       <c r="D16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="174"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="177"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="176"/>
       <c r="I16" s="85"/>
       <c r="J16" s="86"/>
       <c r="K16" s="5"/>
@@ -4446,11 +4450,11 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="8"/>
@@ -4487,321 +4491,321 @@
     </row>
     <row r="17" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="18" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="H18" s="112"/>
+      <c r="H18" s="111"/>
     </row>
     <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B20" s="210" t="s">
+      <c r="B20" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="211"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="119"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="119"/>
-      <c r="AF20" s="119"/>
-      <c r="AG20" s="119"/>
-      <c r="AH20" s="119"/>
-      <c r="AI20" s="119"/>
-      <c r="AJ20" s="119"/>
-      <c r="AK20" s="119"/>
-      <c r="AL20" s="119"/>
-      <c r="AM20" s="119"/>
-      <c r="AN20" s="119"/>
-      <c r="AO20" s="119"/>
-      <c r="AP20" s="119"/>
-      <c r="AQ20" s="119"/>
-      <c r="AR20" s="119"/>
-      <c r="AS20" s="119"/>
-      <c r="AT20" s="119"/>
-      <c r="AU20" s="119"/>
-      <c r="AV20" s="119"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118"/>
+      <c r="AU20" s="118"/>
+      <c r="AV20" s="118"/>
     </row>
     <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="188" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="207" t="s">
+      <c r="D21" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="195" t="s">
+      <c r="E21" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="196"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="122"/>
-      <c r="AD21" s="123"/>
-      <c r="AE21" s="123"/>
-      <c r="AF21" s="123"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="122"/>
-      <c r="AI21" s="123"/>
-      <c r="AJ21" s="123"/>
-      <c r="AK21" s="123"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="122"/>
-      <c r="AN21" s="123"/>
-      <c r="AO21" s="123"/>
-      <c r="AP21" s="123"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="122"/>
-      <c r="AS21" s="123"/>
-      <c r="AT21" s="123"/>
-      <c r="AU21" s="123"/>
-      <c r="AV21" s="124"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="123"/>
+      <c r="AC21" s="121"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="122"/>
+      <c r="AK21" s="122"/>
+      <c r="AL21" s="123"/>
+      <c r="AM21" s="121"/>
+      <c r="AN21" s="122"/>
+      <c r="AO21" s="122"/>
+      <c r="AP21" s="122"/>
+      <c r="AQ21" s="123"/>
+      <c r="AR21" s="121"/>
+      <c r="AS21" s="122"/>
+      <c r="AT21" s="122"/>
+      <c r="AU21" s="122"/>
+      <c r="AV21" s="123"/>
     </row>
     <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="125" t="s">
+      <c r="B22" s="189"/>
+      <c r="C22" s="189"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="126" t="s">
+      <c r="H22" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="127"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178" t="s">
+      <c r="I22" s="126"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="178"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178" t="s">
+      <c r="L22" s="177"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="178"/>
-      <c r="U22" s="178" t="s">
+      <c r="Q22" s="177"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="177"/>
+      <c r="U22" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="V22" s="178"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="178"/>
-      <c r="Z22" s="178" t="s">
+      <c r="V22" s="177"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="126"/>
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="AA22" s="178"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="178"/>
-      <c r="AE22" s="178" t="s">
+      <c r="AA22" s="177"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="126"/>
+      <c r="AD22" s="177"/>
+      <c r="AE22" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="178"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="127"/>
-      <c r="AI22" s="178"/>
-      <c r="AJ22" s="178" t="s">
+      <c r="AF22" s="177"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="126"/>
+      <c r="AI22" s="177"/>
+      <c r="AJ22" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="AK22" s="178"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="127"/>
-      <c r="AN22" s="178"/>
-      <c r="AO22" s="178" t="s">
+      <c r="AK22" s="177"/>
+      <c r="AL22" s="127"/>
+      <c r="AM22" s="126"/>
+      <c r="AN22" s="177"/>
+      <c r="AO22" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="AP22" s="178"/>
-      <c r="AQ22" s="128"/>
-      <c r="AR22" s="127"/>
-      <c r="AS22" s="178"/>
-      <c r="AT22" s="178" t="s">
+      <c r="AP22" s="177"/>
+      <c r="AQ22" s="127"/>
+      <c r="AR22" s="126"/>
+      <c r="AS22" s="177"/>
+      <c r="AT22" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AU22" s="178"/>
-      <c r="AV22" s="128"/>
+      <c r="AU22" s="177"/>
+      <c r="AV22" s="127"/>
     </row>
     <row r="23" spans="1:249" s="60" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="209"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131">
+      <c r="B23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="J23" s="131">
+      <c r="J23" s="130">
         <v>2</v>
       </c>
-      <c r="K23" s="131">
+      <c r="K23" s="130">
         <v>3</v>
       </c>
-      <c r="L23" s="131">
+      <c r="L23" s="130">
         <v>4</v>
       </c>
-      <c r="M23" s="132">
+      <c r="M23" s="131">
         <v>5</v>
       </c>
-      <c r="N23" s="131">
+      <c r="N23" s="130">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="131">
+      <c r="O23" s="130">
         <v>2</v>
       </c>
-      <c r="P23" s="131">
+      <c r="P23" s="130">
         <v>3</v>
       </c>
-      <c r="Q23" s="131">
+      <c r="Q23" s="130">
         <v>4</v>
       </c>
-      <c r="R23" s="132">
+      <c r="R23" s="131">
         <v>5</v>
       </c>
-      <c r="S23" s="131">
+      <c r="S23" s="130">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="T23" s="131">
+      <c r="T23" s="130">
         <v>2</v>
       </c>
-      <c r="U23" s="131">
+      <c r="U23" s="130">
         <v>3</v>
       </c>
-      <c r="V23" s="131">
+      <c r="V23" s="130">
         <v>4</v>
       </c>
-      <c r="W23" s="132">
+      <c r="W23" s="131">
         <v>5</v>
       </c>
-      <c r="X23" s="131">
+      <c r="X23" s="130">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="Y23" s="131">
+      <c r="Y23" s="130">
         <v>2</v>
       </c>
-      <c r="Z23" s="131">
+      <c r="Z23" s="130">
         <v>3</v>
       </c>
-      <c r="AA23" s="131">
+      <c r="AA23" s="130">
         <v>4</v>
       </c>
-      <c r="AB23" s="132">
+      <c r="AB23" s="131">
         <v>5</v>
       </c>
-      <c r="AC23" s="131">
+      <c r="AC23" s="130">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AD23" s="131">
+      <c r="AD23" s="130">
         <v>2</v>
       </c>
-      <c r="AE23" s="131">
+      <c r="AE23" s="130">
         <v>3</v>
       </c>
-      <c r="AF23" s="131">
+      <c r="AF23" s="130">
         <v>4</v>
       </c>
-      <c r="AG23" s="132">
+      <c r="AG23" s="131">
         <v>5</v>
       </c>
-      <c r="AH23" s="131">
+      <c r="AH23" s="130">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AI23" s="131">
+      <c r="AI23" s="130">
         <v>2</v>
       </c>
-      <c r="AJ23" s="131">
+      <c r="AJ23" s="130">
         <v>3</v>
       </c>
-      <c r="AK23" s="131">
+      <c r="AK23" s="130">
         <v>4</v>
       </c>
-      <c r="AL23" s="132">
+      <c r="AL23" s="131">
         <v>5</v>
       </c>
-      <c r="AM23" s="131">
+      <c r="AM23" s="130">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AN23" s="131">
+      <c r="AN23" s="130">
         <v>2</v>
       </c>
-      <c r="AO23" s="131">
+      <c r="AO23" s="130">
         <v>3</v>
       </c>
-      <c r="AP23" s="131">
+      <c r="AP23" s="130">
         <v>4</v>
       </c>
-      <c r="AQ23" s="132">
+      <c r="AQ23" s="131">
         <v>5</v>
       </c>
-      <c r="AR23" s="131">
+      <c r="AR23" s="130">
         <f>ABS(1)</f>
         <v>1</v>
       </c>
-      <c r="AS23" s="131">
+      <c r="AS23" s="130">
         <v>2</v>
       </c>
-      <c r="AT23" s="131">
+      <c r="AT23" s="130">
         <v>3</v>
       </c>
-      <c r="AU23" s="131">
+      <c r="AU23" s="130">
         <v>4</v>
       </c>
-      <c r="AV23" s="132">
+      <c r="AV23" s="131">
         <v>5</v>
       </c>
       <c r="AW23" s="1"/>
@@ -5007,241 +5011,241 @@
       <c r="IO23" s="1"/>
     </row>
     <row r="24" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="134" t="s">
+      <c r="D24" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="203" t="s">
+      <c r="E24" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="203"/>
-      <c r="G24" s="135">
+      <c r="F24" s="194"/>
+      <c r="G24" s="134">
         <v>1</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="137"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="140"/>
-      <c r="S24" s="140"/>
-      <c r="T24" s="140"/>
-      <c r="U24" s="140"/>
-      <c r="V24" s="140"/>
-      <c r="W24" s="140"/>
-      <c r="X24" s="140"/>
-      <c r="Y24" s="140"/>
-      <c r="Z24" s="140"/>
-      <c r="AA24" s="140"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="140"/>
-      <c r="AI24" s="140"/>
-      <c r="AJ24" s="140"/>
-      <c r="AK24" s="140"/>
-      <c r="AL24" s="140"/>
-      <c r="AM24" s="140"/>
-      <c r="AN24" s="140"/>
-      <c r="AO24" s="140"/>
-      <c r="AP24" s="140"/>
-      <c r="AQ24" s="140"/>
-      <c r="AR24" s="140"/>
-      <c r="AS24" s="140"/>
-      <c r="AT24" s="140"/>
-      <c r="AU24" s="140"/>
-      <c r="AV24" s="141"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="139"/>
+      <c r="AH24" s="139"/>
+      <c r="AI24" s="139"/>
+      <c r="AJ24" s="139"/>
+      <c r="AK24" s="139"/>
+      <c r="AL24" s="139"/>
+      <c r="AM24" s="139"/>
+      <c r="AN24" s="139"/>
+      <c r="AO24" s="139"/>
+      <c r="AP24" s="139"/>
+      <c r="AQ24" s="139"/>
+      <c r="AR24" s="139"/>
+      <c r="AS24" s="139"/>
+      <c r="AT24" s="139"/>
+      <c r="AU24" s="139"/>
+      <c r="AV24" s="140"/>
       <c r="AW24" s="72"/>
     </row>
     <row r="25" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B25" s="133"/>
-      <c r="C25" s="133" t="s">
+      <c r="B25" s="132"/>
+      <c r="C25" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="142" t="s">
+      <c r="D25" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="143">
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="142">
         <v>1</v>
       </c>
-      <c r="H25" s="144"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="146"/>
-      <c r="S25" s="146"/>
-      <c r="T25" s="146"/>
-      <c r="U25" s="146"/>
-      <c r="V25" s="146"/>
-      <c r="W25" s="146"/>
-      <c r="X25" s="146"/>
-      <c r="Y25" s="146"/>
-      <c r="Z25" s="146"/>
-      <c r="AA25" s="146"/>
-      <c r="AB25" s="146"/>
-      <c r="AC25" s="146"/>
-      <c r="AD25" s="146"/>
-      <c r="AE25" s="146"/>
-      <c r="AF25" s="146"/>
-      <c r="AG25" s="146"/>
-      <c r="AH25" s="146"/>
-      <c r="AI25" s="146"/>
-      <c r="AJ25" s="146"/>
-      <c r="AK25" s="146"/>
-      <c r="AL25" s="146"/>
-      <c r="AM25" s="146"/>
-      <c r="AN25" s="146"/>
-      <c r="AO25" s="146"/>
-      <c r="AP25" s="146"/>
-      <c r="AQ25" s="146"/>
-      <c r="AR25" s="146"/>
-      <c r="AS25" s="146"/>
-      <c r="AT25" s="146"/>
-      <c r="AU25" s="146"/>
-      <c r="AV25" s="148"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="145"/>
+      <c r="AJ25" s="145"/>
+      <c r="AK25" s="145"/>
+      <c r="AL25" s="145"/>
+      <c r="AM25" s="145"/>
+      <c r="AN25" s="145"/>
+      <c r="AO25" s="145"/>
+      <c r="AP25" s="145"/>
+      <c r="AQ25" s="145"/>
+      <c r="AR25" s="145"/>
+      <c r="AS25" s="145"/>
+      <c r="AT25" s="145"/>
+      <c r="AU25" s="145"/>
+      <c r="AV25" s="147"/>
       <c r="AW25" s="72"/>
     </row>
     <row r="26" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="142" t="s">
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="143">
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="142">
         <v>1</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
-      <c r="U26" s="146"/>
-      <c r="V26" s="146"/>
-      <c r="W26" s="146"/>
-      <c r="X26" s="146"/>
-      <c r="Y26" s="146"/>
-      <c r="Z26" s="146"/>
-      <c r="AA26" s="146"/>
-      <c r="AB26" s="146"/>
-      <c r="AC26" s="146"/>
-      <c r="AD26" s="146"/>
-      <c r="AE26" s="146"/>
-      <c r="AF26" s="146"/>
-      <c r="AG26" s="146"/>
-      <c r="AH26" s="146"/>
-      <c r="AI26" s="146"/>
-      <c r="AJ26" s="146"/>
-      <c r="AK26" s="146"/>
-      <c r="AL26" s="146"/>
-      <c r="AM26" s="146"/>
-      <c r="AN26" s="146"/>
-      <c r="AO26" s="146"/>
-      <c r="AP26" s="146"/>
-      <c r="AQ26" s="146"/>
-      <c r="AR26" s="146"/>
-      <c r="AS26" s="146"/>
-      <c r="AT26" s="146"/>
-      <c r="AU26" s="146"/>
-      <c r="AV26" s="148"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="150"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
+      <c r="AK26" s="145"/>
+      <c r="AL26" s="145"/>
+      <c r="AM26" s="145"/>
+      <c r="AN26" s="145"/>
+      <c r="AO26" s="145"/>
+      <c r="AP26" s="145"/>
+      <c r="AQ26" s="145"/>
+      <c r="AR26" s="145"/>
+      <c r="AS26" s="145"/>
+      <c r="AT26" s="145"/>
+      <c r="AU26" s="145"/>
+      <c r="AV26" s="147"/>
       <c r="AW26" s="72"/>
     </row>
     <row r="27" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="142" t="s">
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="143">
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="142">
         <v>1</v>
       </c>
-      <c r="H27" s="144"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="146"/>
-      <c r="V27" s="146"/>
-      <c r="W27" s="146"/>
-      <c r="X27" s="146"/>
-      <c r="Y27" s="146"/>
-      <c r="Z27" s="146"/>
-      <c r="AA27" s="146"/>
-      <c r="AB27" s="146"/>
-      <c r="AC27" s="146"/>
-      <c r="AD27" s="146"/>
-      <c r="AE27" s="146"/>
-      <c r="AF27" s="146"/>
-      <c r="AG27" s="146"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="146"/>
-      <c r="AJ27" s="146"/>
-      <c r="AK27" s="146"/>
-      <c r="AL27" s="146"/>
-      <c r="AM27" s="146"/>
-      <c r="AN27" s="146"/>
-      <c r="AO27" s="146"/>
-      <c r="AP27" s="146"/>
-      <c r="AQ27" s="146"/>
-      <c r="AR27" s="146"/>
-      <c r="AS27" s="146"/>
-      <c r="AT27" s="146"/>
-      <c r="AU27" s="146"/>
-      <c r="AV27" s="148"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="145"/>
+      <c r="AL27" s="145"/>
+      <c r="AM27" s="145"/>
+      <c r="AN27" s="145"/>
+      <c r="AO27" s="145"/>
+      <c r="AP27" s="145"/>
+      <c r="AQ27" s="145"/>
+      <c r="AR27" s="145"/>
+      <c r="AS27" s="145"/>
+      <c r="AT27" s="145"/>
+      <c r="AU27" s="145"/>
+      <c r="AV27" s="147"/>
       <c r="AW27" s="72"/>
     </row>
     <row r="28" spans="1:249" s="2" customFormat="1" ht="0" hidden="1" customHeight="1">
       <c r="B28" s="19"/>
       <c r="C28" s="21"/>
       <c r="D28" s="45"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="136"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="135"/>
       <c r="I28" s="46"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -5292,14 +5296,14 @@
       <c r="D29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="205" t="s">
+      <c r="E29" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="205"/>
-      <c r="G29" s="159">
+      <c r="F29" s="196"/>
+      <c r="G29" s="158">
         <v>1</v>
       </c>
-      <c r="H29" s="136" t="s">
+      <c r="H29" s="135" t="s">
         <v>85</v>
       </c>
       <c r="I29" s="46"/>
@@ -5350,12 +5354,12 @@
       <c r="D30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="159">
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="158">
         <v>1</v>
       </c>
-      <c r="H30" s="144"/>
+      <c r="H30" s="143"/>
       <c r="I30" s="46"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -5455,10 +5459,10 @@
       <c r="D31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="144"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="143"/>
       <c r="I31" s="46"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5558,10 +5562,10 @@
       <c r="D32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="158"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="157"/>
       <c r="I32" s="46"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5661,10 +5665,10 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="205"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="158"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="157"/>
       <c r="I33" s="46"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -5766,12 +5770,12 @@
       <c r="D34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="204" t="s">
+      <c r="E34" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="204"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="158"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
       <c r="I34" s="46"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -5871,10 +5875,10 @@
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="158"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="157"/>
       <c r="I35" s="46"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5974,10 +5978,10 @@
       <c r="D36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="158"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="157"/>
       <c r="I36" s="46"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -6077,10 +6081,10 @@
       <c r="D37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="158"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="157"/>
       <c r="I37" s="46"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -6180,10 +6184,10 @@
       <c r="D38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="158"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="157"/>
       <c r="I38" s="46"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -6283,10 +6287,10 @@
       <c r="D39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="158"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="157"/>
       <c r="I39" s="46"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -6384,10 +6388,10 @@
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="158"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="157"/>
       <c r="I40" s="46"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -6489,12 +6493,12 @@
       <c r="D41" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="205" t="s">
+      <c r="E41" s="196" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="205"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="158"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="157"/>
       <c r="I41" s="47"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -6510,10 +6514,10 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="94"/>
-      <c r="Z41" s="94"/>
-      <c r="AA41" s="94"/>
+      <c r="X41" s="107"/>
+      <c r="Y41" s="93"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="93"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
@@ -6542,10 +6546,10 @@
       <c r="D42" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="205"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="158"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="157"/>
       <c r="I42" s="47"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -6565,7 +6569,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
-      <c r="AB42" s="94"/>
+      <c r="AB42" s="93"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
@@ -6593,10 +6597,10 @@
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="205"/>
-      <c r="F43" s="205"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="158"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="157"/>
       <c r="I43" s="47"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -6617,8 +6621,8 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-      <c r="AC43" s="94"/>
-      <c r="AD43" s="94"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="93"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
@@ -6644,10 +6648,10 @@
       <c r="D44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="205"/>
-      <c r="F44" s="205"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="158"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="157"/>
       <c r="I44" s="47"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -6669,10 +6673,10 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="94"/>
-      <c r="AE44" s="94"/>
-      <c r="AF44" s="94"/>
-      <c r="AG44" s="94"/>
+      <c r="AD44" s="93"/>
+      <c r="AE44" s="93"/>
+      <c r="AF44" s="93"/>
+      <c r="AG44" s="93"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
@@ -6697,12 +6701,12 @@
       <c r="D45" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="206" t="s">
+      <c r="E45" s="197" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="206"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="158"/>
+      <c r="F45" s="197"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="157"/>
       <c r="I45" s="47"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -6713,16 +6717,16 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-      <c r="Z45" s="94"/>
-      <c r="AA45" s="94"/>
-      <c r="AB45" s="94"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="93"/>
+      <c r="V45" s="93"/>
+      <c r="W45" s="93"/>
+      <c r="X45" s="93"/>
+      <c r="Y45" s="93"/>
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="93"/>
+      <c r="AB45" s="93"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
@@ -6750,10 +6754,10 @@
       <c r="D46" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="206"/>
-      <c r="F46" s="206"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="158"/>
+      <c r="E46" s="197"/>
+      <c r="F46" s="197"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="157"/>
       <c r="I46" s="47"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -6774,10 +6778,10 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
-      <c r="AC46" s="94"/>
-      <c r="AD46" s="94"/>
-      <c r="AE46" s="94"/>
-      <c r="AF46" s="94"/>
+      <c r="AC46" s="93"/>
+      <c r="AD46" s="93"/>
+      <c r="AE46" s="93"/>
+      <c r="AF46" s="93"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
@@ -6801,10 +6805,10 @@
       <c r="D47" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="206"/>
-      <c r="F47" s="206"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="158"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="157"/>
       <c r="I47" s="54"/>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
@@ -6828,12 +6832,12 @@
       <c r="AC47" s="55"/>
       <c r="AD47" s="55"/>
       <c r="AE47" s="55"/>
-      <c r="AF47" s="109"/>
-      <c r="AG47" s="109"/>
-      <c r="AH47" s="109"/>
-      <c r="AI47" s="109"/>
-      <c r="AJ47" s="109"/>
-      <c r="AK47" s="109"/>
+      <c r="AF47" s="108"/>
+      <c r="AG47" s="108"/>
+      <c r="AH47" s="108"/>
+      <c r="AI47" s="108"/>
+      <c r="AJ47" s="108"/>
+      <c r="AK47" s="108"/>
       <c r="AL47" s="55"/>
       <c r="AM47" s="55"/>
       <c r="AN47" s="55"/>
@@ -6852,10 +6856,10 @@
       <c r="D48" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="158"/>
+      <c r="E48" s="197"/>
+      <c r="F48" s="197"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="157"/>
       <c r="I48" s="54"/>
       <c r="J48" s="55"/>
       <c r="K48" s="55"/>
@@ -6885,12 +6889,12 @@
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
       <c r="AK48" s="55"/>
-      <c r="AL48" s="109"/>
-      <c r="AM48" s="109"/>
-      <c r="AN48" s="109"/>
-      <c r="AO48" s="109"/>
-      <c r="AP48" s="109"/>
-      <c r="AQ48" s="109"/>
+      <c r="AL48" s="108"/>
+      <c r="AM48" s="108"/>
+      <c r="AN48" s="108"/>
+      <c r="AO48" s="108"/>
+      <c r="AP48" s="108"/>
+      <c r="AQ48" s="108"/>
       <c r="AR48" s="55"/>
       <c r="AS48" s="55"/>
       <c r="AT48" s="55"/>
@@ -6903,10 +6907,10 @@
       <c r="D49" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="206"/>
-      <c r="F49" s="206"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="158"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="197"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="157"/>
       <c r="I49" s="54"/>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
@@ -6941,12 +6945,12 @@
       <c r="AN49" s="55"/>
       <c r="AO49" s="55"/>
       <c r="AP49" s="55"/>
-      <c r="AQ49" s="109"/>
-      <c r="AR49" s="109"/>
-      <c r="AS49" s="109"/>
-      <c r="AT49" s="109"/>
-      <c r="AU49" s="109"/>
-      <c r="AV49" s="110"/>
+      <c r="AQ49" s="108"/>
+      <c r="AR49" s="108"/>
+      <c r="AS49" s="108"/>
+      <c r="AT49" s="108"/>
+      <c r="AU49" s="108"/>
+      <c r="AV49" s="109"/>
     </row>
     <row r="50" spans="2:49" ht="14.1" customHeight="1">
       <c r="B50" s="20"/>
@@ -6956,12 +6960,12 @@
       <c r="D50" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="202" t="s">
+      <c r="E50" s="193" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="202"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="158"/>
+      <c r="F50" s="193"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="157"/>
       <c r="I50" s="48"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -7004,54 +7008,54 @@
       <c r="AV50" s="67"/>
     </row>
     <row r="51" spans="2:49" ht="14.1" customHeight="1">
-      <c r="E51" s="160"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
+      <c r="E51" s="159"/>
+      <c r="F51" s="159"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
       <c r="AW51" s="1"/>
     </row>
     <row r="52" spans="2:49" ht="14.1" customHeight="1">
-      <c r="E52" s="160"/>
-      <c r="F52" s="160"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
       <c r="AW52" s="1"/>
     </row>
     <row r="53" spans="2:49" ht="14.1" customHeight="1">
-      <c r="E53" s="160"/>
-      <c r="F53" s="160"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
+      <c r="E53" s="159"/>
+      <c r="F53" s="159"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
       <c r="AW53" s="1"/>
     </row>
     <row r="54" spans="2:49" ht="14.1" customHeight="1">
       <c r="B54" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="191"/>
+      <c r="C54" s="202"/>
       <c r="D54" s="82"/>
-      <c r="E54" s="160"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
       <c r="AW54" s="1"/>
     </row>
     <row r="55" spans="2:49" ht="14.1" customHeight="1">
-      <c r="B55" s="192" t="s">
+      <c r="B55" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="192" t="s">
+      <c r="C55" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="192" t="s">
+      <c r="D55" s="198" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="195" t="s">
+      <c r="E55" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="196"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="121"/>
+      <c r="F55" s="183"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="120"/>
       <c r="I55" s="75"/>
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
@@ -7064,7 +7068,7 @@
       <c r="R55" s="76"/>
       <c r="S55" s="75"/>
       <c r="T55" s="74"/>
-      <c r="U55" s="117"/>
+      <c r="U55" s="116"/>
       <c r="V55" s="74"/>
       <c r="W55" s="76"/>
       <c r="X55" s="75"/>
@@ -7095,83 +7099,83 @@
       <c r="AW55" s="1"/>
     </row>
     <row r="56" spans="2:49" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B56" s="193"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="193"/>
-      <c r="E56" s="197"/>
-      <c r="F56" s="198"/>
-      <c r="G56" s="125" t="s">
+      <c r="B56" s="199"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="185"/>
+      <c r="G56" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="H56" s="126" t="s">
+      <c r="H56" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="115"/>
-      <c r="J56" s="179"/>
-      <c r="K56" s="179" t="s">
+      <c r="I56" s="114"/>
+      <c r="J56" s="178"/>
+      <c r="K56" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="179"/>
-      <c r="M56" s="116"/>
-      <c r="N56" s="179"/>
-      <c r="O56" s="179"/>
-      <c r="P56" s="179" t="s">
+      <c r="L56" s="178"/>
+      <c r="M56" s="115"/>
+      <c r="N56" s="178"/>
+      <c r="O56" s="178"/>
+      <c r="P56" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="Q56" s="179"/>
-      <c r="R56" s="116"/>
-      <c r="S56" s="179"/>
-      <c r="T56" s="179"/>
-      <c r="U56" s="179" t="s">
+      <c r="Q56" s="178"/>
+      <c r="R56" s="115"/>
+      <c r="S56" s="178"/>
+      <c r="T56" s="178"/>
+      <c r="U56" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="V56" s="179"/>
-      <c r="W56" s="116"/>
-      <c r="X56" s="179"/>
-      <c r="Y56" s="179"/>
-      <c r="Z56" s="179" t="s">
+      <c r="V56" s="178"/>
+      <c r="W56" s="115"/>
+      <c r="X56" s="178"/>
+      <c r="Y56" s="178"/>
+      <c r="Z56" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="AA56" s="179"/>
-      <c r="AB56" s="116"/>
-      <c r="AC56" s="179"/>
-      <c r="AD56" s="179"/>
-      <c r="AE56" s="179" t="s">
+      <c r="AA56" s="178"/>
+      <c r="AB56" s="115"/>
+      <c r="AC56" s="178"/>
+      <c r="AD56" s="178"/>
+      <c r="AE56" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="AF56" s="179"/>
-      <c r="AG56" s="116"/>
-      <c r="AH56" s="179"/>
-      <c r="AI56" s="179"/>
-      <c r="AJ56" s="179" t="s">
+      <c r="AF56" s="178"/>
+      <c r="AG56" s="115"/>
+      <c r="AH56" s="178"/>
+      <c r="AI56" s="178"/>
+      <c r="AJ56" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="AK56" s="179"/>
-      <c r="AL56" s="116"/>
-      <c r="AM56" s="179"/>
-      <c r="AN56" s="179"/>
-      <c r="AO56" s="179" t="s">
+      <c r="AK56" s="178"/>
+      <c r="AL56" s="115"/>
+      <c r="AM56" s="178"/>
+      <c r="AN56" s="178"/>
+      <c r="AO56" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AP56" s="179"/>
-      <c r="AQ56" s="116"/>
-      <c r="AR56" s="179"/>
-      <c r="AS56" s="179"/>
-      <c r="AT56" s="179" t="s">
+      <c r="AP56" s="178"/>
+      <c r="AQ56" s="115"/>
+      <c r="AR56" s="178"/>
+      <c r="AS56" s="178"/>
+      <c r="AT56" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AU56" s="179"/>
-      <c r="AV56" s="116"/>
+      <c r="AU56" s="178"/>
+      <c r="AV56" s="115"/>
       <c r="AW56" s="1"/>
     </row>
     <row r="57" spans="2:49" ht="17.25" thickBot="1">
-      <c r="B57" s="194"/>
-      <c r="C57" s="194"/>
-      <c r="D57" s="194"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="200"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="130"/>
+      <c r="B57" s="200"/>
+      <c r="C57" s="200"/>
+      <c r="D57" s="200"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="129"/>
       <c r="I57" s="79">
         <f>ABS(1)</f>
         <v>1</v>
@@ -7312,14 +7316,14 @@
       <c r="D58" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="161" t="s">
+      <c r="E58" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="162"/>
-      <c r="G58" s="159">
+      <c r="F58" s="161"/>
+      <c r="G58" s="158">
         <v>1</v>
       </c>
-      <c r="H58" s="163" t="s">
+      <c r="H58" s="162" t="s">
         <v>20</v>
       </c>
       <c r="I58" s="87"/>
@@ -7369,12 +7373,12 @@
       <c r="D59" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="164"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="159">
+      <c r="E59" s="163"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="158">
         <v>0.8</v>
       </c>
-      <c r="H59" s="163" t="s">
+      <c r="H59" s="162" t="s">
         <v>98</v>
       </c>
       <c r="I59" s="47"/>
@@ -7384,9 +7388,9 @@
       <c r="M59" s="3"/>
       <c r="N59" s="92"/>
       <c r="O59" s="92"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="95"/>
-      <c r="R59" s="95"/>
+      <c r="P59" s="93"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="94"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -7422,15 +7426,15 @@
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
       <c r="D60" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="164"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="159">
+        <v>100</v>
+      </c>
+      <c r="E60" s="163"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="158">
         <v>1</v>
       </c>
-      <c r="H60" s="163" t="s">
-        <v>101</v>
+      <c r="H60" s="162" t="s">
+        <v>99</v>
       </c>
       <c r="I60" s="47"/>
       <c r="J60" s="3"/>
@@ -7438,10 +7442,10 @@
       <c r="L60" s="3"/>
       <c r="M60" s="92"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="95"/>
+      <c r="O60" s="94"/>
       <c r="P60" s="92"/>
-      <c r="Q60" s="94"/>
-      <c r="R60" s="94"/>
+      <c r="Q60" s="93"/>
+      <c r="R60" s="93"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -7479,13 +7483,13 @@
       <c r="D61" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E61" s="155"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="159">
-        <v>0.7</v>
-      </c>
-      <c r="H61" s="163" t="s">
-        <v>99</v>
+      <c r="E61" s="154"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="158">
+        <v>0.8</v>
+      </c>
+      <c r="H61" s="162" t="s">
+        <v>102</v>
       </c>
       <c r="I61" s="48"/>
       <c r="J61" s="6"/>
@@ -7495,8 +7499,8 @@
       <c r="N61" s="91"/>
       <c r="O61" s="91"/>
       <c r="P61" s="91"/>
-      <c r="Q61" s="93"/>
-      <c r="R61" s="96"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="95"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
@@ -7536,15 +7540,15 @@
       <c r="D62" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="161" t="s">
+      <c r="E62" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="F62" s="162"/>
-      <c r="G62" s="159">
-        <v>0.7</v>
-      </c>
-      <c r="H62" s="163" t="s">
-        <v>100</v>
+      <c r="F62" s="161"/>
+      <c r="G62" s="158">
+        <v>1</v>
+      </c>
+      <c r="H62" s="162" t="s">
+        <v>101</v>
       </c>
       <c r="I62" s="87"/>
       <c r="J62" s="50"/>
@@ -7553,13 +7557,13 @@
       <c r="M62" s="50"/>
       <c r="N62" s="50"/>
       <c r="O62" s="50"/>
-      <c r="P62" s="180"/>
-      <c r="Q62" s="50"/>
+      <c r="P62" s="179"/>
+      <c r="Q62" s="212"/>
       <c r="R62" s="50"/>
-      <c r="S62" s="97"/>
-      <c r="T62" s="97"/>
-      <c r="U62" s="98"/>
-      <c r="V62" s="98"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="97"/>
+      <c r="V62" s="97"/>
       <c r="W62" s="50"/>
       <c r="X62" s="50"/>
       <c r="Y62" s="50"/>
@@ -7593,10 +7597,10 @@
       <c r="D63" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E63" s="164"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="163"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="164"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="162"/>
       <c r="I63" s="47"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -7609,12 +7613,12 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="94"/>
-      <c r="V63" s="94"/>
-      <c r="W63" s="94"/>
-      <c r="X63" s="99"/>
-      <c r="Y63" s="99"/>
-      <c r="Z63" s="95"/>
+      <c r="U63" s="93"/>
+      <c r="V63" s="93"/>
+      <c r="W63" s="93"/>
+      <c r="X63" s="98"/>
+      <c r="Y63" s="98"/>
+      <c r="Z63" s="94"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
@@ -7644,10 +7648,14 @@
       <c r="D64" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="164"/>
-      <c r="F64" s="160"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="163"/>
+      <c r="E64" s="163"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="158">
+        <v>0.2</v>
+      </c>
+      <c r="H64" s="162" t="s">
+        <v>103</v>
+      </c>
       <c r="I64" s="47"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -7656,22 +7664,22 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="Q64" s="92"/>
       <c r="R64" s="3"/>
-      <c r="S64" s="95"/>
-      <c r="T64" s="95"/>
-      <c r="U64" s="95"/>
-      <c r="V64" s="95"/>
-      <c r="W64" s="95"/>
+      <c r="S64" s="94"/>
+      <c r="T64" s="94"/>
+      <c r="U64" s="94"/>
+      <c r="V64" s="94"/>
+      <c r="W64" s="94"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
-      <c r="AA64" s="94"/>
-      <c r="AB64" s="94"/>
-      <c r="AC64" s="94"/>
-      <c r="AD64" s="99"/>
-      <c r="AE64" s="99"/>
-      <c r="AF64" s="99"/>
+      <c r="AA64" s="93"/>
+      <c r="AB64" s="93"/>
+      <c r="AC64" s="93"/>
+      <c r="AD64" s="98"/>
+      <c r="AE64" s="98"/>
+      <c r="AF64" s="98"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
@@ -7695,10 +7703,10 @@
       <c r="D65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="155"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="158"/>
-      <c r="H65" s="163"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="162"/>
       <c r="I65" s="48"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -7720,18 +7728,18 @@
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
-      <c r="AD65" s="96"/>
-      <c r="AE65" s="96"/>
-      <c r="AF65" s="101"/>
-      <c r="AG65" s="101"/>
-      <c r="AH65" s="101"/>
-      <c r="AI65" s="101"/>
-      <c r="AJ65" s="101"/>
-      <c r="AK65" s="101"/>
-      <c r="AL65" s="101"/>
-      <c r="AM65" s="101"/>
-      <c r="AN65" s="101"/>
-      <c r="AO65" s="101"/>
+      <c r="AD65" s="95"/>
+      <c r="AE65" s="95"/>
+      <c r="AF65" s="100"/>
+      <c r="AG65" s="100"/>
+      <c r="AH65" s="100"/>
+      <c r="AI65" s="100"/>
+      <c r="AJ65" s="100"/>
+      <c r="AK65" s="100"/>
+      <c r="AL65" s="100"/>
+      <c r="AM65" s="100"/>
+      <c r="AN65" s="100"/>
+      <c r="AO65" s="100"/>
       <c r="AP65" s="6"/>
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6"/>
@@ -7748,12 +7756,12 @@
       <c r="D66" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="161" t="s">
+      <c r="E66" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="162"/>
-      <c r="G66" s="158"/>
-      <c r="H66" s="163"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="157"/>
+      <c r="H66" s="162"/>
       <c r="I66" s="49"/>
       <c r="J66" s="50"/>
       <c r="K66" s="50"/>
@@ -7768,9 +7776,9 @@
       <c r="T66" s="50"/>
       <c r="U66" s="50"/>
       <c r="V66" s="50"/>
-      <c r="W66" s="97"/>
-      <c r="X66" s="97"/>
-      <c r="Y66" s="100"/>
+      <c r="W66" s="96"/>
+      <c r="X66" s="96"/>
+      <c r="Y66" s="99"/>
       <c r="Z66" s="50"/>
       <c r="AA66" s="50"/>
       <c r="AB66" s="50"/>
@@ -7801,10 +7809,10 @@
       <c r="D67" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="164"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="158"/>
-      <c r="H67" s="163"/>
+      <c r="E67" s="163"/>
+      <c r="F67" s="164"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="162"/>
       <c r="I67" s="47"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -7821,8 +7829,8 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="99"/>
-      <c r="Z67" s="99"/>
+      <c r="Y67" s="98"/>
+      <c r="Z67" s="98"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
@@ -7850,10 +7858,10 @@
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="164"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="163"/>
+      <c r="E68" s="163"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="162"/>
       <c r="I68" s="47"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -7899,10 +7907,10 @@
       <c r="B69" s="23"/>
       <c r="C69" s="24"/>
       <c r="D69" s="35"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="158"/>
-      <c r="H69" s="163"/>
+      <c r="E69" s="154"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="157"/>
+      <c r="H69" s="162"/>
       <c r="I69" s="48"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -7952,12 +7960,12 @@
       <c r="D70" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="161" t="s">
+      <c r="E70" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="162"/>
-      <c r="G70" s="158"/>
-      <c r="H70" s="163"/>
+      <c r="F70" s="161"/>
+      <c r="G70" s="157"/>
+      <c r="H70" s="162"/>
       <c r="I70" s="49"/>
       <c r="J70" s="50"/>
       <c r="K70" s="50"/>
@@ -7967,7 +7975,7 @@
       <c r="O70" s="50"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="50"/>
-      <c r="R70" s="98"/>
+      <c r="R70" s="97"/>
       <c r="S70" s="50"/>
       <c r="T70" s="50"/>
       <c r="U70" s="50"/>
@@ -7983,8 +7991,8 @@
       <c r="AE70" s="50"/>
       <c r="AF70" s="50"/>
       <c r="AG70" s="50"/>
-      <c r="AH70" s="111"/>
-      <c r="AI70" s="111"/>
+      <c r="AH70" s="110"/>
+      <c r="AI70" s="110"/>
       <c r="AJ70" s="50"/>
       <c r="AK70" s="50"/>
       <c r="AL70" s="50"/>
@@ -8005,12 +8013,12 @@
       <c r="D71" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E71" s="164"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="159">
+      <c r="E71" s="163"/>
+      <c r="F71" s="164"/>
+      <c r="G71" s="158">
         <v>1</v>
       </c>
-      <c r="H71" s="163" t="s">
+      <c r="H71" s="162" t="s">
         <v>15</v>
       </c>
       <c r="I71" s="47"/>
@@ -8022,7 +8030,7 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="95"/>
+      <c r="R71" s="94"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
@@ -8062,12 +8070,12 @@
       <c r="D72" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="161" t="s">
+      <c r="E72" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="162"/>
-      <c r="G72" s="158"/>
-      <c r="H72" s="163"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="157"/>
+      <c r="H72" s="162"/>
       <c r="I72" s="47"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -8093,10 +8101,10 @@
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
-      <c r="AH72" s="99"/>
-      <c r="AI72" s="94"/>
-      <c r="AJ72" s="94"/>
-      <c r="AK72" s="94"/>
+      <c r="AH72" s="98"/>
+      <c r="AI72" s="93"/>
+      <c r="AJ72" s="93"/>
+      <c r="AK72" s="93"/>
       <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
@@ -8115,10 +8123,10 @@
       <c r="D73" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="155"/>
-      <c r="F73" s="156"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="157"/>
+      <c r="E73" s="154"/>
+      <c r="F73" s="155"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="156"/>
       <c r="I73" s="48"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -8144,13 +8152,13 @@
       <c r="AE73" s="6"/>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
-      <c r="AH73" s="96"/>
-      <c r="AI73" s="96"/>
-      <c r="AJ73" s="96"/>
-      <c r="AK73" s="96"/>
-      <c r="AL73" s="101"/>
-      <c r="AM73" s="101"/>
-      <c r="AN73" s="101"/>
+      <c r="AH73" s="95"/>
+      <c r="AI73" s="95"/>
+      <c r="AJ73" s="95"/>
+      <c r="AK73" s="95"/>
+      <c r="AL73" s="100"/>
+      <c r="AM73" s="100"/>
+      <c r="AN73" s="100"/>
       <c r="AO73" s="6"/>
       <c r="AP73" s="6"/>
       <c r="AQ73" s="6"/>
@@ -8279,22 +8287,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E24:F27"/>
-    <mergeCell ref="E29:F33"/>
-    <mergeCell ref="E34:F39"/>
-    <mergeCell ref="E41:F44"/>
-    <mergeCell ref="E45:F49"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B3:AZ3"/>
     <mergeCell ref="B2:AZ2"/>
     <mergeCell ref="E5:F8"/>
@@ -8303,6 +8295,22 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E24:F27"/>
+    <mergeCell ref="E29:F33"/>
+    <mergeCell ref="E34:F39"/>
+    <mergeCell ref="E41:F44"/>
+    <mergeCell ref="E45:F49"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/Weekly_Time_Check.xlsx
+++ b/schedule/Weekly_Time_Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\OneDrive\Desktop\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FAF320-9BED-4F51-8244-82A62ED5E99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94F972E-DEA8-466D-8785-E9575097CC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1797,7 +1797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2326,9 +2326,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2343,6 +2340,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2434,7 +2437,7 @@
     <xf numFmtId="0" fontId="26" fillId="39" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3550,7 +3553,7 @@
   <dimension ref="A1:IV111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -3575,136 +3578,136 @@
       <c r="AW1" s="1"/>
     </row>
     <row r="2" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="182"/>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="182"/>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="182"/>
-      <c r="AH2" s="182"/>
-      <c r="AI2" s="182"/>
-      <c r="AJ2" s="182"/>
-      <c r="AK2" s="182"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="182"/>
-      <c r="AN2" s="182"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="182"/>
-      <c r="AQ2" s="182"/>
-      <c r="AR2" s="182"/>
-      <c r="AS2" s="182"/>
-      <c r="AT2" s="182"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="182"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="183"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="183"/>
+      <c r="AJ2" s="183"/>
+      <c r="AK2" s="183"/>
+      <c r="AL2" s="183"/>
+      <c r="AM2" s="183"/>
+      <c r="AN2" s="183"/>
+      <c r="AO2" s="183"/>
+      <c r="AP2" s="183"/>
+      <c r="AQ2" s="183"/>
+      <c r="AR2" s="183"/>
+      <c r="AS2" s="183"/>
+      <c r="AT2" s="183"/>
+      <c r="AU2" s="183"/>
+      <c r="AV2" s="183"/>
+      <c r="AW2" s="183"/>
+      <c r="AX2" s="183"/>
+      <c r="AY2" s="183"/>
+      <c r="AZ2" s="183"/>
     </row>
     <row r="3" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="182"/>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="182"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="182"/>
-      <c r="AL3" s="182"/>
-      <c r="AM3" s="182"/>
-      <c r="AN3" s="182"/>
-      <c r="AO3" s="182"/>
-      <c r="AP3" s="182"/>
-      <c r="AQ3" s="182"/>
-      <c r="AR3" s="182"/>
-      <c r="AS3" s="182"/>
-      <c r="AT3" s="182"/>
-      <c r="AU3" s="182"/>
-      <c r="AV3" s="182"/>
-      <c r="AW3" s="182"/>
-      <c r="AX3" s="182"/>
-      <c r="AY3" s="182"/>
-      <c r="AZ3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="183"/>
+      <c r="AJ3" s="183"/>
+      <c r="AK3" s="183"/>
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="183"/>
+      <c r="AR3" s="183"/>
+      <c r="AS3" s="183"/>
+      <c r="AT3" s="183"/>
+      <c r="AU3" s="183"/>
+      <c r="AV3" s="183"/>
+      <c r="AW3" s="183"/>
+      <c r="AX3" s="183"/>
+      <c r="AY3" s="183"/>
+      <c r="AZ3" s="183"/>
     </row>
     <row r="4" spans="2:100" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="191"/>
+      <c r="C4" s="192"/>
       <c r="D4" s="82"/>
       <c r="AW4" s="1"/>
       <c r="AZ4" s="77"/>
     </row>
     <row r="5" spans="2:100" ht="14.25" customHeight="1">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="184"/>
+      <c r="F5" s="185"/>
       <c r="G5" s="40"/>
       <c r="H5" s="37"/>
       <c r="I5" s="75"/>
@@ -3749,11 +3752,11 @@
       <c r="AV5" s="76"/>
     </row>
     <row r="6" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="186"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="187"/>
       <c r="G6" s="41" t="s">
         <v>93</v>
       </c>
@@ -3761,69 +3764,69 @@
         <v>97</v>
       </c>
       <c r="I6" s="115"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179" t="s">
+      <c r="J6" s="178"/>
+      <c r="K6" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="179"/>
+      <c r="L6" s="178"/>
       <c r="M6" s="116"/>
       <c r="N6" s="115"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179" t="s">
+      <c r="O6" s="178"/>
+      <c r="P6" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="179"/>
+      <c r="Q6" s="178"/>
       <c r="R6" s="116"/>
       <c r="S6" s="115"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179" t="s">
+      <c r="T6" s="178"/>
+      <c r="U6" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="179"/>
+      <c r="V6" s="178"/>
       <c r="W6" s="116"/>
       <c r="X6" s="115"/>
-      <c r="Y6" s="179"/>
-      <c r="Z6" s="179" t="s">
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="179"/>
+      <c r="AA6" s="178"/>
       <c r="AB6" s="116"/>
       <c r="AC6" s="115"/>
-      <c r="AD6" s="179"/>
-      <c r="AE6" s="179" t="s">
+      <c r="AD6" s="178"/>
+      <c r="AE6" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="179"/>
+      <c r="AF6" s="178"/>
       <c r="AG6" s="116"/>
       <c r="AH6" s="115"/>
-      <c r="AI6" s="179"/>
-      <c r="AJ6" s="179" t="s">
+      <c r="AI6" s="178"/>
+      <c r="AJ6" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="179"/>
+      <c r="AK6" s="178"/>
       <c r="AL6" s="116"/>
       <c r="AM6" s="115"/>
-      <c r="AN6" s="179"/>
-      <c r="AO6" s="179" t="s">
+      <c r="AN6" s="178"/>
+      <c r="AO6" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AP6" s="179"/>
+      <c r="AP6" s="178"/>
       <c r="AQ6" s="116"/>
       <c r="AR6" s="115"/>
-      <c r="AS6" s="179"/>
-      <c r="AT6" s="179" t="s">
+      <c r="AS6" s="178"/>
+      <c r="AT6" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" s="179"/>
+      <c r="AU6" s="178"/>
       <c r="AV6" s="116"/>
       <c r="AW6" s="72"/>
     </row>
     <row r="7" spans="2:100" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="41"/>
       <c r="H7" s="38"/>
       <c r="I7" s="79">
@@ -3957,11 +3960,11 @@
       <c r="AW7" s="72"/>
     </row>
     <row r="8" spans="2:100" s="2" customFormat="1" ht="0.75" customHeight="1">
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="189"/>
       <c r="G8" s="42"/>
       <c r="H8" s="39"/>
       <c r="I8" s="79"/>
@@ -4034,7 +4037,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="105"/>
       <c r="O9" s="113"/>
-      <c r="P9" s="181"/>
+      <c r="P9" s="180"/>
       <c r="Q9" s="113"/>
       <c r="R9" s="104"/>
       <c r="S9" s="25"/>
@@ -4081,11 +4084,11 @@
       <c r="F10" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="212">
+      <c r="G10" s="181">
         <v>0.8</v>
       </c>
       <c r="H10" s="169">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="83"/>
       <c r="J10" s="84"/>
@@ -4096,8 +4099,8 @@
       <c r="O10" s="58"/>
       <c r="P10" s="58"/>
       <c r="Q10" s="58"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -4314,10 +4317,10 @@
       <c r="D14" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="189" t="s">
+      <c r="E14" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="189"/>
+      <c r="F14" s="190"/>
       <c r="G14" s="168">
         <v>1</v>
       </c>
@@ -4434,8 +4437,12 @@
       </c>
       <c r="E16" s="174"/>
       <c r="F16" s="175"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="177"/>
+      <c r="G16" s="213">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="176">
+        <v>9</v>
+      </c>
       <c r="I16" s="85"/>
       <c r="J16" s="86"/>
       <c r="K16" s="5"/>
@@ -4445,8 +4452,8 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="107"/>
+      <c r="R16" s="182"/>
+      <c r="S16" s="182"/>
       <c r="T16" s="107"/>
       <c r="U16" s="107"/>
       <c r="V16" s="107"/>
@@ -4491,10 +4498,10 @@
     </row>
     <row r="19" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1"/>
     <row r="20" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B20" s="210" t="s">
+      <c r="B20" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="211"/>
+      <c r="C20" s="212"/>
       <c r="D20" s="118"/>
       <c r="E20" s="119"/>
       <c r="F20" s="119"/>
@@ -4542,19 +4549,19 @@
       <c r="AV20" s="119"/>
     </row>
     <row r="21" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1">
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="207" t="s">
+      <c r="D21" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="195" t="s">
+      <c r="E21" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="120"/>
       <c r="H21" s="121"/>
       <c r="I21" s="122"/>
@@ -4599,11 +4606,11 @@
       <c r="AV21" s="124"/>
     </row>
     <row r="22" spans="1:249" s="2" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="198"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="199"/>
       <c r="G22" s="125" t="s">
         <v>93</v>
       </c>
@@ -4611,69 +4618,69 @@
         <v>97</v>
       </c>
       <c r="I22" s="127"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178" t="s">
+      <c r="J22" s="177"/>
+      <c r="K22" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="178"/>
+      <c r="L22" s="177"/>
       <c r="M22" s="128"/>
       <c r="N22" s="127"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178" t="s">
+      <c r="O22" s="177"/>
+      <c r="P22" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="178"/>
+      <c r="Q22" s="177"/>
       <c r="R22" s="128"/>
       <c r="S22" s="127"/>
-      <c r="T22" s="178"/>
-      <c r="U22" s="178" t="s">
+      <c r="T22" s="177"/>
+      <c r="U22" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="V22" s="178"/>
+      <c r="V22" s="177"/>
       <c r="W22" s="128"/>
       <c r="X22" s="127"/>
-      <c r="Y22" s="178"/>
-      <c r="Z22" s="178" t="s">
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="AA22" s="178"/>
+      <c r="AA22" s="177"/>
       <c r="AB22" s="128"/>
       <c r="AC22" s="127"/>
-      <c r="AD22" s="178"/>
-      <c r="AE22" s="178" t="s">
+      <c r="AD22" s="177"/>
+      <c r="AE22" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="178"/>
+      <c r="AF22" s="177"/>
       <c r="AG22" s="128"/>
       <c r="AH22" s="127"/>
-      <c r="AI22" s="178"/>
-      <c r="AJ22" s="178" t="s">
+      <c r="AI22" s="177"/>
+      <c r="AJ22" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="AK22" s="178"/>
+      <c r="AK22" s="177"/>
       <c r="AL22" s="128"/>
       <c r="AM22" s="127"/>
-      <c r="AN22" s="178"/>
-      <c r="AO22" s="178" t="s">
+      <c r="AN22" s="177"/>
+      <c r="AO22" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="AP22" s="178"/>
+      <c r="AP22" s="177"/>
       <c r="AQ22" s="128"/>
       <c r="AR22" s="127"/>
-      <c r="AS22" s="178"/>
-      <c r="AT22" s="178" t="s">
+      <c r="AS22" s="177"/>
+      <c r="AT22" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="AU22" s="178"/>
+      <c r="AU22" s="177"/>
       <c r="AV22" s="128"/>
     </row>
     <row r="23" spans="1:249" s="60" customFormat="1" ht="14.1" customHeight="1" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="209"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="201"/>
       <c r="G23" s="129"/>
       <c r="H23" s="130"/>
       <c r="I23" s="131">
@@ -5016,10 +5023,10 @@
       <c r="D24" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="203" t="s">
+      <c r="E24" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="203"/>
+      <c r="F24" s="204"/>
       <c r="G24" s="135">
         <v>1</v>
       </c>
@@ -5076,8 +5083,8 @@
       <c r="D25" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
       <c r="G25" s="143">
         <v>1</v>
       </c>
@@ -5130,8 +5137,8 @@
       <c r="D26" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
       <c r="G26" s="143">
         <v>1</v>
       </c>
@@ -5186,8 +5193,8 @@
       <c r="D27" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
       <c r="G27" s="143">
         <v>1</v>
       </c>
@@ -5292,10 +5299,10 @@
       <c r="D29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="205" t="s">
+      <c r="E29" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="205"/>
+      <c r="F29" s="206"/>
       <c r="G29" s="159">
         <v>1</v>
       </c>
@@ -5350,8 +5357,8 @@
       <c r="D30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
       <c r="G30" s="159">
         <v>1</v>
       </c>
@@ -5455,8 +5462,8 @@
       <c r="D31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="206"/>
       <c r="G31" s="157"/>
       <c r="H31" s="144"/>
       <c r="I31" s="46"/>
@@ -5558,8 +5565,8 @@
       <c r="D32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
       <c r="G32" s="157"/>
       <c r="H32" s="158"/>
       <c r="I32" s="46"/>
@@ -5661,8 +5668,8 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="205"/>
-      <c r="F33" s="205"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
       <c r="G33" s="157"/>
       <c r="H33" s="158"/>
       <c r="I33" s="46"/>
@@ -5766,10 +5773,10 @@
       <c r="D34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="204" t="s">
+      <c r="E34" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="204"/>
+      <c r="F34" s="205"/>
       <c r="G34" s="157"/>
       <c r="H34" s="158"/>
       <c r="I34" s="46"/>
@@ -5871,8 +5878,8 @@
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
       <c r="G35" s="157"/>
       <c r="H35" s="158"/>
       <c r="I35" s="46"/>
@@ -5974,8 +5981,8 @@
       <c r="D36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
       <c r="G36" s="157"/>
       <c r="H36" s="158"/>
       <c r="I36" s="46"/>
@@ -6077,8 +6084,8 @@
       <c r="D37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="204"/>
-      <c r="F37" s="204"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
       <c r="G37" s="157"/>
       <c r="H37" s="158"/>
       <c r="I37" s="46"/>
@@ -6180,8 +6187,8 @@
       <c r="D38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
       <c r="G38" s="157"/>
       <c r="H38" s="158"/>
       <c r="I38" s="46"/>
@@ -6283,8 +6290,8 @@
       <c r="D39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
       <c r="G39" s="157"/>
       <c r="H39" s="158"/>
       <c r="I39" s="46"/>
@@ -6489,10 +6496,10 @@
       <c r="D41" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="205" t="s">
+      <c r="E41" s="206" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="205"/>
+      <c r="F41" s="206"/>
       <c r="G41" s="157"/>
       <c r="H41" s="158"/>
       <c r="I41" s="47"/>
@@ -6542,8 +6549,8 @@
       <c r="D42" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="205"/>
-      <c r="F42" s="205"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
       <c r="G42" s="157"/>
       <c r="H42" s="158"/>
       <c r="I42" s="47"/>
@@ -6593,8 +6600,8 @@
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="205"/>
-      <c r="F43" s="205"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="206"/>
       <c r="G43" s="157"/>
       <c r="H43" s="158"/>
       <c r="I43" s="47"/>
@@ -6644,8 +6651,8 @@
       <c r="D44" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="205"/>
-      <c r="F44" s="205"/>
+      <c r="E44" s="206"/>
+      <c r="F44" s="206"/>
       <c r="G44" s="157"/>
       <c r="H44" s="158"/>
       <c r="I44" s="47"/>
@@ -6697,10 +6704,10 @@
       <c r="D45" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="206" t="s">
+      <c r="E45" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="206"/>
+      <c r="F45" s="207"/>
       <c r="G45" s="157"/>
       <c r="H45" s="158"/>
       <c r="I45" s="47"/>
@@ -6750,8 +6757,8 @@
       <c r="D46" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="206"/>
-      <c r="F46" s="206"/>
+      <c r="E46" s="207"/>
+      <c r="F46" s="207"/>
       <c r="G46" s="157"/>
       <c r="H46" s="158"/>
       <c r="I46" s="47"/>
@@ -6801,8 +6808,8 @@
       <c r="D47" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="206"/>
-      <c r="F47" s="206"/>
+      <c r="E47" s="207"/>
+      <c r="F47" s="207"/>
       <c r="G47" s="157"/>
       <c r="H47" s="158"/>
       <c r="I47" s="54"/>
@@ -6852,8 +6859,8 @@
       <c r="D48" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
+      <c r="E48" s="207"/>
+      <c r="F48" s="207"/>
       <c r="G48" s="157"/>
       <c r="H48" s="158"/>
       <c r="I48" s="54"/>
@@ -6903,8 +6910,8 @@
       <c r="D49" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="206"/>
-      <c r="F49" s="206"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
       <c r="G49" s="157"/>
       <c r="H49" s="158"/>
       <c r="I49" s="54"/>
@@ -6956,10 +6963,10 @@
       <c r="D50" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="202" t="s">
+      <c r="E50" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="202"/>
+      <c r="F50" s="203"/>
       <c r="G50" s="157"/>
       <c r="H50" s="158"/>
       <c r="I50" s="48"/>
@@ -7025,10 +7032,10 @@
       <c r="AW53" s="1"/>
     </row>
     <row r="54" spans="2:49" ht="14.1" customHeight="1">
-      <c r="B54" s="201" t="s">
+      <c r="B54" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="191"/>
+      <c r="C54" s="192"/>
       <c r="D54" s="82"/>
       <c r="E54" s="160"/>
       <c r="F54" s="160"/>
@@ -7037,19 +7044,19 @@
       <c r="AW54" s="1"/>
     </row>
     <row r="55" spans="2:49" ht="14.1" customHeight="1">
-      <c r="B55" s="192" t="s">
+      <c r="B55" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="192" t="s">
+      <c r="C55" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="192" t="s">
+      <c r="D55" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="195" t="s">
+      <c r="E55" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="196"/>
+      <c r="F55" s="197"/>
       <c r="G55" s="120"/>
       <c r="H55" s="121"/>
       <c r="I55" s="75"/>
@@ -7095,11 +7102,11 @@
       <c r="AW55" s="1"/>
     </row>
     <row r="56" spans="2:49" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B56" s="193"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="193"/>
-      <c r="E56" s="197"/>
-      <c r="F56" s="198"/>
+      <c r="B56" s="194"/>
+      <c r="C56" s="194"/>
+      <c r="D56" s="194"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="199"/>
       <c r="G56" s="125" t="s">
         <v>93</v>
       </c>
@@ -7107,69 +7114,69 @@
         <v>97</v>
       </c>
       <c r="I56" s="115"/>
-      <c r="J56" s="179"/>
-      <c r="K56" s="179" t="s">
+      <c r="J56" s="178"/>
+      <c r="K56" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="179"/>
+      <c r="L56" s="178"/>
       <c r="M56" s="116"/>
-      <c r="N56" s="179"/>
-      <c r="O56" s="179"/>
-      <c r="P56" s="179" t="s">
+      <c r="N56" s="178"/>
+      <c r="O56" s="178"/>
+      <c r="P56" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="Q56" s="179"/>
+      <c r="Q56" s="178"/>
       <c r="R56" s="116"/>
-      <c r="S56" s="179"/>
-      <c r="T56" s="179"/>
-      <c r="U56" s="179" t="s">
+      <c r="S56" s="178"/>
+      <c r="T56" s="178"/>
+      <c r="U56" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="V56" s="179"/>
+      <c r="V56" s="178"/>
       <c r="W56" s="116"/>
-      <c r="X56" s="179"/>
-      <c r="Y56" s="179"/>
-      <c r="Z56" s="179" t="s">
+      <c r="X56" s="178"/>
+      <c r="Y56" s="178"/>
+      <c r="Z56" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="AA56" s="179"/>
+      <c r="AA56" s="178"/>
       <c r="AB56" s="116"/>
-      <c r="AC56" s="179"/>
-      <c r="AD56" s="179"/>
-      <c r="AE56" s="179" t="s">
+      <c r="AC56" s="178"/>
+      <c r="AD56" s="178"/>
+      <c r="AE56" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="AF56" s="179"/>
+      <c r="AF56" s="178"/>
       <c r="AG56" s="116"/>
-      <c r="AH56" s="179"/>
-      <c r="AI56" s="179"/>
-      <c r="AJ56" s="179" t="s">
+      <c r="AH56" s="178"/>
+      <c r="AI56" s="178"/>
+      <c r="AJ56" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="AK56" s="179"/>
+      <c r="AK56" s="178"/>
       <c r="AL56" s="116"/>
-      <c r="AM56" s="179"/>
-      <c r="AN56" s="179"/>
-      <c r="AO56" s="179" t="s">
+      <c r="AM56" s="178"/>
+      <c r="AN56" s="178"/>
+      <c r="AO56" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="AP56" s="179"/>
+      <c r="AP56" s="178"/>
       <c r="AQ56" s="116"/>
-      <c r="AR56" s="179"/>
-      <c r="AS56" s="179"/>
-      <c r="AT56" s="179" t="s">
+      <c r="AR56" s="178"/>
+      <c r="AS56" s="178"/>
+      <c r="AT56" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="AU56" s="179"/>
+      <c r="AU56" s="178"/>
       <c r="AV56" s="116"/>
       <c r="AW56" s="1"/>
     </row>
     <row r="57" spans="2:49" ht="17.25" thickBot="1">
-      <c r="B57" s="194"/>
-      <c r="C57" s="194"/>
-      <c r="D57" s="194"/>
-      <c r="E57" s="199"/>
-      <c r="F57" s="200"/>
+      <c r="B57" s="195"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="195"/>
+      <c r="E57" s="200"/>
+      <c r="F57" s="201"/>
       <c r="G57" s="129"/>
       <c r="H57" s="130"/>
       <c r="I57" s="79">
@@ -7553,7 +7560,7 @@
       <c r="M62" s="50"/>
       <c r="N62" s="50"/>
       <c r="O62" s="50"/>
-      <c r="P62" s="180"/>
+      <c r="P62" s="179"/>
       <c r="Q62" s="50"/>
       <c r="R62" s="50"/>
       <c r="S62" s="97"/>
